--- a/parole.xlsx
+++ b/parole.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\edu\albe\curcuma\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="245">
   <si>
     <t>Tabella 1</t>
   </si>
@@ -220,18 +228,12 @@
     <t>Sincero</t>
   </si>
   <si>
-    <t>Viscido</t>
-  </si>
-  <si>
     <t>Iracondo</t>
   </si>
   <si>
     <t>Volgare</t>
   </si>
   <si>
-    <t>Elegate</t>
-  </si>
-  <si>
     <t>Forbito</t>
   </si>
   <si>
@@ -380,15 +382,384 @@
   </si>
   <si>
     <t>Sensazione</t>
+  </si>
+  <si>
+    <t>Рука</t>
+  </si>
+  <si>
+    <t>Нога</t>
+  </si>
+  <si>
+    <t>Бедро</t>
+  </si>
+  <si>
+    <t>Стопа</t>
+  </si>
+  <si>
+    <t>лодыжка</t>
+  </si>
+  <si>
+    <t>Запястье</t>
+  </si>
+  <si>
+    <t>Палец</t>
+  </si>
+  <si>
+    <t>Ноготь</t>
+  </si>
+  <si>
+    <t>Глаза</t>
+  </si>
+  <si>
+    <t>Волосы</t>
+  </si>
+  <si>
+    <t>Ухо</t>
+  </si>
+  <si>
+    <t>Нос</t>
+  </si>
+  <si>
+    <t>Рот</t>
+  </si>
+  <si>
+    <t>Зуб</t>
+  </si>
+  <si>
+    <t>Щека</t>
+  </si>
+  <si>
+    <t>Колено</t>
+  </si>
+  <si>
+    <t>Локоть</t>
+  </si>
+  <si>
+    <t>Голова</t>
+  </si>
+  <si>
+    <t>Борода</t>
+  </si>
+  <si>
+    <t>Талия</t>
+  </si>
+  <si>
+    <t>Бок(а)</t>
+  </si>
+  <si>
+    <t>Сидеть</t>
+  </si>
+  <si>
+    <t>Спина</t>
+  </si>
+  <si>
+    <t>Ствол</t>
+  </si>
+  <si>
+    <t>Живот</t>
+  </si>
+  <si>
+    <t>Грудь</t>
+  </si>
+  <si>
+    <t>Сердце</t>
+  </si>
+  <si>
+    <t>Желудок</t>
+  </si>
+  <si>
+    <t>Лёгкие</t>
+  </si>
+  <si>
+    <t>Печень</t>
+  </si>
+  <si>
+    <t>Мозг</t>
+  </si>
+  <si>
+    <t>Кишечник</t>
+  </si>
+  <si>
+    <t>Скамейка</t>
+  </si>
+  <si>
+    <t>Стул</t>
+  </si>
+  <si>
+    <t>Кресло</t>
+  </si>
+  <si>
+    <t>Диван</t>
+  </si>
+  <si>
+    <t>Кровать</t>
+  </si>
+  <si>
+    <t>Трон</t>
+  </si>
+  <si>
+    <t>Стол (письменный)</t>
+  </si>
+  <si>
+    <t>Стол (обеденный)</t>
+  </si>
+  <si>
+    <t>Тумбочка</t>
+  </si>
+  <si>
+    <t>Шкаф</t>
+  </si>
+  <si>
+    <t>Стеллаж</t>
+  </si>
+  <si>
+    <t>Полка</t>
+  </si>
+  <si>
+    <t>Тумба/Комод</t>
+  </si>
+  <si>
+    <t>Ящик</t>
+  </si>
+  <si>
+    <t>Холодильник</t>
+  </si>
+  <si>
+    <t>Морозилка</t>
+  </si>
+  <si>
+    <t>Кофейный столик</t>
+  </si>
+  <si>
+    <t>Подставка для обуви</t>
+  </si>
+  <si>
+    <t>Книжный магазин</t>
+  </si>
+  <si>
+    <t>Камин</t>
+  </si>
+  <si>
+    <t>Батарея</t>
+  </si>
+  <si>
+    <t>Печь/обогреватель</t>
+  </si>
+  <si>
+    <t>Ленивый</t>
+  </si>
+  <si>
+    <t>Хозяйственный</t>
+  </si>
+  <si>
+    <t>Наивный</t>
+  </si>
+  <si>
+    <t>Скучный</t>
+  </si>
+  <si>
+    <t>Креативный</t>
+  </si>
+  <si>
+    <t>Внимательный</t>
+  </si>
+  <si>
+    <t>Высокомерный / надменный</t>
+  </si>
+  <si>
+    <t>Искренний</t>
+  </si>
+  <si>
+    <t>Уважительный</t>
+  </si>
+  <si>
+    <t>Вульгарный</t>
+  </si>
+  <si>
+    <t>Религиозный / очень верущий</t>
+  </si>
+  <si>
+    <t>атеист</t>
+  </si>
+  <si>
+    <t>Богатый</t>
+  </si>
+  <si>
+    <t>Бедный</t>
+  </si>
+  <si>
+    <t>Высокий</t>
+  </si>
+  <si>
+    <t>Низкий</t>
+  </si>
+  <si>
+    <t>Короткий</t>
+  </si>
+  <si>
+    <t>Длинный</t>
+  </si>
+  <si>
+    <t>Толстый</t>
+  </si>
+  <si>
+    <t>Худой</t>
+  </si>
+  <si>
+    <t>Блондин(ка) / светлые волосы</t>
+  </si>
+  <si>
+    <t>Кудрявый</t>
+  </si>
+  <si>
+    <t>Прямой / гладкий</t>
+  </si>
+  <si>
+    <t>Молодой</t>
+  </si>
+  <si>
+    <t>Старый</t>
+  </si>
+  <si>
+    <t>Интересный</t>
+  </si>
+  <si>
+    <t>Странный</t>
+  </si>
+  <si>
+    <t>Бухгалтер</t>
+  </si>
+  <si>
+    <t>Инженер</t>
+  </si>
+  <si>
+    <t>Дальнобойщик</t>
+  </si>
+  <si>
+    <t>Служащий</t>
+  </si>
+  <si>
+    <t>Строитель</t>
+  </si>
+  <si>
+    <t>Архитектор</t>
+  </si>
+  <si>
+    <t>Полицейский</t>
+  </si>
+  <si>
+    <t>Предприниматель</t>
+  </si>
+  <si>
+    <t>Медсестра</t>
+  </si>
+  <si>
+    <t>Врач / Доктор</t>
+  </si>
+  <si>
+    <t>Художник</t>
+  </si>
+  <si>
+    <t>Учитель</t>
+  </si>
+  <si>
+    <t>Исследователь</t>
+  </si>
+  <si>
+    <t>Писатель</t>
+  </si>
+  <si>
+    <t>Скульптор</t>
+  </si>
+  <si>
+    <t>Ученый</t>
+  </si>
+  <si>
+    <t>Трудность</t>
+  </si>
+  <si>
+    <t>Лёгкость</t>
+  </si>
+  <si>
+    <t>Рассуждение</t>
+  </si>
+  <si>
+    <t>Характеристика</t>
+  </si>
+  <si>
+    <t>Реакция</t>
+  </si>
+  <si>
+    <t>Ситуация</t>
+  </si>
+  <si>
+    <t>Операция</t>
+  </si>
+  <si>
+    <t>Действие</t>
+  </si>
+  <si>
+    <t>Чувство / Ощущение</t>
+  </si>
+  <si>
+    <t>Неясность</t>
+  </si>
+  <si>
+    <t>Продавец</t>
+  </si>
+  <si>
+    <t>Неаккуратный</t>
+  </si>
+  <si>
+    <t>Брюнет(ка) / темные волосы</t>
+  </si>
+  <si>
+    <t>Неуклюжий</t>
+  </si>
+  <si>
+    <t>Лицемерный</t>
+  </si>
+  <si>
+    <t>Elegante</t>
+  </si>
+  <si>
+    <t>Элегантный</t>
+  </si>
+  <si>
+    <t>Раздражительный</t>
+  </si>
+  <si>
+    <t>Доверчивый</t>
+  </si>
+  <si>
+    <t>Нервный</t>
+  </si>
+  <si>
+    <t>Ipocrita</t>
+  </si>
+  <si>
+    <t>fronte</t>
+  </si>
+  <si>
+    <t>Лоб</t>
+  </si>
+  <si>
+    <t>Подбородок</t>
+  </si>
+  <si>
+    <t>Обеспеченный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тумба </t>
+  </si>
+  <si>
+    <t>Вешалка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -401,7 +772,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -427,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -447,21 +818,6 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,43 +898,40 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,26 +941,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -806,7 +1218,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -825,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -855,7 +1267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -881,7 +1293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -907,7 +1319,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -933,7 +1345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,7 +1371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -985,7 +1397,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,7 +1423,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1449,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1063,7 +1475,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,9 +1488,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1095,7 +1513,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1114,7 +1532,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1140,7 +1558,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1166,7 +1584,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1192,7 +1610,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1218,7 +1636,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1244,7 +1662,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1270,7 +1688,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1296,7 +1714,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,7 +1740,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1348,7 +1766,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1361,9 +1779,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1377,7 +1801,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1396,7 +1820,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1426,7 +1850,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1452,7 +1876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1478,7 +1902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1504,7 +1928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1530,7 +1954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1556,7 +1980,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1582,7 +2006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1608,7 +2032,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1634,7 +2058,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1647,1570 +2071,1708 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV144"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.9609" style="1" customWidth="1"/>
-    <col min="2" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="1" customWidth="1"/>
+    <col min="2" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="27.6" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s" s="5">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" t="s" s="8">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" t="s" s="8">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" t="s" s="8">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" t="s" s="8">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" t="s" s="8">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" t="s" s="8">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" t="s" s="8">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" t="s" s="8">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" t="s" s="8">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" t="s" s="8">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" t="s" s="8">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" t="s" s="8">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" t="s" s="8">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" t="s" s="8">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" t="s" s="8">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" t="s" s="8">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" t="s" s="8">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" t="s" s="8">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" t="s" s="8">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" t="s" s="8">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" t="s" s="8">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" t="s" s="8">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" t="s" s="8">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" t="s" s="8">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" t="s" s="8">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" t="s" s="8">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" t="s" s="8">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" t="s" s="8">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" t="s" s="8">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" t="s" s="8">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" t="s" s="8">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" t="s" s="8">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="7"/>
-      <c r="B37" t="s" s="8">
+      <c r="B37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" t="s" s="8">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" t="s" s="8">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" t="s" s="8">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" t="s" s="8">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" t="s" s="8">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="7"/>
-      <c r="B43" t="s" s="8">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" t="s" s="8">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" t="s" s="8">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" t="s" s="8">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" t="s" s="8">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="7"/>
-      <c r="B48" t="s" s="8">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" t="s" s="8">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" t="s" s="8">
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="7"/>
-      <c r="B51" t="s" s="8">
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="7"/>
-      <c r="B52" t="s" s="8">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="7"/>
-      <c r="B53" t="s" s="8">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="7"/>
-      <c r="B54" t="s" s="8">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="7"/>
-      <c r="B55" t="s" s="8">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" s="7"/>
-      <c r="B56" t="s" s="8">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" s="7"/>
-      <c r="B57" t="s" s="8">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" s="7"/>
-      <c r="B58" t="s" s="8">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" s="7"/>
-      <c r="B59" t="s" s="8">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" s="7"/>
-      <c r="B60" t="s" s="8">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" s="7"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="7"/>
-      <c r="B62" t="s" s="8">
+      <c r="B62" s="8"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" s="7"/>
-      <c r="B63" t="s" s="8">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" s="7"/>
-      <c r="B64" t="s" s="8">
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" s="7"/>
-      <c r="B65" t="s" s="8">
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" s="7"/>
-      <c r="B66" t="s" s="8">
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" s="7"/>
-      <c r="B67" t="s" s="8">
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" s="7"/>
-      <c r="B68" t="s" s="8">
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" s="7"/>
-      <c r="B69" t="s" s="8">
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" s="7"/>
-      <c r="B70" t="s" s="8">
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" s="7"/>
-      <c r="B71" t="s" s="8">
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" s="7"/>
-      <c r="B72" t="s" s="8">
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" s="7"/>
-      <c r="B73" t="s" s="8">
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" s="7"/>
-      <c r="B74" t="s" s="8">
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" s="7"/>
-      <c r="B75" t="s" s="8">
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" s="7"/>
-      <c r="B76" t="s" s="8">
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" s="7"/>
-      <c r="B77" t="s" s="8">
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" s="7"/>
-      <c r="B78" t="s" s="8">
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" ht="20.05" customHeight="1">
-      <c r="A79" s="7"/>
-      <c r="B79" t="s" s="8">
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" ht="20.05" customHeight="1">
-      <c r="A80" s="7"/>
-      <c r="B80" t="s" s="8">
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" ht="20.05" customHeight="1">
-      <c r="A81" s="7"/>
-      <c r="B81" t="s" s="8">
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" ht="20.05" customHeight="1">
-      <c r="A82" s="7"/>
-      <c r="B82" t="s" s="8">
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" ht="20.05" customHeight="1">
-      <c r="A83" s="7"/>
-      <c r="B83" t="s" s="8">
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" s="7"/>
-      <c r="B84" t="s" s="8">
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" ht="20.05" customHeight="1">
-      <c r="A85" s="7"/>
-      <c r="B85" t="s" s="8">
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" s="7"/>
-      <c r="B86" t="s" s="8">
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" ht="20.05" customHeight="1">
-      <c r="A87" s="7"/>
-      <c r="B87" t="s" s="8">
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A90" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" ht="20.05" customHeight="1">
-      <c r="A88" s="7"/>
-      <c r="B88" t="s" s="8">
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A91" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" ht="20.05" customHeight="1">
-      <c r="A89" s="7"/>
-      <c r="B89" t="s" s="8">
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" ht="20.05" customHeight="1">
-      <c r="A90" s="7"/>
-      <c r="B90" t="s" s="8">
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A93" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" ht="20.05" customHeight="1">
-      <c r="A91" s="7"/>
-      <c r="B91" t="s" s="8">
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A94" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" ht="20.05" customHeight="1">
-      <c r="A92" s="7"/>
-      <c r="B92" t="s" s="8">
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A95" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" ht="20.05" customHeight="1">
-      <c r="A93" s="7"/>
-      <c r="B93" t="s" s="8">
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A96" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" ht="20.05" customHeight="1">
-      <c r="A94" s="7"/>
-      <c r="B94" t="s" s="8">
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A97" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" ht="20.05" customHeight="1">
-      <c r="A95" s="7"/>
-      <c r="B95" t="s" s="8">
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A98" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" ht="20.05" customHeight="1">
-      <c r="A96" s="7"/>
-      <c r="B96" t="s" s="8">
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A99" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" ht="20.05" customHeight="1">
-      <c r="A97" s="7"/>
-      <c r="B97" t="s" s="8">
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A100" s="7"/>
+      <c r="B100" s="8"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A101" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" ht="20.05" customHeight="1">
-      <c r="A98" s="7"/>
-      <c r="B98" t="s" s="8">
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A102" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" ht="20.05" customHeight="1">
-      <c r="A99" s="7"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" ht="20.05" customHeight="1">
-      <c r="A100" s="7"/>
-      <c r="B100" t="s" s="8">
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A103" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" ht="20.05" customHeight="1">
-      <c r="A101" s="7"/>
-      <c r="B101" t="s" s="8">
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A104" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" ht="20.05" customHeight="1">
-      <c r="A102" s="7"/>
-      <c r="B102" t="s" s="8">
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A105" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" ht="20.05" customHeight="1">
-      <c r="A103" s="7"/>
-      <c r="B103" t="s" s="8">
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A106" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" ht="20.05" customHeight="1">
-      <c r="A104" s="7"/>
-      <c r="B104" t="s" s="8">
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A107" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" ht="20.05" customHeight="1">
-      <c r="A105" s="7"/>
-      <c r="B105" t="s" s="8">
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A108" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" ht="20.05" customHeight="1">
-      <c r="A106" s="7"/>
-      <c r="B106" t="s" s="8">
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A109" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" ht="20.05" customHeight="1">
-      <c r="A107" s="7"/>
-      <c r="B107" t="s" s="8">
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+    </row>
+    <row r="110" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A110" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" ht="20.05" customHeight="1">
-      <c r="A108" s="7"/>
-      <c r="B108" t="s" s="8">
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+    </row>
+    <row r="111" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A111" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" ht="20.05" customHeight="1">
-      <c r="A109" s="7"/>
-      <c r="B109" t="s" s="8">
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+    </row>
+    <row r="112" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A112" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" ht="20.05" customHeight="1">
-      <c r="A110" s="7"/>
-      <c r="B110" t="s" s="8">
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+    </row>
+    <row r="113" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A113" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" ht="20.05" customHeight="1">
-      <c r="A111" s="7"/>
-      <c r="B111" t="s" s="8">
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+    </row>
+    <row r="114" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A114" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" ht="20.05" customHeight="1">
-      <c r="A112" s="7"/>
-      <c r="B112" t="s" s="8">
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+    </row>
+    <row r="115" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A115" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" ht="20.05" customHeight="1">
-      <c r="A113" s="7"/>
-      <c r="B113" t="s" s="8">
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+    </row>
+    <row r="116" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A116" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" ht="20.05" customHeight="1">
-      <c r="A114" s="7"/>
-      <c r="B114" t="s" s="8">
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+    </row>
+    <row r="117" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A117" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" ht="20.05" customHeight="1">
-      <c r="A115" s="7"/>
-      <c r="B115" t="s" s="8">
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+    </row>
+    <row r="118" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A118" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" ht="20.05" customHeight="1">
-      <c r="A116" s="7"/>
-      <c r="B116" t="s" s="8">
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+    </row>
+    <row r="119" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A119" s="7"/>
+      <c r="B119" s="8"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+    </row>
+    <row r="120" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A120" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" ht="20.05" customHeight="1">
-      <c r="A117" s="7"/>
-      <c r="B117" t="s" s="8">
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+    </row>
+    <row r="121" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A121" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" ht="20.05" customHeight="1">
-      <c r="A118" s="7"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-    </row>
-    <row r="119" ht="20.05" customHeight="1">
-      <c r="A119" s="7"/>
-      <c r="B119" t="s" s="8">
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+    </row>
+    <row r="122" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A122" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-    </row>
-    <row r="120" ht="20.05" customHeight="1">
-      <c r="A120" s="7"/>
-      <c r="B120" t="s" s="8">
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+    </row>
+    <row r="123" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A123" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-    </row>
-    <row r="121" ht="20.05" customHeight="1">
-      <c r="A121" s="7"/>
-      <c r="B121" t="s" s="8">
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+    </row>
+    <row r="124" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A124" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-    </row>
-    <row r="122" ht="20.05" customHeight="1">
-      <c r="A122" s="7"/>
-      <c r="B122" t="s" s="8">
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+    </row>
+    <row r="125" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A125" s="7"/>
+      <c r="B125" s="8"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+    </row>
+    <row r="126" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A126" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-    </row>
-    <row r="123" ht="20.05" customHeight="1">
-      <c r="A123" s="7"/>
-      <c r="B123" t="s" s="8">
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+    </row>
+    <row r="127" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A127" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-    </row>
-    <row r="124" ht="20.05" customHeight="1">
-      <c r="A124" s="7"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-    </row>
-    <row r="125" ht="20.05" customHeight="1">
-      <c r="A125" s="7"/>
-      <c r="B125" t="s" s="8">
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+    </row>
+    <row r="128" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A128" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-    </row>
-    <row r="126" ht="20.05" customHeight="1">
-      <c r="A126" s="7"/>
-      <c r="B126" t="s" s="8">
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+    </row>
+    <row r="129" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A129" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-    </row>
-    <row r="127" ht="20.05" customHeight="1">
-      <c r="A127" s="7"/>
-      <c r="B127" t="s" s="8">
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+    </row>
+    <row r="130" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A130" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-    </row>
-    <row r="128" ht="20.05" customHeight="1">
-      <c r="A128" s="7"/>
-      <c r="B128" t="s" s="8">
-        <v>121</v>
-      </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-    </row>
-    <row r="129" ht="20.05" customHeight="1">
-      <c r="A129" s="7"/>
-      <c r="B129" t="s" s="8">
-        <v>122</v>
-      </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-    </row>
-    <row r="130" ht="20.05" customHeight="1">
-      <c r="A130" s="7"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-    </row>
-    <row r="131" ht="20.05" customHeight="1">
-      <c r="A131" s="7"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-    </row>
-    <row r="132" ht="20.05" customHeight="1">
-      <c r="A132" s="7"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-    </row>
-    <row r="133" ht="20.05" customHeight="1">
-      <c r="A133" s="7"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-    </row>
-    <row r="134" ht="20.05" customHeight="1">
-      <c r="A134" s="7"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-    </row>
-    <row r="135" ht="20.05" customHeight="1">
-      <c r="A135" s="7"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-    </row>
-    <row r="136" ht="20.05" customHeight="1">
-      <c r="A136" s="7"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-    </row>
-    <row r="137" ht="20.05" customHeight="1">
-      <c r="A137" s="7"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-    </row>
-    <row r="138" ht="20.05" customHeight="1">
-      <c r="A138" s="7"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-    </row>
-    <row r="139" ht="20.05" customHeight="1">
-      <c r="A139" s="7"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-    </row>
-    <row r="140" ht="20.05" customHeight="1">
-      <c r="A140" s="7"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-    </row>
-    <row r="141" ht="20.05" customHeight="1">
-      <c r="A141" s="7"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-    </row>
-    <row r="142" ht="20.05" customHeight="1">
-      <c r="A142" s="7"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-    </row>
-    <row r="143" ht="20.05" customHeight="1">
-      <c r="A143" s="7"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+    </row>
+    <row r="131" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A131" s="5"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+    </row>
+    <row r="132" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A132" s="5"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+    </row>
+    <row r="133" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A133" s="5"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+    </row>
+    <row r="134" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A134" s="5"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+    </row>
+    <row r="135" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A135" s="5"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+    </row>
+    <row r="136" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A136" s="5"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A137" s="5"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+    </row>
+    <row r="138" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A138" s="5"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+    </row>
+    <row r="139" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A139" s="5"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+    </row>
+    <row r="140" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A140" s="5"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A141" s="5"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+    </row>
+    <row r="142" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A142" s="5"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+    </row>
+    <row r="143" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A143" s="5"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+    </row>
+    <row r="144" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A144" s="5"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/parole.xlsx
+++ b/parole.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\edu\albe\curcuma\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="364">
   <si>
     <t>Tabella 1</t>
   </si>
@@ -926,16 +934,190 @@
   </si>
   <si>
     <t>In mezzo a (tempo)</t>
+  </si>
+  <si>
+    <t>Болезнь</t>
+  </si>
+  <si>
+    <t>Здоровье</t>
+  </si>
+  <si>
+    <t>Богатство</t>
+  </si>
+  <si>
+    <t>Бедность</t>
+  </si>
+  <si>
+    <t>Безопасность</t>
+  </si>
+  <si>
+    <t>Искусство</t>
+  </si>
+  <si>
+    <t>Честность</t>
+  </si>
+  <si>
+    <t>Молитва</t>
+  </si>
+  <si>
+    <t>Обмен</t>
+  </si>
+  <si>
+    <t>Продажа</t>
+  </si>
+  <si>
+    <t>Магия / волшебство</t>
+  </si>
+  <si>
+    <t>Покупка</t>
+  </si>
+  <si>
+    <t>Мысль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чувство  </t>
+  </si>
+  <si>
+    <t>Порядок</t>
+  </si>
+  <si>
+    <t>Приветствие</t>
+  </si>
+  <si>
+    <t>Уважение</t>
+  </si>
+  <si>
+    <t>Сотрудничество</t>
+  </si>
+  <si>
+    <t>Взаимодействие</t>
+  </si>
+  <si>
+    <t>Эволюция</t>
+  </si>
+  <si>
+    <t>Налог</t>
+  </si>
+  <si>
+    <t>Палка</t>
+  </si>
+  <si>
+    <t>Рюкзак</t>
+  </si>
+  <si>
+    <t>Клавиатура</t>
+  </si>
+  <si>
+    <t>Экран</t>
+  </si>
+  <si>
+    <t>Таблица</t>
+  </si>
+  <si>
+    <t>Ручка</t>
+  </si>
+  <si>
+    <t>Кисточка</t>
+  </si>
+  <si>
+    <t>Маркер</t>
+  </si>
+  <si>
+    <t>Линейка</t>
+  </si>
+  <si>
+    <t>Ластик</t>
+  </si>
+  <si>
+    <t>Точилка</t>
+  </si>
+  <si>
+    <t>Карандаш</t>
+  </si>
+  <si>
+    <t>Краска</t>
+  </si>
+  <si>
+    <t>Стена</t>
+  </si>
+  <si>
+    <t>Балкон</t>
+  </si>
+  <si>
+    <t>Проем / вход</t>
+  </si>
+  <si>
+    <t>здание</t>
+  </si>
+  <si>
+    <t>дворец / здание</t>
+  </si>
+  <si>
+    <t>замок</t>
+  </si>
+  <si>
+    <t>улица</t>
+  </si>
+  <si>
+    <t>дорога</t>
+  </si>
+  <si>
+    <t>сверху / над чем-то</t>
+  </si>
+  <si>
+    <t>посередине /  между чем и чем</t>
+  </si>
+  <si>
+    <t>снизу / под чем-то</t>
+  </si>
+  <si>
+    <t>сзади / за чем-то</t>
+  </si>
+  <si>
+    <t>справа от чего-то</t>
+  </si>
+  <si>
+    <t>слева от чего-то</t>
+  </si>
+  <si>
+    <t>Внутри чего-то</t>
+  </si>
+  <si>
+    <t>впереди чего-то / перед чем-то</t>
+  </si>
+  <si>
+    <t>сбоку от чего-то</t>
+  </si>
+  <si>
+    <t>после события / через пять минут</t>
+  </si>
+  <si>
+    <t>до события / пятью минутами ранее / два часа до того</t>
+  </si>
+  <si>
+    <t>Счет</t>
+  </si>
+  <si>
+    <t>Услуга</t>
+  </si>
+  <si>
+    <t>Серьезность</t>
+  </si>
+  <si>
+    <t>Штукатурка</t>
+  </si>
+  <si>
+    <t>Предчувствие</t>
+  </si>
+  <si>
+    <t>между событиями / между двумя и пятью часами</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -947,12 +1129,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -1173,64 +1350,64 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1240,28 +1417,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1463,7 +1697,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1482,7 +1716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1512,7 +1746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1538,7 +1772,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1564,7 +1798,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1590,7 +1824,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1616,7 +1850,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1642,7 +1876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1668,7 +1902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1694,7 +1928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1720,7 +1954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1733,9 +1967,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1752,7 +1992,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1771,7 +2011,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1797,7 +2037,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1823,7 +2063,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1849,7 +2089,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1875,7 +2115,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1901,7 +2141,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1927,7 +2167,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1953,7 +2193,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1979,7 +2219,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2005,7 +2245,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2018,9 +2258,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2034,7 +2280,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2053,7 +2299,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2083,7 +2329,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2109,7 +2355,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2135,7 +2381,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2161,7 +2407,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2187,7 +2433,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2213,7 +2459,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2239,7 +2485,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2265,7 +2511,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2291,7 +2537,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2304,2386 +2550,2514 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV193"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="30" style="1" customWidth="1"/>
-    <col min="2" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="27.6" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1">
-      <c r="A5" t="s" s="10">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="11">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1">
-      <c r="A6" t="s" s="10">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s" s="11">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s" s="11">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s" s="11">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1">
-      <c r="A9" t="s" s="10">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s" s="11">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" ht="20.1" customHeight="1">
-      <c r="A10" t="s" s="10">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s" s="11">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="1">
-      <c r="A11" t="s" s="10">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s" s="11">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1">
-      <c r="A12" t="s" s="10">
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s" s="11">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" ht="20.1" customHeight="1">
-      <c r="A13" t="s" s="10">
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s" s="11">
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" ht="20.1" customHeight="1">
-      <c r="A14" t="s" s="10">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s" s="11">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" ht="20.1" customHeight="1">
-      <c r="A15" t="s" s="10">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="11">
+      <c r="B15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" ht="20.1" customHeight="1">
-      <c r="A16" t="s" s="10">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s" s="11">
+      <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" ht="20.1" customHeight="1">
-      <c r="A17" t="s" s="10">
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s" s="11">
+      <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" ht="20.1" customHeight="1">
-      <c r="A18" t="s" s="10">
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s" s="11">
+      <c r="B18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" ht="20.1" customHeight="1">
-      <c r="A19" t="s" s="10">
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s" s="11">
+      <c r="B19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" ht="20.1" customHeight="1">
-      <c r="A20" t="s" s="10">
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s" s="11">
+      <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" ht="20.1" customHeight="1">
-      <c r="A21" t="s" s="10">
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s" s="11">
+      <c r="B21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" ht="20.1" customHeight="1">
-      <c r="A22" t="s" s="10">
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s" s="11">
+      <c r="B22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" ht="20.1" customHeight="1">
-      <c r="A23" t="s" s="10">
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s" s="11">
+      <c r="B23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" ht="20.1" customHeight="1">
-      <c r="A24" t="s" s="10">
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s" s="11">
+      <c r="B24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" ht="20.1" customHeight="1">
-      <c r="A25" t="s" s="10">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s" s="11">
+      <c r="B25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" ht="20.1" customHeight="1">
-      <c r="A26" t="s" s="10">
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="s" s="11">
+      <c r="B26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" ht="20.1" customHeight="1">
-      <c r="A27" t="s" s="10">
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B27" t="s" s="11">
+      <c r="B27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" ht="20.1" customHeight="1">
-      <c r="A28" t="s" s="10">
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B28" t="s" s="11">
+      <c r="B28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" ht="20.1" customHeight="1">
-      <c r="A29" t="s" s="10">
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B29" t="s" s="11">
+      <c r="B29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" ht="20.1" customHeight="1">
-      <c r="A30" t="s" s="10">
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s" s="11">
+      <c r="B30" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" ht="20.1" customHeight="1">
-      <c r="A31" t="s" s="10">
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B31" t="s" s="11">
+      <c r="B31" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" ht="20.1" customHeight="1">
-      <c r="A32" t="s" s="10">
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B32" t="s" s="11">
+      <c r="B32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" ht="20.1" customHeight="1">
-      <c r="A33" t="s" s="10">
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B33" t="s" s="11">
+      <c r="B33" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" ht="20.1" customHeight="1">
-      <c r="A34" t="s" s="10">
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B34" t="s" s="11">
+      <c r="B34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" ht="20.1" customHeight="1">
-      <c r="A35" t="s" s="10">
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B35" t="s" s="11">
+      <c r="B35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" ht="20.1" customHeight="1">
-      <c r="A36" t="s" s="10">
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B36" t="s" s="11">
+      <c r="B36" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" ht="20.1" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" ht="20.1" customHeight="1">
-      <c r="A38" t="s" s="10">
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B38" t="s" s="11">
+      <c r="B38" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" ht="20.1" customHeight="1">
-      <c r="A39" t="s" s="10">
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B39" t="s" s="11">
+      <c r="B39" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" ht="20.1" customHeight="1">
-      <c r="A40" t="s" s="10">
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B40" t="s" s="11">
+      <c r="B40" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" ht="20.1" customHeight="1">
-      <c r="A41" t="s" s="10">
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B41" t="s" s="11">
+      <c r="B41" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" ht="20.1" customHeight="1">
-      <c r="A42" t="s" s="10">
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B42" t="s" s="11">
+      <c r="B42" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-    </row>
-    <row r="43" ht="20.1" customHeight="1">
-      <c r="A43" t="s" s="10">
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B43" t="s" s="11">
+      <c r="B43" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" ht="20.1" customHeight="1">
-      <c r="A44" t="s" s="10">
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B44" t="s" s="11">
+      <c r="B44" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" ht="20.1" customHeight="1">
-      <c r="A45" t="s" s="10">
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B45" t="s" s="11">
+      <c r="B45" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" ht="20.1" customHeight="1">
-      <c r="A46" t="s" s="10">
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s" s="11">
+      <c r="B46" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" ht="20.1" customHeight="1">
-      <c r="A47" t="s" s="10">
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B47" t="s" s="11">
+      <c r="B47" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" ht="20.1" customHeight="1">
-      <c r="A48" t="s" s="10">
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B48" t="s" s="11">
+      <c r="B48" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-    </row>
-    <row r="49" ht="20.1" customHeight="1">
-      <c r="A49" t="s" s="10">
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B49" t="s" s="11">
+      <c r="B49" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-    </row>
-    <row r="50" ht="20.1" customHeight="1">
-      <c r="A50" t="s" s="10">
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B50" t="s" s="11">
+      <c r="B50" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-    </row>
-    <row r="51" ht="20.1" customHeight="1">
-      <c r="A51" t="s" s="10">
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B51" t="s" s="11">
+      <c r="B51" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" ht="20.1" customHeight="1">
-      <c r="A52" t="s" s="10">
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B52" t="s" s="11">
+      <c r="B52" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-    </row>
-    <row r="53" ht="20.1" customHeight="1">
-      <c r="A53" t="s" s="10">
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B53" t="s" s="11">
+      <c r="B53" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-    </row>
-    <row r="54" ht="20.1" customHeight="1">
-      <c r="A54" t="s" s="10">
+      <c r="C53" s="9"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B54" t="s" s="11">
+      <c r="B54" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" ht="20.1" customHeight="1">
-      <c r="A55" t="s" s="10">
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B55" t="s" s="11">
+      <c r="B55" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-    </row>
-    <row r="56" ht="20.1" customHeight="1">
-      <c r="A56" t="s" s="10">
+      <c r="C55" s="9"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B56" t="s" s="11">
+      <c r="B56" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-    </row>
-    <row r="57" ht="20.1" customHeight="1">
-      <c r="A57" t="s" s="10">
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B57" t="s" s="11">
+      <c r="B57" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-    </row>
-    <row r="58" ht="20.1" customHeight="1">
-      <c r="A58" t="s" s="10">
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B58" t="s" s="11">
+      <c r="B58" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-    </row>
-    <row r="59" ht="20.1" customHeight="1">
-      <c r="A59" t="s" s="10">
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B59" t="s" s="11">
+      <c r="B59" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-    </row>
-    <row r="60" ht="20.1" customHeight="1">
-      <c r="A60" t="s" s="10">
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B60" t="s" s="11">
+      <c r="B60" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" ht="20.1" customHeight="1">
-      <c r="A61" t="s" s="10">
+      <c r="C60" s="9"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B61" t="s" s="11">
+      <c r="B61" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" ht="20.1" customHeight="1">
-      <c r="A62" s="14"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-    </row>
-    <row r="63" ht="20.1" customHeight="1">
-      <c r="A63" t="s" s="10">
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B63" t="s" s="11">
+      <c r="B63" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" ht="20.1" customHeight="1">
-      <c r="A64" t="s" s="10">
+      <c r="C63" s="9"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B64" t="s" s="11">
+      <c r="B64" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-    </row>
-    <row r="65" ht="20.1" customHeight="1">
-      <c r="A65" t="s" s="10">
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B65" t="s" s="11">
+      <c r="B65" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-    </row>
-    <row r="66" ht="20.1" customHeight="1">
-      <c r="A66" t="s" s="10">
+      <c r="C65" s="9"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B66" t="s" s="11">
+      <c r="B66" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-    </row>
-    <row r="67" ht="20.1" customHeight="1">
-      <c r="A67" t="s" s="10">
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B67" t="s" s="11">
+      <c r="B67" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-    </row>
-    <row r="68" ht="20.1" customHeight="1">
-      <c r="A68" t="s" s="10">
+      <c r="C67" s="9"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B68" t="s" s="11">
+      <c r="B68" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-    </row>
-    <row r="69" ht="20.1" customHeight="1">
-      <c r="A69" t="s" s="10">
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B69" t="s" s="11">
+      <c r="B69" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-    </row>
-    <row r="70" ht="20.1" customHeight="1">
-      <c r="A70" t="s" s="10">
+      <c r="C69" s="9"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B70" t="s" s="11">
+      <c r="B70" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-    </row>
-    <row r="71" ht="20.1" customHeight="1">
-      <c r="A71" t="s" s="10">
+      <c r="C70" s="9"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B71" t="s" s="11">
+      <c r="B71" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-    </row>
-    <row r="72" ht="20.1" customHeight="1">
-      <c r="A72" t="s" s="10">
+      <c r="C71" s="9"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B72" t="s" s="11">
+      <c r="B72" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-    </row>
-    <row r="73" ht="20.1" customHeight="1">
-      <c r="A73" t="s" s="10">
+      <c r="C72" s="9"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B73" t="s" s="11">
+      <c r="B73" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-    </row>
-    <row r="74" ht="20.1" customHeight="1">
-      <c r="A74" t="s" s="10">
+      <c r="C73" s="9"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B74" t="s" s="11">
+      <c r="B74" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-    </row>
-    <row r="75" ht="20.1" customHeight="1">
-      <c r="A75" t="s" s="10">
+      <c r="C74" s="9"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+    </row>
+    <row r="75" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B75" t="s" s="11">
+      <c r="B75" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-    </row>
-    <row r="76" ht="20.1" customHeight="1">
-      <c r="A76" t="s" s="10">
+      <c r="C75" s="9"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B76" t="s" s="11">
+      <c r="B76" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-    </row>
-    <row r="77" ht="20.1" customHeight="1">
-      <c r="A77" t="s" s="10">
+      <c r="C76" s="9"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B77" t="s" s="11">
+      <c r="B77" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-    </row>
-    <row r="78" ht="20.1" customHeight="1">
-      <c r="A78" t="s" s="10">
+      <c r="C77" s="9"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B78" t="s" s="11">
+      <c r="B78" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-    </row>
-    <row r="79" ht="20.1" customHeight="1">
-      <c r="A79" t="s" s="10">
+      <c r="C78" s="9"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B79" t="s" s="11">
+      <c r="B79" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-    </row>
-    <row r="80" ht="20.1" customHeight="1">
-      <c r="A80" t="s" s="10">
+      <c r="C79" s="9"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B80" t="s" s="11">
+      <c r="B80" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-    </row>
-    <row r="81" ht="20.1" customHeight="1">
-      <c r="A81" t="s" s="10">
+      <c r="C80" s="9"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B81" t="s" s="11">
+      <c r="B81" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-    </row>
-    <row r="82" ht="20.1" customHeight="1">
-      <c r="A82" t="s" s="10">
+      <c r="C81" s="9"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B82" t="s" s="11">
+      <c r="B82" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-    </row>
-    <row r="83" ht="20.1" customHeight="1">
-      <c r="A83" t="s" s="10">
+      <c r="C82" s="9"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B83" t="s" s="11">
+      <c r="B83" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-    </row>
-    <row r="84" ht="20.1" customHeight="1">
-      <c r="A84" t="s" s="10">
+      <c r="C83" s="9"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B84" t="s" s="11">
+      <c r="B84" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-    </row>
-    <row r="85" ht="20.1" customHeight="1">
-      <c r="A85" t="s" s="10">
+      <c r="C84" s="9"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B85" t="s" s="11">
+      <c r="B85" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-    </row>
-    <row r="86" ht="20.1" customHeight="1">
-      <c r="A86" t="s" s="10">
+      <c r="C85" s="9"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B86" t="s" s="11">
+      <c r="B86" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-    </row>
-    <row r="87" ht="20.1" customHeight="1">
-      <c r="A87" t="s" s="10">
+      <c r="C86" s="9"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B87" t="s" s="11">
+      <c r="B87" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-    </row>
-    <row r="88" ht="20.1" customHeight="1">
-      <c r="A88" t="s" s="10">
+      <c r="C87" s="9"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B88" t="s" s="11">
+      <c r="B88" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-    </row>
-    <row r="89" ht="20.1" customHeight="1">
-      <c r="A89" t="s" s="10">
+      <c r="C88" s="9"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B89" t="s" s="11">
+      <c r="B89" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-    </row>
-    <row r="90" ht="20.1" customHeight="1">
-      <c r="A90" t="s" s="10">
+      <c r="C89" s="9"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A90" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B90" t="s" s="11">
+      <c r="B90" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-    </row>
-    <row r="91" ht="20.1" customHeight="1">
-      <c r="A91" t="s" s="10">
+      <c r="C90" s="9"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A91" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B91" t="s" s="11">
+      <c r="B91" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-    </row>
-    <row r="92" ht="20.1" customHeight="1">
-      <c r="A92" t="s" s="10">
+      <c r="C91" s="9"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B92" t="s" s="11">
+      <c r="B92" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-    </row>
-    <row r="93" ht="20.1" customHeight="1">
-      <c r="A93" t="s" s="10">
+      <c r="C92" s="9"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A93" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B93" t="s" s="11">
+      <c r="B93" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-    </row>
-    <row r="94" ht="20.1" customHeight="1">
-      <c r="A94" t="s" s="10">
+      <c r="C93" s="9"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A94" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B94" t="s" s="11">
+      <c r="B94" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-    </row>
-    <row r="95" ht="20.1" customHeight="1">
-      <c r="A95" t="s" s="10">
+      <c r="C94" s="9"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A95" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B95" t="s" s="11">
+      <c r="B95" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-    </row>
-    <row r="96" ht="20.1" customHeight="1">
-      <c r="A96" t="s" s="10">
+      <c r="C95" s="9"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A96" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B96" t="s" s="11">
+      <c r="B96" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C96" s="12"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-    </row>
-    <row r="97" ht="20.1" customHeight="1">
-      <c r="A97" t="s" s="10">
+      <c r="C96" s="9"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A97" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B97" t="s" s="11">
+      <c r="B97" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C97" s="12"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-    </row>
-    <row r="98" ht="20.1" customHeight="1">
-      <c r="A98" t="s" s="10">
+      <c r="C97" s="9"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A98" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B98" t="s" s="11">
+      <c r="B98" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-    </row>
-    <row r="99" ht="20.1" customHeight="1">
-      <c r="A99" t="s" s="10">
+      <c r="C98" s="9"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A99" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B99" t="s" s="11">
+      <c r="B99" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-    </row>
-    <row r="100" ht="20.1" customHeight="1">
-      <c r="A100" s="14"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-    </row>
-    <row r="101" ht="20.1" customHeight="1">
-      <c r="A101" t="s" s="10">
+      <c r="C99" s="9"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+    </row>
+    <row r="101" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A101" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B101" t="s" s="11">
+      <c r="B101" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C101" s="12"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-    </row>
-    <row r="102" ht="20.1" customHeight="1">
-      <c r="A102" t="s" s="10">
+      <c r="C101" s="9"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A102" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B102" t="s" s="11">
+      <c r="B102" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-    </row>
-    <row r="103" ht="20.1" customHeight="1">
-      <c r="A103" t="s" s="10">
+      <c r="C102" s="9"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A103" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B103" t="s" s="11">
+      <c r="B103" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C103" s="12"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-    </row>
-    <row r="104" ht="20.1" customHeight="1">
-      <c r="A104" t="s" s="10">
+      <c r="C103" s="9"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+    </row>
+    <row r="104" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A104" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B104" t="s" s="11">
+      <c r="B104" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C104" s="12"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-    </row>
-    <row r="105" ht="20.1" customHeight="1">
-      <c r="A105" t="s" s="10">
+      <c r="C104" s="9"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A105" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B105" t="s" s="11">
+      <c r="B105" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C105" s="12"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-    </row>
-    <row r="106" ht="20.1" customHeight="1">
-      <c r="A106" t="s" s="10">
+      <c r="C105" s="9"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A106" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B106" t="s" s="11">
+      <c r="B106" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-    </row>
-    <row r="107" ht="20.1" customHeight="1">
-      <c r="A107" t="s" s="10">
+      <c r="C106" s="9"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A107" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B107" t="s" s="11">
+      <c r="B107" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-    </row>
-    <row r="108" ht="20.1" customHeight="1">
-      <c r="A108" t="s" s="10">
+      <c r="C107" s="9"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A108" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B108" t="s" s="11">
+      <c r="B108" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C108" s="12"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-    </row>
-    <row r="109" ht="20.1" customHeight="1">
-      <c r="A109" t="s" s="10">
+      <c r="C108" s="9"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A109" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B109" t="s" s="11">
+      <c r="B109" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C109" s="12"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-    </row>
-    <row r="110" ht="20.1" customHeight="1">
-      <c r="A110" t="s" s="10">
+      <c r="C109" s="9"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A110" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B110" t="s" s="11">
+      <c r="B110" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-    </row>
-    <row r="111" ht="20.1" customHeight="1">
-      <c r="A111" t="s" s="10">
+      <c r="C110" s="9"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A111" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B111" t="s" s="11">
+      <c r="B111" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-    </row>
-    <row r="112" ht="20.1" customHeight="1">
-      <c r="A112" t="s" s="10">
+      <c r="C111" s="9"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A112" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B112" t="s" s="11">
+      <c r="B112" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-    </row>
-    <row r="113" ht="20.1" customHeight="1">
-      <c r="A113" t="s" s="10">
+      <c r="C112" s="9"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A113" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B113" t="s" s="11">
+      <c r="B113" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C113" s="12"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-    </row>
-    <row r="114" ht="20.1" customHeight="1">
-      <c r="A114" t="s" s="10">
+      <c r="C113" s="9"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A114" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B114" t="s" s="11">
+      <c r="B114" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C114" s="12"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-    </row>
-    <row r="115" ht="20.1" customHeight="1">
-      <c r="A115" t="s" s="10">
+      <c r="C114" s="9"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+    </row>
+    <row r="115" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A115" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B115" t="s" s="11">
+      <c r="B115" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C115" s="12"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-    </row>
-    <row r="116" ht="20.1" customHeight="1">
-      <c r="A116" t="s" s="10">
+      <c r="C115" s="9"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A116" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B116" t="s" s="11">
+      <c r="B116" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C116" s="12"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-    </row>
-    <row r="117" ht="20.1" customHeight="1">
-      <c r="A117" t="s" s="10">
+      <c r="C116" s="9"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A117" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B117" t="s" s="11">
+      <c r="B117" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C117" s="12"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-    </row>
-    <row r="118" ht="20.1" customHeight="1">
-      <c r="A118" t="s" s="10">
+      <c r="C117" s="9"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+    </row>
+    <row r="118" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A118" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B118" t="s" s="11">
+      <c r="B118" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C118" s="12"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-    </row>
-    <row r="119" ht="20.1" customHeight="1">
-      <c r="A119" s="14"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-    </row>
-    <row r="120" ht="20.1" customHeight="1">
-      <c r="A120" t="s" s="10">
+      <c r="C118" s="9"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A119" s="11"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A120" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B120" t="s" s="11">
+      <c r="B120" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C120" s="12"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-    </row>
-    <row r="121" ht="20.1" customHeight="1">
-      <c r="A121" t="s" s="10">
+      <c r="C120" s="9"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+    </row>
+    <row r="121" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A121" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B121" t="s" s="11">
+      <c r="B121" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C121" s="12"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-    </row>
-    <row r="122" ht="20.1" customHeight="1">
-      <c r="A122" t="s" s="10">
+      <c r="C121" s="9"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+    </row>
+    <row r="122" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A122" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B122" t="s" s="11">
+      <c r="B122" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C122" s="12"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-    </row>
-    <row r="123" ht="20.1" customHeight="1">
-      <c r="A123" t="s" s="10">
+      <c r="C122" s="9"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A123" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B123" t="s" s="11">
+      <c r="B123" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C123" s="12"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-    </row>
-    <row r="124" ht="20.1" customHeight="1">
-      <c r="A124" t="s" s="10">
+      <c r="C123" s="9"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A124" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B124" t="s" s="11">
+      <c r="B124" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C124" s="12"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-    </row>
-    <row r="125" ht="20.1" customHeight="1">
-      <c r="A125" s="14"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-    </row>
-    <row r="126" ht="20.1" customHeight="1">
-      <c r="A126" t="s" s="10">
+      <c r="C124" s="9"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A125" s="11"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A126" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B126" t="s" s="11">
+      <c r="B126" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C126" s="12"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-    </row>
-    <row r="127" ht="20.1" customHeight="1">
-      <c r="A127" t="s" s="10">
+      <c r="C126" s="9"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A127" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B127" t="s" s="11">
+      <c r="B127" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C127" s="12"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-    </row>
-    <row r="128" ht="20.1" customHeight="1">
-      <c r="A128" t="s" s="10">
+      <c r="C127" s="9"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A128" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B128" t="s" s="11">
+      <c r="B128" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C128" s="12"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-    </row>
-    <row r="129" ht="20.1" customHeight="1">
-      <c r="A129" t="s" s="10">
+      <c r="C128" s="9"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A129" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B129" t="s" s="11">
+      <c r="B129" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C129" s="12"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-    </row>
-    <row r="130" ht="20.1" customHeight="1">
-      <c r="A130" t="s" s="10">
+      <c r="C129" s="9"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A130" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B130" t="s" s="11">
+      <c r="B130" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C130" s="16"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-    </row>
-    <row r="131" ht="20.1" customHeight="1">
-      <c r="A131" s="17"/>
-      <c r="B131" t="s" s="11">
+      <c r="C130" s="13"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A131" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-    </row>
-    <row r="132" ht="20.1" customHeight="1">
-      <c r="A132" s="17"/>
-      <c r="B132" t="s" s="11">
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A132" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B132" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-    </row>
-    <row r="133" ht="20.1" customHeight="1">
-      <c r="A133" s="17"/>
-      <c r="B133" t="s" s="11">
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+    </row>
+    <row r="133" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A133" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B133" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-    </row>
-    <row r="134" ht="20.1" customHeight="1">
-      <c r="A134" s="17"/>
-      <c r="B134" t="s" s="11">
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+    </row>
+    <row r="134" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A134" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-    </row>
-    <row r="135" ht="20.1" customHeight="1">
-      <c r="A135" s="17"/>
-      <c r="B135" t="s" s="11">
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+    </row>
+    <row r="135" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A135" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B135" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-    </row>
-    <row r="136" ht="20.1" customHeight="1">
-      <c r="A136" s="17"/>
-      <c r="B136" t="s" s="11">
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+    </row>
+    <row r="136" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A136" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B136" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-    </row>
-    <row r="137" ht="20.1" customHeight="1">
-      <c r="A137" s="17"/>
-      <c r="B137" t="s" s="11">
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A137" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B137" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-    </row>
-    <row r="138" ht="20.1" customHeight="1">
-      <c r="A138" s="17"/>
-      <c r="B138" t="s" s="11">
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A138" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B138" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-    </row>
-    <row r="139" ht="20.1" customHeight="1">
-      <c r="A139" s="17"/>
-      <c r="B139" t="s" s="11">
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A139" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B139" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-    </row>
-    <row r="140" ht="20.1" customHeight="1">
-      <c r="A140" s="17"/>
-      <c r="B140" t="s" s="11">
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A140" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B140" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-    </row>
-    <row r="141" ht="20.1" customHeight="1">
-      <c r="A141" s="17"/>
-      <c r="B141" t="s" s="11">
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A141" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B141" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-    </row>
-    <row r="142" ht="20.1" customHeight="1">
-      <c r="A142" s="17"/>
-      <c r="B142" t="s" s="11">
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A142" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B142" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-    </row>
-    <row r="143" ht="20.1" customHeight="1">
-      <c r="A143" s="17"/>
-      <c r="B143" t="s" s="11">
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+    </row>
+    <row r="143" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A143" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-    </row>
-    <row r="144" ht="20.1" customHeight="1">
-      <c r="A144" s="17"/>
-      <c r="B144" t="s" s="11">
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+    </row>
+    <row r="144" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A144" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B144" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
-    </row>
-    <row r="145" ht="20.1" customHeight="1">
-      <c r="A145" s="17"/>
-      <c r="B145" t="s" s="11">
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+    </row>
+    <row r="145" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A145" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B145" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-    </row>
-    <row r="146" ht="20.1" customHeight="1">
-      <c r="A146" s="17"/>
-      <c r="B146" t="s" s="11">
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+    </row>
+    <row r="146" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A146" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B146" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-    </row>
-    <row r="147" ht="20.1" customHeight="1">
-      <c r="A147" s="17"/>
-      <c r="B147" t="s" s="11">
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+    </row>
+    <row r="147" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A147" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-    </row>
-    <row r="148" ht="20.1" customHeight="1">
-      <c r="A148" s="17"/>
-      <c r="B148" t="s" s="11">
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+    </row>
+    <row r="148" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A148" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B148" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-    </row>
-    <row r="149" ht="20.1" customHeight="1">
-      <c r="A149" s="17"/>
-      <c r="B149" t="s" s="11">
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+    </row>
+    <row r="149" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A149" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
-    </row>
-    <row r="150" ht="20.1" customHeight="1">
-      <c r="A150" s="17"/>
-      <c r="B150" t="s" s="11">
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+    </row>
+    <row r="150" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A150" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-    </row>
-    <row r="151" ht="20.1" customHeight="1">
-      <c r="A151" s="17"/>
-      <c r="B151" t="s" s="11">
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+    </row>
+    <row r="151" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A151" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13"/>
-    </row>
-    <row r="152" ht="20.1" customHeight="1">
-      <c r="A152" s="17"/>
-      <c r="B152" t="s" s="11">
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+    </row>
+    <row r="152" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A152" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B152" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="13"/>
-    </row>
-    <row r="153" ht="20.1" customHeight="1">
-      <c r="A153" s="17"/>
-      <c r="B153" t="s" s="11">
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+    </row>
+    <row r="153" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A153" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B153" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-    </row>
-    <row r="154" ht="20.1" customHeight="1">
-      <c r="A154" s="17"/>
-      <c r="B154" t="s" s="11">
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+    </row>
+    <row r="154" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A154" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B154" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-    </row>
-    <row r="155" ht="20.1" customHeight="1">
-      <c r="A155" s="17"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="13"/>
-    </row>
-    <row r="156" ht="20.1" customHeight="1">
-      <c r="A156" s="17"/>
-      <c r="B156" t="s" s="11">
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+    </row>
+    <row r="155" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A155" s="14"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+    </row>
+    <row r="156" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A156" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B156" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="13"/>
-    </row>
-    <row r="157" ht="20.1" customHeight="1">
-      <c r="A157" s="17"/>
-      <c r="B157" t="s" s="11">
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+    </row>
+    <row r="157" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A157" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="13"/>
-    </row>
-    <row r="158" ht="20.1" customHeight="1">
-      <c r="A158" s="17"/>
-      <c r="B158" t="s" s="11">
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+    </row>
+    <row r="158" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A158" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B158" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="13"/>
-    </row>
-    <row r="159" ht="20.1" customHeight="1">
-      <c r="A159" s="17"/>
-      <c r="B159" t="s" s="11">
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+    </row>
+    <row r="159" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A159" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B159" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="13"/>
-    </row>
-    <row r="160" ht="20.1" customHeight="1">
-      <c r="A160" s="17"/>
-      <c r="B160" t="s" s="11">
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+    </row>
+    <row r="160" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A160" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B160" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="13"/>
-    </row>
-    <row r="161" ht="20.1" customHeight="1">
-      <c r="A161" s="17"/>
-      <c r="B161" t="s" s="11">
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+    </row>
+    <row r="161" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A161" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B161" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="13"/>
-    </row>
-    <row r="162" ht="20.1" customHeight="1">
-      <c r="A162" s="17"/>
-      <c r="B162" t="s" s="11">
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+    </row>
+    <row r="162" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A162" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13"/>
-      <c r="G162" s="13"/>
-    </row>
-    <row r="163" ht="20.1" customHeight="1">
-      <c r="A163" s="17"/>
-      <c r="B163" t="s" s="11">
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+    </row>
+    <row r="163" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A163" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="13"/>
-    </row>
-    <row r="164" ht="20.1" customHeight="1">
-      <c r="A164" s="17"/>
-      <c r="B164" t="s" s="11">
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+    </row>
+    <row r="164" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A164" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B164" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="13"/>
-    </row>
-    <row r="165" ht="20.1" customHeight="1">
-      <c r="A165" s="17"/>
-      <c r="B165" t="s" s="11">
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+    </row>
+    <row r="165" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A165" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B165" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="13"/>
-    </row>
-    <row r="166" ht="20.1" customHeight="1">
-      <c r="A166" s="17"/>
-      <c r="B166" t="s" s="11">
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+    </row>
+    <row r="166" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A166" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="13"/>
-    </row>
-    <row r="167" ht="20.1" customHeight="1">
-      <c r="A167" s="17"/>
-      <c r="B167" t="s" s="11">
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+    </row>
+    <row r="167" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A167" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="13"/>
-    </row>
-    <row r="168" ht="20.1" customHeight="1">
-      <c r="A168" s="17"/>
-      <c r="B168" t="s" s="11">
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+    </row>
+    <row r="168" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A168" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B168" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
-    </row>
-    <row r="169" ht="20.1" customHeight="1">
-      <c r="A169" s="17"/>
-      <c r="B169" t="s" s="11">
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+    </row>
+    <row r="169" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A169" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B169" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
-    </row>
-    <row r="170" ht="20.1" customHeight="1">
-      <c r="A170" s="17"/>
-      <c r="B170" t="s" s="11">
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+    </row>
+    <row r="170" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A170" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="13"/>
-    </row>
-    <row r="171" ht="20.1" customHeight="1">
-      <c r="A171" s="17"/>
-      <c r="B171" t="s" s="11">
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+    </row>
+    <row r="171" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A171" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B171" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
-    </row>
-    <row r="172" ht="20.1" customHeight="1">
-      <c r="A172" s="17"/>
-      <c r="B172" t="s" s="11">
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+    </row>
+    <row r="172" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A172" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="13"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="13"/>
-    </row>
-    <row r="173" ht="20.1" customHeight="1">
-      <c r="A173" s="17"/>
-      <c r="B173" t="s" s="11">
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+    </row>
+    <row r="173" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A173" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B173" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="13"/>
-      <c r="G173" s="13"/>
-    </row>
-    <row r="174" ht="20.1" customHeight="1">
-      <c r="A174" s="17"/>
-      <c r="B174" t="s" s="11">
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+    </row>
+    <row r="174" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A174" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B174" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="13"/>
-    </row>
-    <row r="175" ht="20.1" customHeight="1">
-      <c r="A175" s="17"/>
-      <c r="B175" t="s" s="11">
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+    </row>
+    <row r="175" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A175" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B175" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="13"/>
-      <c r="G175" s="13"/>
-    </row>
-    <row r="176" ht="20.1" customHeight="1">
-      <c r="A176" s="17"/>
-      <c r="B176" t="s" s="11">
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+    </row>
+    <row r="176" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A176" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B176" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="13"/>
-      <c r="G176" s="13"/>
-    </row>
-    <row r="177" ht="20.1" customHeight="1">
-      <c r="A177" s="17"/>
-      <c r="B177" t="s" s="11">
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+    </row>
+    <row r="177" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A177" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B177" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="13"/>
-    </row>
-    <row r="178" ht="20.1" customHeight="1">
-      <c r="A178" s="17"/>
-      <c r="B178" t="s" s="11">
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+    </row>
+    <row r="178" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B178" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="13"/>
-    </row>
-    <row r="179" ht="20.1" customHeight="1">
-      <c r="A179" s="17"/>
-      <c r="B179" t="s" s="11">
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+    </row>
+    <row r="179" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A179" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B179" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
-      <c r="G179" s="13"/>
-    </row>
-    <row r="180" ht="20.1" customHeight="1">
-      <c r="A180" s="17"/>
-      <c r="B180" s="15"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="13"/>
-    </row>
-    <row r="181" ht="20.1" customHeight="1">
-      <c r="A181" s="17"/>
-      <c r="B181" t="s" s="11">
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+    </row>
+    <row r="180" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A180" s="14"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+    </row>
+    <row r="181" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A181" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B181" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="13"/>
-    </row>
-    <row r="182" ht="20.1" customHeight="1">
-      <c r="A182" s="17"/>
-      <c r="B182" t="s" s="11">
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+    </row>
+    <row r="182" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A182" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B182" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C182" s="13"/>
-      <c r="D182" s="13"/>
-      <c r="E182" s="13"/>
-      <c r="F182" s="13"/>
-      <c r="G182" s="13"/>
-    </row>
-    <row r="183" ht="20.1" customHeight="1">
-      <c r="A183" s="17"/>
-      <c r="B183" t="s" s="11">
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+    </row>
+    <row r="183" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A183" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B183" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C183" s="13"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="13"/>
-    </row>
-    <row r="184" ht="20.1" customHeight="1">
-      <c r="A184" s="17"/>
-      <c r="B184" t="s" s="11">
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+    </row>
+    <row r="184" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A184" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B184" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C184" s="13"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
-      <c r="G184" s="13"/>
-    </row>
-    <row r="185" ht="20.1" customHeight="1">
-      <c r="A185" s="17"/>
-      <c r="B185" t="s" s="11">
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+    </row>
+    <row r="185" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A185" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B185" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C185" s="13"/>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
-      <c r="F185" s="13"/>
-      <c r="G185" s="13"/>
-    </row>
-    <row r="186" ht="20.1" customHeight="1">
-      <c r="A186" s="17"/>
-      <c r="B186" t="s" s="11">
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
+    </row>
+    <row r="186" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A186" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B186" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C186" s="13"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13"/>
-      <c r="F186" s="13"/>
-      <c r="G186" s="13"/>
-    </row>
-    <row r="187" ht="20.1" customHeight="1">
-      <c r="A187" s="17"/>
-      <c r="B187" t="s" s="11">
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
+    </row>
+    <row r="187" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A187" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B187" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C187" s="13"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
-      <c r="F187" s="13"/>
-      <c r="G187" s="13"/>
-    </row>
-    <row r="188" ht="20.1" customHeight="1">
-      <c r="A188" s="17"/>
-      <c r="B188" t="s" s="11">
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
+    </row>
+    <row r="188" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A188" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B188" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C188" s="13"/>
-      <c r="D188" s="13"/>
-      <c r="E188" s="13"/>
-      <c r="F188" s="13"/>
-      <c r="G188" s="13"/>
-    </row>
-    <row r="189" ht="20.1" customHeight="1">
-      <c r="A189" s="17"/>
-      <c r="B189" t="s" s="11">
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
+    </row>
+    <row r="189" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A189" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B189" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C189" s="13"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="13"/>
-      <c r="G189" s="13"/>
-    </row>
-    <row r="190" ht="20.1" customHeight="1">
-      <c r="A190" s="17"/>
-      <c r="B190" s="15"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="13"/>
-      <c r="F190" s="13"/>
-      <c r="G190" s="13"/>
-    </row>
-    <row r="191" ht="20.1" customHeight="1">
-      <c r="A191" s="17"/>
-      <c r="B191" t="s" s="11">
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+    </row>
+    <row r="190" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A190" s="14"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+    </row>
+    <row r="191" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A191" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B191" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C191" s="13"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="13"/>
-      <c r="F191" s="13"/>
-      <c r="G191" s="13"/>
-    </row>
-    <row r="192" ht="20.1" customHeight="1">
-      <c r="A192" s="17"/>
-      <c r="B192" t="s" s="11">
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+    </row>
+    <row r="192" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A192" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B192" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C192" s="13"/>
-      <c r="D192" s="13"/>
-      <c r="E192" s="13"/>
-      <c r="F192" s="13"/>
-      <c r="G192" s="13"/>
-    </row>
-    <row r="193" ht="20.1" customHeight="1">
-      <c r="A193" s="17"/>
-      <c r="B193" t="s" s="11">
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+    </row>
+    <row r="193" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A193" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B193" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C193" s="13"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="13"/>
-      <c r="G193" s="13"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/parole.xlsx
+++ b/parole.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\edu\albe\curcuma\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
   <si>
     <t>Tabella 1</t>
   </si>
@@ -696,6 +688,21 @@
     <t>scienziato</t>
   </si>
   <si>
+    <t>Geometra</t>
+  </si>
+  <si>
+    <t>Cuoco</t>
+  </si>
+  <si>
+    <t>Meccanico</t>
+  </si>
+  <si>
+    <t>Falegname</t>
+  </si>
+  <si>
+    <t>Fabbro</t>
+  </si>
+  <si>
     <t>Трудность</t>
   </si>
   <si>
@@ -756,368 +763,518 @@
     <t>Sensazione</t>
   </si>
   <si>
+    <t>Болезнь</t>
+  </si>
+  <si>
     <t>Malattia</t>
   </si>
   <si>
+    <t>Здоровье</t>
+  </si>
+  <si>
     <t>Salute</t>
   </si>
   <si>
+    <t>Богатство</t>
+  </si>
+  <si>
     <t>Ricchezza</t>
   </si>
   <si>
+    <t>Бедность</t>
+  </si>
+  <si>
     <t>Povertà</t>
   </si>
   <si>
+    <t>Безопасность</t>
+  </si>
+  <si>
     <t>Sicurezza</t>
   </si>
   <si>
     <t>Sincerità</t>
   </si>
   <si>
+    <t>Искусство</t>
+  </si>
+  <si>
     <t>Arte</t>
   </si>
   <si>
+    <t>Честность</t>
+  </si>
+  <si>
     <t>Onestà</t>
   </si>
   <si>
+    <t>Молитва</t>
+  </si>
+  <si>
     <t>Preghiera</t>
   </si>
   <si>
+    <t>Услуга</t>
+  </si>
+  <si>
     <t>Favore</t>
   </si>
   <si>
+    <t>Обмен</t>
+  </si>
+  <si>
     <t>Scambio</t>
   </si>
   <si>
+    <t>Продажа</t>
+  </si>
+  <si>
     <t>Vendita</t>
   </si>
   <si>
+    <t>Магия / волшебство</t>
+  </si>
+  <si>
     <t>Magia</t>
   </si>
   <si>
+    <t>Покупка</t>
+  </si>
+  <si>
     <t>Acquisto</t>
   </si>
   <si>
+    <t>Мысль</t>
+  </si>
+  <si>
     <t>Pensiero</t>
   </si>
   <si>
+    <t>Предчувствие</t>
+  </si>
+  <si>
     <t>Presentimento</t>
   </si>
   <si>
+    <t xml:space="preserve">Чувство  </t>
+  </si>
+  <si>
     <t>Sentimento</t>
   </si>
   <si>
+    <t>Порядок</t>
+  </si>
+  <si>
     <t>Ordine</t>
   </si>
   <si>
+    <t>Приветствие</t>
+  </si>
+  <si>
     <t>Saluto</t>
   </si>
   <si>
+    <t>Уважение</t>
+  </si>
+  <si>
     <t>Rispetto</t>
   </si>
   <si>
+    <t>Сотрудничество</t>
+  </si>
+  <si>
     <t>Collaborazione</t>
   </si>
   <si>
+    <t>Взаимодействие</t>
+  </si>
+  <si>
     <t>Interazione</t>
   </si>
   <si>
+    <t>Эволюция</t>
+  </si>
+  <si>
     <t>Evoluzione</t>
   </si>
   <si>
+    <t>Серьезность</t>
+  </si>
+  <si>
     <t>Serenità</t>
   </si>
   <si>
+    <t>Idea</t>
+  </si>
+  <si>
+    <t>Счет</t>
+  </si>
+  <si>
     <t>Bolletta</t>
   </si>
   <si>
+    <t>Налог</t>
+  </si>
+  <si>
     <t>Tassa</t>
   </si>
   <si>
+    <t>Палка</t>
+  </si>
+  <si>
     <t>Bastone</t>
   </si>
   <si>
+    <t>Рюкзак</t>
+  </si>
+  <si>
     <t>Zaino</t>
   </si>
   <si>
+    <t>Клавиатура</t>
+  </si>
+  <si>
     <t>Tastiera</t>
   </si>
   <si>
+    <t>Экран</t>
+  </si>
+  <si>
     <t>Schermo</t>
   </si>
   <si>
+    <t>Таблица</t>
+  </si>
+  <si>
     <t>Tabella</t>
   </si>
   <si>
+    <t>Ручка</t>
+  </si>
+  <si>
     <t>Penna</t>
   </si>
   <si>
+    <t>Кисточка</t>
+  </si>
+  <si>
     <t>Pennello</t>
   </si>
   <si>
+    <t>Маркер</t>
+  </si>
+  <si>
     <t>Pennarello</t>
   </si>
   <si>
+    <t>Линейка</t>
+  </si>
+  <si>
     <t>Righello</t>
   </si>
   <si>
+    <t>Ластик</t>
+  </si>
+  <si>
     <t>Gomma</t>
   </si>
   <si>
+    <t>Точилка</t>
+  </si>
+  <si>
     <t>Temperamatite</t>
   </si>
   <si>
+    <t>Карандаш</t>
+  </si>
+  <si>
     <t>Matita</t>
   </si>
   <si>
+    <t>Краска</t>
+  </si>
+  <si>
     <t>Tempera</t>
   </si>
   <si>
+    <t>Штукатурка</t>
+  </si>
+  <si>
     <t>Vernice</t>
   </si>
   <si>
+    <t>Стена</t>
+  </si>
+  <si>
     <t>Muro</t>
   </si>
   <si>
+    <t>Балкон</t>
+  </si>
+  <si>
     <t>Balcone</t>
   </si>
   <si>
+    <t>Проем / вход</t>
+  </si>
+  <si>
     <t>Portale</t>
   </si>
   <si>
+    <t>дворец / здание</t>
+  </si>
+  <si>
     <t>Palazzo</t>
   </si>
   <si>
+    <t>здание</t>
+  </si>
+  <si>
     <t>Edificio</t>
   </si>
   <si>
+    <t>замок</t>
+  </si>
+  <si>
     <t>Castello</t>
   </si>
   <si>
+    <t>улица</t>
+  </si>
+  <si>
     <t>Via</t>
   </si>
   <si>
+    <t>дорога</t>
+  </si>
+  <si>
     <t>Strada</t>
   </si>
   <si>
+    <t>посередине /  между чем и чем</t>
+  </si>
+  <si>
     <t xml:space="preserve"> In mezzo a</t>
   </si>
   <si>
+    <t>сверху / над чем-то</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Sopra a</t>
   </si>
   <si>
+    <t>снизу / под чем-то</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Sotto a</t>
   </si>
   <si>
+    <t>Внутри чего-то</t>
+  </si>
+  <si>
     <t>Dentro di</t>
   </si>
   <si>
+    <t>справа от чего-то</t>
+  </si>
+  <si>
     <t>A destra di</t>
   </si>
   <si>
+    <t>слева от чего-то</t>
+  </si>
+  <si>
     <t>A sinistra di</t>
   </si>
   <si>
+    <t>сзади / за чем-то</t>
+  </si>
+  <si>
     <t>Dietro di</t>
   </si>
   <si>
+    <t>впереди чего-то / перед чем-то</t>
+  </si>
+  <si>
     <t>Davanti a</t>
   </si>
   <si>
+    <t>сбоку от чего-то</t>
+  </si>
+  <si>
     <t xml:space="preserve">A fianco di </t>
   </si>
   <si>
+    <t>до события / пятью минутами ранее / два часа до того</t>
+  </si>
+  <si>
     <t>Prima di (tempo)</t>
   </si>
   <si>
+    <t>после события / через пять минут</t>
+  </si>
+  <si>
     <t>Dopo di (tempo)</t>
   </si>
   <si>
+    <t>между событиями / между двумя и пятью часами</t>
+  </si>
+  <si>
     <t>In mezzo a (tempo)</t>
   </si>
   <si>
-    <t>Болезнь</t>
-  </si>
-  <si>
-    <t>Здоровье</t>
-  </si>
-  <si>
-    <t>Богатство</t>
-  </si>
-  <si>
-    <t>Бедность</t>
-  </si>
-  <si>
-    <t>Безопасность</t>
-  </si>
-  <si>
-    <t>Искусство</t>
-  </si>
-  <si>
-    <t>Честность</t>
-  </si>
-  <si>
-    <t>Молитва</t>
-  </si>
-  <si>
-    <t>Обмен</t>
-  </si>
-  <si>
-    <t>Продажа</t>
-  </si>
-  <si>
-    <t>Магия / волшебство</t>
-  </si>
-  <si>
-    <t>Покупка</t>
-  </si>
-  <si>
-    <t>Мысль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чувство  </t>
-  </si>
-  <si>
-    <t>Порядок</t>
-  </si>
-  <si>
-    <t>Приветствие</t>
-  </si>
-  <si>
-    <t>Уважение</t>
-  </si>
-  <si>
-    <t>Сотрудничество</t>
-  </si>
-  <si>
-    <t>Взаимодействие</t>
-  </si>
-  <si>
-    <t>Эволюция</t>
-  </si>
-  <si>
-    <t>Налог</t>
-  </si>
-  <si>
-    <t>Палка</t>
-  </si>
-  <si>
-    <t>Рюкзак</t>
-  </si>
-  <si>
-    <t>Клавиатура</t>
-  </si>
-  <si>
-    <t>Экран</t>
-  </si>
-  <si>
-    <t>Таблица</t>
-  </si>
-  <si>
-    <t>Ручка</t>
-  </si>
-  <si>
-    <t>Кисточка</t>
-  </si>
-  <si>
-    <t>Маркер</t>
-  </si>
-  <si>
-    <t>Линейка</t>
-  </si>
-  <si>
-    <t>Ластик</t>
-  </si>
-  <si>
-    <t>Точилка</t>
-  </si>
-  <si>
-    <t>Карандаш</t>
-  </si>
-  <si>
-    <t>Краска</t>
-  </si>
-  <si>
-    <t>Стена</t>
-  </si>
-  <si>
-    <t>Балкон</t>
-  </si>
-  <si>
-    <t>Проем / вход</t>
-  </si>
-  <si>
-    <t>здание</t>
-  </si>
-  <si>
-    <t>дворец / здание</t>
-  </si>
-  <si>
-    <t>замок</t>
-  </si>
-  <si>
-    <t>улица</t>
-  </si>
-  <si>
-    <t>дорога</t>
-  </si>
-  <si>
-    <t>сверху / над чем-то</t>
-  </si>
-  <si>
-    <t>посередине /  между чем и чем</t>
-  </si>
-  <si>
-    <t>снизу / под чем-то</t>
-  </si>
-  <si>
-    <t>сзади / за чем-то</t>
-  </si>
-  <si>
-    <t>справа от чего-то</t>
-  </si>
-  <si>
-    <t>слева от чего-то</t>
-  </si>
-  <si>
-    <t>Внутри чего-то</t>
-  </si>
-  <si>
-    <t>впереди чего-то / перед чем-то</t>
-  </si>
-  <si>
-    <t>сбоку от чего-то</t>
-  </si>
-  <si>
-    <t>после события / через пять минут</t>
-  </si>
-  <si>
-    <t>до события / пятью минутами ранее / два часа до того</t>
-  </si>
-  <si>
-    <t>Счет</t>
-  </si>
-  <si>
-    <t>Услуга</t>
-  </si>
-  <si>
-    <t>Серьезность</t>
-  </si>
-  <si>
-    <t>Штукатурка</t>
-  </si>
-  <si>
-    <t>Предчувствие</t>
-  </si>
-  <si>
-    <t>между событиями / между двумя и пятью часами</t>
+    <t>pietra</t>
+  </si>
+  <si>
+    <t>Legno</t>
+  </si>
+  <si>
+    <t>ferro</t>
+  </si>
+  <si>
+    <t>Acciaio</t>
+  </si>
+  <si>
+    <t>Oro</t>
+  </si>
+  <si>
+    <t>argento</t>
+  </si>
+  <si>
+    <t>carta</t>
+  </si>
+  <si>
+    <t>Cartone</t>
+  </si>
+  <si>
+    <t>Cemento</t>
+  </si>
+  <si>
+    <t>Paglia</t>
+  </si>
+  <si>
+    <t>cotone</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>Lino</t>
+  </si>
+  <si>
+    <t>mattone</t>
+  </si>
+  <si>
+    <t>Ceramica</t>
+  </si>
+  <si>
+    <t>Pantaloni</t>
+  </si>
+  <si>
+    <t>Scarpe</t>
+  </si>
+  <si>
+    <t>stivali</t>
+  </si>
+  <si>
+    <t>Pantaloni corti</t>
+  </si>
+  <si>
+    <t>maglietta</t>
+  </si>
+  <si>
+    <t>camicia</t>
+  </si>
+  <si>
+    <t>Sweater</t>
+  </si>
+  <si>
+    <t>Pullover</t>
+  </si>
+  <si>
+    <t>Cappotto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cappello</t>
+  </si>
+  <si>
+    <t>Cappello baseball</t>
+  </si>
+  <si>
+    <t>Cravatta</t>
+  </si>
+  <si>
+    <t>bottone</t>
+  </si>
+  <si>
+    <t>Calze</t>
+  </si>
+  <si>
+    <t>Orologio</t>
+  </si>
+  <si>
+    <t>Collana</t>
+  </si>
+  <si>
+    <t>Anello</t>
+  </si>
+  <si>
+    <t>Giacca</t>
+  </si>
+  <si>
+    <t>guanti</t>
+  </si>
+  <si>
+    <t>Sciarpa</t>
+  </si>
+  <si>
+    <t>Cappuccio</t>
+  </si>
+  <si>
+    <t>ombrello</t>
+  </si>
+  <si>
+    <t>Sandali</t>
+  </si>
+  <si>
+    <t>Ciabatte</t>
+  </si>
+  <si>
+    <t>Infradito</t>
+  </si>
+  <si>
+    <t>pentola</t>
+  </si>
+  <si>
+    <t>Padella</t>
+  </si>
+  <si>
+    <t>bicchiere</t>
+  </si>
+  <si>
+    <t>piatto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forchetta </t>
+  </si>
+  <si>
+    <t>Coltello</t>
+  </si>
+  <si>
+    <t>cucchiaio</t>
+  </si>
+  <si>
+    <t>Toccare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1129,7 +1286,12 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -1161,7 +1323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1241,6 +1403,21 @@
         <color indexed="13"/>
       </left>
       <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -1282,6 +1459,21 @@
     <border>
       <left style="thin">
         <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="13"/>
@@ -1350,64 +1542,79 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1417,85 +1624,28 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1697,7 +1847,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1716,7 +1866,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1746,7 +1896,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1772,7 +1922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1798,7 +1948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1824,7 +1974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1850,7 +2000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1876,7 +2026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1902,7 +2052,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1928,7 +2078,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1954,7 +2104,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1967,15 +2117,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1992,7 +2136,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2011,7 +2155,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2037,7 +2181,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2063,7 +2207,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2089,7 +2233,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2115,7 +2259,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2141,7 +2285,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2167,7 +2311,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2193,7 +2337,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2219,7 +2363,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2245,7 +2389,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2258,15 +2402,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2280,7 +2418,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2299,7 +2437,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2329,7 +2467,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2355,7 +2493,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2381,7 +2519,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2407,7 +2545,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2433,7 +2571,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2459,7 +2597,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2485,7 +2623,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2511,7 +2649,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2537,7 +2675,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2550,2514 +2688,3638 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV193"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I251"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="30" style="1" customWidth="1"/>
-    <col min="2" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="9" width="16.3516" style="1" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" ht="27.6" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1">
+      <c r="A4" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1">
+      <c r="A5" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s" s="13">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1">
+      <c r="A6" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1">
+      <c r="A7" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1">
+      <c r="A8" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1">
+      <c r="A9" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1">
+      <c r="A10" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" ht="20.1" customHeight="1">
+      <c r="A11" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1">
+      <c r="A12" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1">
+      <c r="A13" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1">
+      <c r="A14" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" ht="20.1" customHeight="1">
+      <c r="A15" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="7" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" ht="20.1" customHeight="1">
+      <c r="A16" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" ht="20.1" customHeight="1">
+      <c r="A17" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="7" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" ht="20.1" customHeight="1">
+      <c r="A18" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="7" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" ht="20.1" customHeight="1">
+      <c r="A19" t="s" s="12">
         <v>33</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="7" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" ht="20.1" customHeight="1">
+      <c r="A20" t="s" s="12">
         <v>35</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" ht="20.1" customHeight="1">
+      <c r="A21" t="s" s="12">
         <v>37</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" ht="20.1" customHeight="1">
+      <c r="A22" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" ht="20.1" customHeight="1">
+      <c r="A23" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" t="s" s="13">
         <v>42</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="7" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" ht="20.1" customHeight="1">
+      <c r="A24" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" t="s" s="13">
         <v>44</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="7" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" ht="20.1" customHeight="1">
+      <c r="A25" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" t="s" s="13">
         <v>46</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="7" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" ht="20.1" customHeight="1">
+      <c r="A26" t="s" s="12">
         <v>47</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" t="s" s="13">
         <v>48</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="7" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" ht="20.1" customHeight="1">
+      <c r="A27" t="s" s="12">
         <v>49</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" t="s" s="13">
         <v>50</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="7" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" ht="20.1" customHeight="1">
+      <c r="A28" t="s" s="12">
         <v>51</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="7" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" ht="20.1" customHeight="1">
+      <c r="A29" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" t="s" s="13">
         <v>54</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="7" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" ht="20.1" customHeight="1">
+      <c r="A30" t="s" s="12">
         <v>55</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="7" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" ht="20.1" customHeight="1">
+      <c r="A31" t="s" s="12">
         <v>57</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" t="s" s="13">
         <v>58</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="7" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" ht="20.1" customHeight="1">
+      <c r="A32" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" ht="20.1" customHeight="1">
+      <c r="A33" t="s" s="12">
         <v>61</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="7" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" ht="20.1" customHeight="1">
+      <c r="A34" t="s" s="12">
         <v>63</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="7" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" ht="20.1" customHeight="1">
+      <c r="A35" t="s" s="12">
         <v>65</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" t="s" s="13">
         <v>66</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="7" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" ht="20.1" customHeight="1">
+      <c r="A36" t="s" s="12">
         <v>67</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="7" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" ht="20.1" customHeight="1">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" ht="20.1" customHeight="1">
+      <c r="A38" t="s" s="12">
         <v>69</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" t="s" s="13">
         <v>70</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="7" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" ht="20.1" customHeight="1">
+      <c r="A39" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" t="s" s="13">
         <v>72</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="7" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" ht="20.1" customHeight="1">
+      <c r="A40" t="s" s="12">
         <v>73</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" t="s" s="13">
         <v>74</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="7" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" ht="20.1" customHeight="1">
+      <c r="A41" t="s" s="12">
         <v>75</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" t="s" s="13">
         <v>76</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="7" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" ht="20.1" customHeight="1">
+      <c r="A42" t="s" s="12">
         <v>77</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" t="s" s="13">
         <v>78</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="7" t="s">
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" ht="20.1" customHeight="1">
+      <c r="A43" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" t="s" s="13">
         <v>80</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="7" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" ht="20.1" customHeight="1">
+      <c r="A44" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" t="s" s="13">
         <v>82</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="7" t="s">
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" ht="20.1" customHeight="1">
+      <c r="A45" t="s" s="12">
         <v>83</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" t="s" s="13">
         <v>84</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="7" t="s">
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" ht="20.1" customHeight="1">
+      <c r="A46" t="s" s="12">
         <v>85</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" t="s" s="13">
         <v>86</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="7" t="s">
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" ht="20.1" customHeight="1">
+      <c r="A47" t="s" s="12">
         <v>87</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" t="s" s="13">
         <v>88</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="7" t="s">
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" ht="20.1" customHeight="1">
+      <c r="A48" t="s" s="12">
         <v>89</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" t="s" s="13">
         <v>90</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="7" t="s">
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+    </row>
+    <row r="49" ht="20.1" customHeight="1">
+      <c r="A49" t="s" s="12">
         <v>91</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" t="s" s="13">
         <v>92</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="7" t="s">
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" ht="20.1" customHeight="1">
+      <c r="A50" t="s" s="12">
         <v>93</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" t="s" s="13">
         <v>94</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-    </row>
-    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="7" t="s">
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" ht="20.1" customHeight="1">
+      <c r="A51" t="s" s="12">
         <v>95</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" t="s" s="13">
         <v>96</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="7" t="s">
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" ht="20.1" customHeight="1">
+      <c r="A52" t="s" s="12">
         <v>97</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" t="s" s="13">
         <v>98</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="7" t="s">
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" ht="20.1" customHeight="1">
+      <c r="A53" t="s" s="12">
         <v>99</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" t="s" s="13">
         <v>100</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-    </row>
-    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="7" t="s">
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+    </row>
+    <row r="54" ht="20.1" customHeight="1">
+      <c r="A54" t="s" s="12">
         <v>101</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" t="s" s="13">
         <v>102</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-    </row>
-    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="7" t="s">
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+    </row>
+    <row r="55" ht="20.1" customHeight="1">
+      <c r="A55" t="s" s="12">
         <v>103</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" t="s" s="13">
         <v>104</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-    </row>
-    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="7" t="s">
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+    </row>
+    <row r="56" ht="20.1" customHeight="1">
+      <c r="A56" t="s" s="12">
         <v>105</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" t="s" s="13">
         <v>106</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-    </row>
-    <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="7" t="s">
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+    </row>
+    <row r="57" ht="20.1" customHeight="1">
+      <c r="A57" t="s" s="12">
         <v>107</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" t="s" s="13">
         <v>108</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-    </row>
-    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="7" t="s">
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+    </row>
+    <row r="58" ht="20.1" customHeight="1">
+      <c r="A58" t="s" s="12">
         <v>109</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" t="s" s="13">
         <v>110</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-    </row>
-    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="7" t="s">
+      <c r="C58" s="13"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+    </row>
+    <row r="59" ht="20.1" customHeight="1">
+      <c r="A59" t="s" s="12">
         <v>111</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" t="s" s="13">
         <v>112</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-    </row>
-    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="7" t="s">
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+    </row>
+    <row r="60" ht="20.1" customHeight="1">
+      <c r="A60" t="s" s="12">
         <v>113</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" t="s" s="13">
         <v>114</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-    </row>
-    <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="7" t="s">
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+    </row>
+    <row r="61" ht="20.1" customHeight="1">
+      <c r="A61" t="s" s="12">
         <v>115</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" t="s" s="13">
         <v>116</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-    </row>
-    <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-    </row>
-    <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="7" t="s">
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+    </row>
+    <row r="62" ht="20.1" customHeight="1">
+      <c r="A62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" ht="20.1" customHeight="1">
+      <c r="A63" t="s" s="12">
         <v>117</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" t="s" s="13">
         <v>118</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-    </row>
-    <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="7" t="s">
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+    </row>
+    <row r="64" ht="20.1" customHeight="1">
+      <c r="A64" t="s" s="12">
         <v>119</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" t="s" s="13">
         <v>120</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="7" t="s">
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+    </row>
+    <row r="65" ht="20.1" customHeight="1">
+      <c r="A65" t="s" s="12">
         <v>121</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" t="s" s="13">
         <v>122</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-    </row>
-    <row r="66" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="7" t="s">
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+    </row>
+    <row r="66" ht="20.1" customHeight="1">
+      <c r="A66" t="s" s="12">
         <v>123</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" t="s" s="13">
         <v>124</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-    </row>
-    <row r="67" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="7" t="s">
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+    </row>
+    <row r="67" ht="20.1" customHeight="1">
+      <c r="A67" t="s" s="12">
         <v>125</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" t="s" s="13">
         <v>126</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-    </row>
-    <row r="68" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="7" t="s">
+      <c r="C67" s="13"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" ht="20.1" customHeight="1">
+      <c r="A68" t="s" s="12">
         <v>127</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" t="s" s="13">
         <v>128</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-    </row>
-    <row r="69" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="7" t="s">
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+    </row>
+    <row r="69" ht="20.1" customHeight="1">
+      <c r="A69" t="s" s="12">
         <v>129</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" t="s" s="13">
         <v>130</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-    </row>
-    <row r="70" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="7" t="s">
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+    </row>
+    <row r="70" ht="20.1" customHeight="1">
+      <c r="A70" t="s" s="12">
         <v>131</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" t="s" s="13">
         <v>132</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-    </row>
-    <row r="71" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="7" t="s">
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+    </row>
+    <row r="71" ht="20.1" customHeight="1">
+      <c r="A71" t="s" s="12">
         <v>133</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" t="s" s="13">
         <v>134</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-    </row>
-    <row r="72" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="7" t="s">
+      <c r="C71" s="13"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+    </row>
+    <row r="72" ht="20.1" customHeight="1">
+      <c r="A72" t="s" s="12">
         <v>135</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" t="s" s="13">
         <v>136</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-    </row>
-    <row r="73" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="7" t="s">
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+    </row>
+    <row r="73" ht="20.1" customHeight="1">
+      <c r="A73" t="s" s="12">
         <v>137</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" t="s" s="13">
         <v>138</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-    </row>
-    <row r="74" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="7" t="s">
+      <c r="C73" s="13"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+    </row>
+    <row r="74" ht="20.1" customHeight="1">
+      <c r="A74" t="s" s="12">
         <v>139</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" t="s" s="13">
         <v>140</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-    </row>
-    <row r="75" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="7" t="s">
+      <c r="C74" s="13"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+    </row>
+    <row r="75" ht="20.1" customHeight="1">
+      <c r="A75" t="s" s="12">
         <v>141</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-    </row>
-    <row r="76" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="7" t="s">
+      <c r="C75" s="13"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+    </row>
+    <row r="76" ht="20.1" customHeight="1">
+      <c r="A76" t="s" s="12">
         <v>143</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" t="s" s="13">
         <v>144</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-    </row>
-    <row r="77" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="7" t="s">
+      <c r="C76" s="13"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+    </row>
+    <row r="77" ht="20.1" customHeight="1">
+      <c r="A77" t="s" s="12">
         <v>145</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" t="s" s="13">
         <v>146</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-    </row>
-    <row r="78" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="7" t="s">
+      <c r="C77" s="13"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+    </row>
+    <row r="78" ht="20.1" customHeight="1">
+      <c r="A78" t="s" s="12">
         <v>145</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" t="s" s="13">
         <v>147</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-    </row>
-    <row r="79" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="7" t="s">
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+    </row>
+    <row r="79" ht="20.1" customHeight="1">
+      <c r="A79" t="s" s="12">
         <v>148</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" t="s" s="13">
         <v>149</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-    </row>
-    <row r="80" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="7" t="s">
+      <c r="C79" s="13"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+    </row>
+    <row r="80" ht="20.1" customHeight="1">
+      <c r="A80" t="s" s="12">
         <v>150</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" t="s" s="13">
         <v>151</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-    </row>
-    <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="7" t="s">
+      <c r="C80" s="13"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+    </row>
+    <row r="81" ht="20.1" customHeight="1">
+      <c r="A81" t="s" s="12">
         <v>152</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" t="s" s="13">
         <v>153</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-    </row>
-    <row r="82" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="7" t="s">
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+    </row>
+    <row r="82" ht="20.1" customHeight="1">
+      <c r="A82" t="s" s="12">
         <v>154</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" t="s" s="13">
         <v>155</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-    </row>
-    <row r="83" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="7" t="s">
+      <c r="C82" s="13"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+    </row>
+    <row r="83" ht="20.1" customHeight="1">
+      <c r="A83" t="s" s="12">
         <v>156</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" t="s" s="13">
         <v>157</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-    </row>
-    <row r="84" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="7" t="s">
+      <c r="C83" s="13"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+    </row>
+    <row r="84" ht="20.1" customHeight="1">
+      <c r="A84" t="s" s="12">
         <v>158</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" t="s" s="13">
         <v>159</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-    </row>
-    <row r="85" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="7" t="s">
+      <c r="C84" s="13"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+    </row>
+    <row r="85" ht="20.1" customHeight="1">
+      <c r="A85" t="s" s="12">
         <v>160</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" t="s" s="13">
         <v>161</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-    </row>
-    <row r="86" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="7" t="s">
+      <c r="C85" s="13"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+    </row>
+    <row r="86" ht="20.1" customHeight="1">
+      <c r="A86" t="s" s="12">
         <v>162</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" t="s" s="13">
         <v>163</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-    </row>
-    <row r="87" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="7" t="s">
+      <c r="C86" s="13"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+    </row>
+    <row r="87" ht="20.1" customHeight="1">
+      <c r="A87" t="s" s="12">
         <v>164</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" t="s" s="13">
         <v>165</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-    </row>
-    <row r="88" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="7" t="s">
+      <c r="C87" s="13"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+    </row>
+    <row r="88" ht="20.1" customHeight="1">
+      <c r="A88" t="s" s="12">
         <v>166</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" t="s" s="13">
         <v>167</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-    </row>
-    <row r="89" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="7" t="s">
+      <c r="C88" s="13"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+    </row>
+    <row r="89" ht="20.1" customHeight="1">
+      <c r="A89" t="s" s="12">
         <v>168</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" t="s" s="13">
         <v>169</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-    </row>
-    <row r="90" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="7" t="s">
+      <c r="C89" s="13"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+    </row>
+    <row r="90" ht="20.1" customHeight="1">
+      <c r="A90" t="s" s="12">
         <v>170</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" t="s" s="13">
         <v>171</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-    </row>
-    <row r="91" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="7" t="s">
+      <c r="C90" s="13"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+    </row>
+    <row r="91" ht="20.1" customHeight="1">
+      <c r="A91" t="s" s="12">
         <v>172</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" t="s" s="13">
         <v>173</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-    </row>
-    <row r="92" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="7" t="s">
+      <c r="C91" s="13"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+    </row>
+    <row r="92" ht="20.1" customHeight="1">
+      <c r="A92" t="s" s="12">
         <v>174</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" t="s" s="13">
         <v>175</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-    </row>
-    <row r="93" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="7" t="s">
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+    </row>
+    <row r="93" ht="20.1" customHeight="1">
+      <c r="A93" t="s" s="12">
         <v>176</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" t="s" s="13">
         <v>177</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-    </row>
-    <row r="94" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="7" t="s">
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+    </row>
+    <row r="94" ht="20.1" customHeight="1">
+      <c r="A94" t="s" s="12">
         <v>178</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" t="s" s="13">
         <v>179</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-    </row>
-    <row r="95" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="7" t="s">
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+    </row>
+    <row r="95" ht="20.1" customHeight="1">
+      <c r="A95" t="s" s="12">
         <v>180</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" t="s" s="13">
         <v>181</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-    </row>
-    <row r="96" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="7" t="s">
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+    </row>
+    <row r="96" ht="20.1" customHeight="1">
+      <c r="A96" t="s" s="12">
         <v>182</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" t="s" s="13">
         <v>183</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-    </row>
-    <row r="97" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="7" t="s">
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+    </row>
+    <row r="97" ht="20.1" customHeight="1">
+      <c r="A97" t="s" s="12">
         <v>184</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" t="s" s="13">
         <v>185</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-    </row>
-    <row r="98" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="7" t="s">
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+    </row>
+    <row r="98" ht="20.1" customHeight="1">
+      <c r="A98" t="s" s="12">
         <v>186</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" t="s" s="13">
         <v>187</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-    </row>
-    <row r="99" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="7" t="s">
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+    </row>
+    <row r="99" ht="20.1" customHeight="1">
+      <c r="A99" t="s" s="12">
         <v>188</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" t="s" s="13">
         <v>189</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-    </row>
-    <row r="100" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-    </row>
-    <row r="101" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="7" t="s">
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+    </row>
+    <row r="100" ht="20.1" customHeight="1">
+      <c r="A100" s="17"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+    </row>
+    <row r="101" ht="20.1" customHeight="1">
+      <c r="A101" t="s" s="12">
         <v>190</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" t="s" s="13">
         <v>191</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-    </row>
-    <row r="102" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="7" t="s">
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+    </row>
+    <row r="102" ht="20.1" customHeight="1">
+      <c r="A102" t="s" s="12">
         <v>192</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" t="s" s="13">
         <v>193</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-    </row>
-    <row r="103" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="7" t="s">
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+    </row>
+    <row r="103" ht="20.1" customHeight="1">
+      <c r="A103" t="s" s="12">
         <v>194</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" t="s" s="13">
         <v>195</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-    </row>
-    <row r="104" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="7" t="s">
+      <c r="C103" s="13"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+    </row>
+    <row r="104" ht="20.1" customHeight="1">
+      <c r="A104" t="s" s="12">
         <v>196</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" t="s" s="13">
         <v>197</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-    </row>
-    <row r="105" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="7" t="s">
+      <c r="C104" s="13"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+    </row>
+    <row r="105" ht="20.1" customHeight="1">
+      <c r="A105" t="s" s="12">
         <v>198</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" t="s" s="13">
         <v>199</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-    </row>
-    <row r="106" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="7" t="s">
+      <c r="C105" s="13"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+    </row>
+    <row r="106" ht="20.1" customHeight="1">
+      <c r="A106" t="s" s="12">
         <v>200</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" t="s" s="13">
         <v>201</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-    </row>
-    <row r="107" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="7" t="s">
+      <c r="C106" s="13"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+    </row>
+    <row r="107" ht="20.1" customHeight="1">
+      <c r="A107" t="s" s="12">
         <v>202</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" t="s" s="13">
         <v>203</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="7" t="s">
+      <c r="C107" s="13"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+    </row>
+    <row r="108" ht="20.1" customHeight="1">
+      <c r="A108" t="s" s="12">
         <v>204</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" t="s" s="13">
         <v>205</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-    </row>
-    <row r="109" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="7" t="s">
+      <c r="C108" s="13"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+    </row>
+    <row r="109" ht="20.1" customHeight="1">
+      <c r="A109" t="s" s="12">
         <v>206</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" t="s" s="13">
         <v>207</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-    </row>
-    <row r="110" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="7" t="s">
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+    </row>
+    <row r="110" ht="20.1" customHeight="1">
+      <c r="A110" t="s" s="12">
         <v>208</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" t="s" s="13">
         <v>209</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-    </row>
-    <row r="111" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="7" t="s">
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+    </row>
+    <row r="111" ht="20.1" customHeight="1">
+      <c r="A111" t="s" s="12">
         <v>210</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" t="s" s="13">
         <v>211</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="112" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="7" t="s">
+      <c r="C111" s="13"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+    </row>
+    <row r="112" ht="20.1" customHeight="1">
+      <c r="A112" t="s" s="12">
         <v>212</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" t="s" s="13">
         <v>213</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-    </row>
-    <row r="113" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="7" t="s">
+      <c r="C112" s="13"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+    </row>
+    <row r="113" ht="20.1" customHeight="1">
+      <c r="A113" t="s" s="12">
         <v>214</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" t="s" s="13">
         <v>215</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-    </row>
-    <row r="114" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="7" t="s">
+      <c r="C113" s="13"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+    </row>
+    <row r="114" ht="20.1" customHeight="1">
+      <c r="A114" t="s" s="12">
         <v>216</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" t="s" s="13">
         <v>217</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-    </row>
-    <row r="115" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="7" t="s">
+      <c r="C114" s="13"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+    </row>
+    <row r="115" ht="20.1" customHeight="1">
+      <c r="A115" t="s" s="12">
         <v>218</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" t="s" s="13">
         <v>219</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-    </row>
-    <row r="116" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="7" t="s">
+      <c r="C115" s="13"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+    </row>
+    <row r="116" ht="20.1" customHeight="1">
+      <c r="A116" t="s" s="12">
         <v>212</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" t="s" s="13">
         <v>220</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-    </row>
-    <row r="117" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="7" t="s">
+      <c r="C116" s="13"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+    </row>
+    <row r="117" ht="20.1" customHeight="1">
+      <c r="A117" t="s" s="12">
         <v>221</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" t="s" s="13">
         <v>222</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-    </row>
-    <row r="118" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="7" t="s">
+      <c r="C117" s="13"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+    </row>
+    <row r="118" ht="20.1" customHeight="1">
+      <c r="A118" t="s" s="12">
         <v>223</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" t="s" s="13">
         <v>224</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-    </row>
-    <row r="119" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="11"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-    </row>
-    <row r="120" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="7" t="s">
+      <c r="C118" s="13"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+    </row>
+    <row r="119" ht="20.1" customHeight="1">
+      <c r="A119" s="17"/>
+      <c r="B119" t="s" s="13">
         <v>225</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="C119" s="18"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+    </row>
+    <row r="120" ht="20.1" customHeight="1">
+      <c r="A120" s="17"/>
+      <c r="B120" t="s" s="13">
         <v>226</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-    </row>
-    <row r="121" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="7" t="s">
+      <c r="C120" s="18"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+    </row>
+    <row r="121" ht="20.1" customHeight="1">
+      <c r="A121" s="17"/>
+      <c r="B121" t="s" s="13">
         <v>227</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="C121" s="18"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+    </row>
+    <row r="122" ht="20.1" customHeight="1">
+      <c r="A122" s="17"/>
+      <c r="B122" t="s" s="13">
         <v>228</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-    </row>
-    <row r="122" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="7" t="s">
+      <c r="C122" s="18"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+    </row>
+    <row r="123" ht="20.1" customHeight="1">
+      <c r="A123" s="17"/>
+      <c r="B123" t="s" s="13">
         <v>229</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="C123" s="18"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+    </row>
+    <row r="124" ht="20.1" customHeight="1">
+      <c r="A124" s="17"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+    </row>
+    <row r="125" ht="20.1" customHeight="1">
+      <c r="A125" t="s" s="12">
         <v>230</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-    </row>
-    <row r="123" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="7" t="s">
+      <c r="B125" t="s" s="13">
         <v>231</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="C125" s="13"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+    </row>
+    <row r="126" ht="20.1" customHeight="1">
+      <c r="A126" t="s" s="12">
         <v>232</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-    </row>
-    <row r="124" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="7" t="s">
+      <c r="B126" t="s" s="13">
         <v>233</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="C126" s="13"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+    </row>
+    <row r="127" ht="20.1" customHeight="1">
+      <c r="A127" t="s" s="12">
         <v>234</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-    </row>
-    <row r="125" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="11"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-    </row>
-    <row r="126" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="7" t="s">
+      <c r="B127" t="s" s="13">
         <v>235</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="C127" s="13"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+    </row>
+    <row r="128" ht="20.1" customHeight="1">
+      <c r="A128" t="s" s="12">
         <v>236</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-    </row>
-    <row r="127" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="7" t="s">
+      <c r="B128" t="s" s="13">
         <v>237</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="C128" s="13"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+    </row>
+    <row r="129" ht="20.1" customHeight="1">
+      <c r="A129" t="s" s="12">
         <v>238</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-    </row>
-    <row r="128" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="7" t="s">
+      <c r="B129" t="s" s="13">
         <v>239</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="C129" s="13"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+    </row>
+    <row r="130" ht="20.1" customHeight="1">
+      <c r="A130" s="17"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
+    </row>
+    <row r="131" ht="20.1" customHeight="1">
+      <c r="A131" t="s" s="12">
         <v>240</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-    </row>
-    <row r="129" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="7" t="s">
+      <c r="B131" t="s" s="13">
         <v>241</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="C131" s="13"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+    </row>
+    <row r="132" ht="20.1" customHeight="1">
+      <c r="A132" t="s" s="12">
         <v>242</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-    </row>
-    <row r="130" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="7" t="s">
+      <c r="B132" t="s" s="13">
         <v>243</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="C132" s="13"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+    </row>
+    <row r="133" ht="20.1" customHeight="1">
+      <c r="A133" t="s" s="12">
         <v>244</v>
       </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-    </row>
-    <row r="131" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="14" t="s">
+      <c r="B133" t="s" s="13">
+        <v>245</v>
+      </c>
+      <c r="C133" s="13"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+    </row>
+    <row r="134" ht="20.1" customHeight="1">
+      <c r="A134" t="s" s="12">
+        <v>246</v>
+      </c>
+      <c r="B134" t="s" s="13">
+        <v>247</v>
+      </c>
+      <c r="C134" s="13"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+    </row>
+    <row r="135" ht="20.1" customHeight="1">
+      <c r="A135" t="s" s="12">
+        <v>248</v>
+      </c>
+      <c r="B135" t="s" s="13">
+        <v>249</v>
+      </c>
+      <c r="C135" s="13"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+    </row>
+    <row r="136" ht="20.1" customHeight="1">
+      <c r="A136" t="s" s="21">
+        <v>250</v>
+      </c>
+      <c r="B136" t="s" s="13">
+        <v>251</v>
+      </c>
+      <c r="C136" s="13"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+    </row>
+    <row r="137" ht="20.1" customHeight="1">
+      <c r="A137" t="s" s="21">
+        <v>252</v>
+      </c>
+      <c r="B137" t="s" s="13">
+        <v>253</v>
+      </c>
+      <c r="C137" s="13"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="16"/>
+    </row>
+    <row r="138" ht="20.1" customHeight="1">
+      <c r="A138" t="s" s="21">
+        <v>254</v>
+      </c>
+      <c r="B138" t="s" s="13">
+        <v>255</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="16"/>
+    </row>
+    <row r="139" ht="20.1" customHeight="1">
+      <c r="A139" t="s" s="21">
+        <v>256</v>
+      </c>
+      <c r="B139" t="s" s="13">
+        <v>257</v>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="16"/>
+    </row>
+    <row r="140" ht="20.1" customHeight="1">
+      <c r="A140" t="s" s="21">
+        <v>258</v>
+      </c>
+      <c r="B140" t="s" s="13">
+        <v>259</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="16"/>
+    </row>
+    <row r="141" ht="20.1" customHeight="1">
+      <c r="A141" t="s" s="21">
+        <v>258</v>
+      </c>
+      <c r="B141" t="s" s="13">
+        <v>260</v>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
+    </row>
+    <row r="142" ht="20.1" customHeight="1">
+      <c r="A142" t="s" s="21">
+        <v>261</v>
+      </c>
+      <c r="B142" t="s" s="13">
+        <v>262</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
+    </row>
+    <row r="143" ht="20.1" customHeight="1">
+      <c r="A143" t="s" s="21">
+        <v>263</v>
+      </c>
+      <c r="B143" t="s" s="13">
+        <v>264</v>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
+    </row>
+    <row r="144" ht="20.1" customHeight="1">
+      <c r="A144" t="s" s="21">
+        <v>265</v>
+      </c>
+      <c r="B144" t="s" s="13">
+        <v>266</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
+    </row>
+    <row r="145" ht="20.1" customHeight="1">
+      <c r="A145" t="s" s="21">
+        <v>267</v>
+      </c>
+      <c r="B145" t="s" s="13">
+        <v>268</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
+    </row>
+    <row r="146" ht="20.1" customHeight="1">
+      <c r="A146" t="s" s="21">
+        <v>269</v>
+      </c>
+      <c r="B146" t="s" s="13">
+        <v>270</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
+    </row>
+    <row r="147" ht="20.1" customHeight="1">
+      <c r="A147" t="s" s="21">
+        <v>271</v>
+      </c>
+      <c r="B147" t="s" s="13">
+        <v>272</v>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="16"/>
+    </row>
+    <row r="148" ht="20.1" customHeight="1">
+      <c r="A148" t="s" s="21">
+        <v>273</v>
+      </c>
+      <c r="B148" t="s" s="13">
+        <v>274</v>
+      </c>
+      <c r="C148" s="13"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="16"/>
+    </row>
+    <row r="149" ht="20.1" customHeight="1">
+      <c r="A149" t="s" s="21">
+        <v>275</v>
+      </c>
+      <c r="B149" t="s" s="13">
+        <v>276</v>
+      </c>
+      <c r="C149" s="13"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
+    </row>
+    <row r="150" ht="20.1" customHeight="1">
+      <c r="A150" t="s" s="21">
+        <v>277</v>
+      </c>
+      <c r="B150" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="C150" s="13"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="16"/>
+    </row>
+    <row r="151" ht="20.1" customHeight="1">
+      <c r="A151" t="s" s="21">
+        <v>279</v>
+      </c>
+      <c r="B151" t="s" s="13">
+        <v>280</v>
+      </c>
+      <c r="C151" s="13"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
+      <c r="I151" s="16"/>
+    </row>
+    <row r="152" ht="20.1" customHeight="1">
+      <c r="A152" t="s" s="21">
+        <v>281</v>
+      </c>
+      <c r="B152" t="s" s="13">
+        <v>282</v>
+      </c>
+      <c r="C152" s="13"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
+      <c r="I152" s="16"/>
+    </row>
+    <row r="153" ht="20.1" customHeight="1">
+      <c r="A153" t="s" s="21">
+        <v>283</v>
+      </c>
+      <c r="B153" t="s" s="13">
+        <v>284</v>
+      </c>
+      <c r="C153" s="13"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
+    </row>
+    <row r="154" ht="20.1" customHeight="1">
+      <c r="A154" t="s" s="21">
+        <v>285</v>
+      </c>
+      <c r="B154" t="s" s="13">
+        <v>286</v>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
+    </row>
+    <row r="155" ht="20.1" customHeight="1">
+      <c r="A155" t="s" s="21">
+        <v>287</v>
+      </c>
+      <c r="B155" t="s" s="13">
+        <v>288</v>
+      </c>
+      <c r="C155" s="13"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
+    </row>
+    <row r="156" ht="20.1" customHeight="1">
+      <c r="A156" t="s" s="21">
+        <v>289</v>
+      </c>
+      <c r="B156" t="s" s="13">
+        <v>290</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
+    </row>
+    <row r="157" ht="20.1" customHeight="1">
+      <c r="A157" t="s" s="21">
+        <v>291</v>
+      </c>
+      <c r="B157" t="s" s="13">
+        <v>292</v>
+      </c>
+      <c r="C157" s="13"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
+      <c r="I157" s="16"/>
+    </row>
+    <row r="158" ht="20.1" customHeight="1">
+      <c r="A158" t="s" s="21">
+        <v>293</v>
+      </c>
+      <c r="B158" t="s" s="13">
+        <v>294</v>
+      </c>
+      <c r="C158" s="13"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="16"/>
+    </row>
+    <row r="159" ht="20.1" customHeight="1">
+      <c r="A159" t="s" s="21">
+        <v>295</v>
+      </c>
+      <c r="B159" t="s" s="13">
+        <v>296</v>
+      </c>
+      <c r="C159" s="13"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
+      <c r="I159" s="16"/>
+    </row>
+    <row r="160" ht="20.1" customHeight="1">
+      <c r="A160" s="22"/>
+      <c r="B160" t="s" s="13">
+        <v>297</v>
+      </c>
+      <c r="C160" s="13"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="16"/>
+      <c r="I160" s="16"/>
+    </row>
+    <row r="161" ht="20.1" customHeight="1">
+      <c r="A161" s="22"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="16"/>
+      <c r="I161" s="16"/>
+    </row>
+    <row r="162" ht="20.1" customHeight="1">
+      <c r="A162" t="s" s="21">
+        <v>298</v>
+      </c>
+      <c r="B162" t="s" s="13">
+        <v>299</v>
+      </c>
+      <c r="C162" s="13"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="16"/>
+      <c r="I162" s="16"/>
+    </row>
+    <row r="163" ht="20.1" customHeight="1">
+      <c r="A163" t="s" s="21">
+        <v>300</v>
+      </c>
+      <c r="B163" t="s" s="13">
+        <v>301</v>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="16"/>
+    </row>
+    <row r="164" ht="20.1" customHeight="1">
+      <c r="A164" t="s" s="21">
+        <v>302</v>
+      </c>
+      <c r="B164" t="s" s="13">
+        <v>303</v>
+      </c>
+      <c r="C164" s="13"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="16"/>
+      <c r="I164" s="16"/>
+    </row>
+    <row r="165" ht="20.1" customHeight="1">
+      <c r="A165" t="s" s="21">
+        <v>304</v>
+      </c>
+      <c r="B165" t="s" s="13">
         <v>305</v>
       </c>
-      <c r="B131" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-    </row>
-    <row r="132" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="14" t="s">
+      <c r="C165" s="13"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="16"/>
+    </row>
+    <row r="166" ht="20.1" customHeight="1">
+      <c r="A166" t="s" s="21">
         <v>306</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-    </row>
-    <row r="133" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="14" t="s">
+      <c r="B166" t="s" s="13">
         <v>307</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-    </row>
-    <row r="134" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="14" t="s">
+      <c r="C166" s="13"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="16"/>
+      <c r="I166" s="16"/>
+    </row>
+    <row r="167" ht="20.1" customHeight="1">
+      <c r="A167" t="s" s="21">
         <v>308</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-    </row>
-    <row r="135" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="14" t="s">
+      <c r="B167" t="s" s="13">
         <v>309</v>
       </c>
-      <c r="B135" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-    </row>
-    <row r="136" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-    </row>
-    <row r="137" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="14" t="s">
+      <c r="C167" s="13"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
+      <c r="I167" s="16"/>
+    </row>
+    <row r="168" ht="20.1" customHeight="1">
+      <c r="A168" t="s" s="21">
         <v>310</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-    </row>
-    <row r="138" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="14" t="s">
+      <c r="B168" t="s" s="13">
         <v>311</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-    </row>
-    <row r="139" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="14" t="s">
+      <c r="C168" s="13"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
+      <c r="H168" s="16"/>
+      <c r="I168" s="16"/>
+    </row>
+    <row r="169" ht="20.1" customHeight="1">
+      <c r="A169" t="s" s="21">
         <v>312</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-    </row>
-    <row r="140" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="14" t="s">
+      <c r="B169" t="s" s="13">
+        <v>313</v>
+      </c>
+      <c r="C169" s="13"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="16"/>
+      <c r="H169" s="16"/>
+      <c r="I169" s="16"/>
+    </row>
+    <row r="170" ht="20.1" customHeight="1">
+      <c r="A170" t="s" s="21">
+        <v>314</v>
+      </c>
+      <c r="B170" t="s" s="13">
+        <v>315</v>
+      </c>
+      <c r="C170" s="13"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="16"/>
+      <c r="H170" s="16"/>
+      <c r="I170" s="16"/>
+    </row>
+    <row r="171" ht="20.1" customHeight="1">
+      <c r="A171" t="s" s="21">
+        <v>316</v>
+      </c>
+      <c r="B171" t="s" s="13">
+        <v>317</v>
+      </c>
+      <c r="C171" s="13"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="16"/>
+      <c r="I171" s="16"/>
+    </row>
+    <row r="172" ht="20.1" customHeight="1">
+      <c r="A172" t="s" s="21">
+        <v>318</v>
+      </c>
+      <c r="B172" t="s" s="13">
+        <v>319</v>
+      </c>
+      <c r="C172" s="13"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="16"/>
+      <c r="I172" s="16"/>
+    </row>
+    <row r="173" ht="20.1" customHeight="1">
+      <c r="A173" t="s" s="21">
+        <v>320</v>
+      </c>
+      <c r="B173" t="s" s="13">
+        <v>321</v>
+      </c>
+      <c r="C173" s="13"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16"/>
+      <c r="G173" s="16"/>
+      <c r="H173" s="16"/>
+      <c r="I173" s="16"/>
+    </row>
+    <row r="174" ht="20.1" customHeight="1">
+      <c r="A174" t="s" s="21">
+        <v>322</v>
+      </c>
+      <c r="B174" t="s" s="13">
+        <v>323</v>
+      </c>
+      <c r="C174" s="13"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="16"/>
+      <c r="H174" s="16"/>
+      <c r="I174" s="16"/>
+    </row>
+    <row r="175" ht="20.1" customHeight="1">
+      <c r="A175" t="s" s="21">
+        <v>324</v>
+      </c>
+      <c r="B175" t="s" s="13">
+        <v>325</v>
+      </c>
+      <c r="C175" s="13"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="16"/>
+      <c r="H175" s="16"/>
+      <c r="I175" s="16"/>
+    </row>
+    <row r="176" ht="20.1" customHeight="1">
+      <c r="A176" t="s" s="21">
+        <v>326</v>
+      </c>
+      <c r="B176" t="s" s="13">
+        <v>327</v>
+      </c>
+      <c r="C176" s="13"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="16"/>
+      <c r="I176" s="16"/>
+    </row>
+    <row r="177" ht="20.1" customHeight="1">
+      <c r="A177" t="s" s="21">
+        <v>328</v>
+      </c>
+      <c r="B177" t="s" s="13">
+        <v>329</v>
+      </c>
+      <c r="C177" s="13"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="16"/>
+      <c r="G177" s="16"/>
+      <c r="H177" s="16"/>
+      <c r="I177" s="16"/>
+    </row>
+    <row r="178" ht="20.1" customHeight="1">
+      <c r="A178" t="s" s="21">
+        <v>330</v>
+      </c>
+      <c r="B178" t="s" s="13">
+        <v>331</v>
+      </c>
+      <c r="C178" s="13"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="16"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="16"/>
+      <c r="I178" s="16"/>
+    </row>
+    <row r="179" ht="20.1" customHeight="1">
+      <c r="A179" t="s" s="21">
+        <v>332</v>
+      </c>
+      <c r="B179" t="s" s="13">
+        <v>333</v>
+      </c>
+      <c r="C179" s="13"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="16"/>
+      <c r="G179" s="16"/>
+      <c r="H179" s="16"/>
+      <c r="I179" s="16"/>
+    </row>
+    <row r="180" ht="20.1" customHeight="1">
+      <c r="A180" t="s" s="21">
+        <v>334</v>
+      </c>
+      <c r="B180" t="s" s="13">
+        <v>335</v>
+      </c>
+      <c r="C180" s="13"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="16"/>
+      <c r="I180" s="16"/>
+    </row>
+    <row r="181" ht="20.1" customHeight="1">
+      <c r="A181" t="s" s="21">
+        <v>336</v>
+      </c>
+      <c r="B181" t="s" s="13">
+        <v>337</v>
+      </c>
+      <c r="C181" s="13"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="16"/>
+      <c r="G181" s="16"/>
+      <c r="H181" s="16"/>
+      <c r="I181" s="16"/>
+    </row>
+    <row r="182" ht="20.1" customHeight="1">
+      <c r="A182" t="s" s="21">
+        <v>338</v>
+      </c>
+      <c r="B182" t="s" s="13">
+        <v>339</v>
+      </c>
+      <c r="C182" s="13"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="16"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="16"/>
+      <c r="I182" s="16"/>
+    </row>
+    <row r="183" ht="20.1" customHeight="1">
+      <c r="A183" t="s" s="21">
+        <v>340</v>
+      </c>
+      <c r="B183" t="s" s="13">
+        <v>341</v>
+      </c>
+      <c r="C183" s="13"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="16"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="16"/>
+    </row>
+    <row r="184" ht="20.1" customHeight="1">
+      <c r="A184" t="s" s="21">
+        <v>342</v>
+      </c>
+      <c r="B184" t="s" s="13">
+        <v>343</v>
+      </c>
+      <c r="C184" s="13"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="16"/>
+      <c r="G184" s="16"/>
+      <c r="H184" s="16"/>
+      <c r="I184" s="16"/>
+    </row>
+    <row r="185" ht="20.1" customHeight="1">
+      <c r="A185" t="s" s="21">
+        <v>344</v>
+      </c>
+      <c r="B185" t="s" s="13">
+        <v>345</v>
+      </c>
+      <c r="C185" s="13"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="16"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="16"/>
+      <c r="I185" s="16"/>
+    </row>
+    <row r="186" ht="20.1" customHeight="1">
+      <c r="A186" s="22"/>
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="16"/>
+      <c r="I186" s="16"/>
+    </row>
+    <row r="187" ht="20.1" customHeight="1">
+      <c r="A187" t="s" s="21">
+        <v>346</v>
+      </c>
+      <c r="B187" t="s" s="13">
+        <v>347</v>
+      </c>
+      <c r="C187" s="13"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="16"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="16"/>
+      <c r="I187" s="16"/>
+    </row>
+    <row r="188" ht="20.1" customHeight="1">
+      <c r="A188" t="s" s="21">
+        <v>348</v>
+      </c>
+      <c r="B188" t="s" s="13">
+        <v>349</v>
+      </c>
+      <c r="C188" s="13"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="16"/>
+      <c r="G188" s="16"/>
+      <c r="H188" s="16"/>
+      <c r="I188" s="16"/>
+    </row>
+    <row r="189" ht="20.1" customHeight="1">
+      <c r="A189" t="s" s="21">
+        <v>350</v>
+      </c>
+      <c r="B189" t="s" s="13">
+        <v>351</v>
+      </c>
+      <c r="C189" s="13"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="16"/>
+      <c r="G189" s="16"/>
+      <c r="H189" s="16"/>
+      <c r="I189" s="16"/>
+    </row>
+    <row r="190" ht="20.1" customHeight="1">
+      <c r="A190" t="s" s="21">
+        <v>352</v>
+      </c>
+      <c r="B190" t="s" s="13">
+        <v>353</v>
+      </c>
+      <c r="C190" s="13"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="16"/>
+      <c r="G190" s="16"/>
+      <c r="H190" s="16"/>
+      <c r="I190" s="16"/>
+    </row>
+    <row r="191" ht="20.1" customHeight="1">
+      <c r="A191" t="s" s="21">
+        <v>354</v>
+      </c>
+      <c r="B191" t="s" s="13">
+        <v>355</v>
+      </c>
+      <c r="C191" s="13"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="16"/>
+      <c r="G191" s="16"/>
+      <c r="H191" s="16"/>
+      <c r="I191" s="16"/>
+    </row>
+    <row r="192" ht="20.1" customHeight="1">
+      <c r="A192" t="s" s="21">
+        <v>356</v>
+      </c>
+      <c r="B192" t="s" s="13">
+        <v>357</v>
+      </c>
+      <c r="C192" s="13"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="16"/>
+      <c r="H192" s="16"/>
+      <c r="I192" s="16"/>
+    </row>
+    <row r="193" ht="20.1" customHeight="1">
+      <c r="A193" t="s" s="21">
+        <v>358</v>
+      </c>
+      <c r="B193" t="s" s="13">
         <v>359</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-    </row>
-    <row r="141" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-    </row>
-    <row r="142" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A142" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-    </row>
-    <row r="143" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-    </row>
-    <row r="144" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A144" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-    </row>
-    <row r="145" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-    </row>
-    <row r="146" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="14" t="s">
+      <c r="C193" s="13"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="16"/>
+      <c r="G193" s="16"/>
+      <c r="H193" s="16"/>
+      <c r="I193" s="16"/>
+    </row>
+    <row r="194" ht="20.1" customHeight="1">
+      <c r="A194" t="s" s="21">
+        <v>360</v>
+      </c>
+      <c r="B194" t="s" s="13">
+        <v>361</v>
+      </c>
+      <c r="C194" s="13"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="16"/>
+      <c r="G194" s="16"/>
+      <c r="H194" s="16"/>
+      <c r="I194" s="16"/>
+    </row>
+    <row r="195" ht="20.1" customHeight="1">
+      <c r="A195" t="s" s="21">
         <v>362</v>
       </c>
-      <c r="B146" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-    </row>
-    <row r="147" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A147" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-    </row>
-    <row r="148" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A148" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-    </row>
-    <row r="149" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-    </row>
-    <row r="150" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-    </row>
-    <row r="151" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-    </row>
-    <row r="152" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-    </row>
-    <row r="153" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-    </row>
-    <row r="154" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-    </row>
-    <row r="155" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="14"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-    </row>
-    <row r="156" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-    </row>
-    <row r="157" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-    </row>
-    <row r="158" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-    </row>
-    <row r="159" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-    </row>
-    <row r="160" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-    </row>
-    <row r="161" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-    </row>
-    <row r="162" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-    </row>
-    <row r="163" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-    </row>
-    <row r="164" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-    </row>
-    <row r="165" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
-    </row>
-    <row r="166" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
-    </row>
-    <row r="167" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A167" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
-    </row>
-    <row r="168" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10"/>
-      <c r="G168" s="10"/>
-    </row>
-    <row r="169" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
-    </row>
-    <row r="170" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A170" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
-    </row>
-    <row r="171" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A171" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
-    </row>
-    <row r="172" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A172" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
-    </row>
-    <row r="173" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
-    </row>
-    <row r="174" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
-    </row>
-    <row r="175" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
-    </row>
-    <row r="176" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
-    </row>
-    <row r="177" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A177" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
-    </row>
-    <row r="178" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A178" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
-    </row>
-    <row r="179" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A179" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C179" s="10"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
-    </row>
-    <row r="180" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A180" s="14"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
-    </row>
-    <row r="181" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A181" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
-    </row>
-    <row r="182" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A182" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C182" s="10"/>
-      <c r="D182" s="10"/>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
-    </row>
-    <row r="183" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A183" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C183" s="10"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10"/>
-    </row>
-    <row r="184" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A184" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C184" s="10"/>
-      <c r="D184" s="10"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
-    </row>
-    <row r="185" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A185" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C185" s="10"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
-    </row>
-    <row r="186" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A186" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="10"/>
-      <c r="F186" s="10"/>
-      <c r="G186" s="10"/>
-    </row>
-    <row r="187" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A187" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C187" s="10"/>
-      <c r="D187" s="10"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="10"/>
-      <c r="G187" s="10"/>
-    </row>
-    <row r="188" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A188" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
-    </row>
-    <row r="189" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A189" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
-    </row>
-    <row r="190" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A190" s="14"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="10"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
-    </row>
-    <row r="191" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A191" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
-      <c r="G191" s="10"/>
-    </row>
-    <row r="192" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A192" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
-    </row>
-    <row r="193" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A193" s="14" t="s">
+      <c r="B195" t="s" s="13">
         <v>363</v>
       </c>
-      <c r="B193" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="16"/>
+      <c r="G195" s="16"/>
+      <c r="H195" s="16"/>
+      <c r="I195" s="16"/>
+    </row>
+    <row r="196" ht="20.1" customHeight="1">
+      <c r="A196" s="22"/>
+      <c r="B196" s="18"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="19"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="16"/>
+      <c r="G196" s="16"/>
+      <c r="H196" s="16"/>
+      <c r="I196" s="16"/>
+    </row>
+    <row r="197" ht="20.1" customHeight="1">
+      <c r="A197" t="s" s="21">
+        <v>364</v>
+      </c>
+      <c r="B197" t="s" s="13">
+        <v>365</v>
+      </c>
+      <c r="C197" s="13"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="16"/>
+      <c r="G197" s="16"/>
+      <c r="H197" s="16"/>
+      <c r="I197" s="16"/>
+    </row>
+    <row r="198" ht="20.1" customHeight="1">
+      <c r="A198" t="s" s="21">
+        <v>366</v>
+      </c>
+      <c r="B198" t="s" s="13">
+        <v>367</v>
+      </c>
+      <c r="C198" s="13"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="16"/>
+      <c r="F198" s="16"/>
+      <c r="G198" s="16"/>
+      <c r="H198" s="16"/>
+      <c r="I198" s="16"/>
+    </row>
+    <row r="199" ht="20.1" customHeight="1">
+      <c r="A199" t="s" s="21">
+        <v>368</v>
+      </c>
+      <c r="B199" t="s" s="13">
+        <v>369</v>
+      </c>
+      <c r="C199" s="13"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="16"/>
+      <c r="F199" s="16"/>
+      <c r="G199" s="16"/>
+      <c r="H199" s="16"/>
+      <c r="I199" s="16"/>
+    </row>
+    <row r="200" ht="20.1" customHeight="1">
+      <c r="A200" s="22"/>
+      <c r="B200" s="13"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="16"/>
+      <c r="G200" s="16"/>
+      <c r="H200" s="16"/>
+      <c r="I200" s="16"/>
+    </row>
+    <row r="201" ht="20.1" customHeight="1">
+      <c r="A201" s="22"/>
+      <c r="B201" t="s" s="13">
+        <v>370</v>
+      </c>
+      <c r="C201" s="13"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="16"/>
+      <c r="F201" s="16"/>
+      <c r="G201" s="16"/>
+      <c r="H201" s="16"/>
+      <c r="I201" s="16"/>
+    </row>
+    <row r="202" ht="20.1" customHeight="1">
+      <c r="A202" s="22"/>
+      <c r="B202" t="s" s="13">
+        <v>371</v>
+      </c>
+      <c r="C202" s="13"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="16"/>
+      <c r="F202" s="16"/>
+      <c r="G202" s="16"/>
+      <c r="H202" s="16"/>
+      <c r="I202" s="16"/>
+    </row>
+    <row r="203" ht="20.1" customHeight="1">
+      <c r="A203" s="22"/>
+      <c r="B203" t="s" s="13">
+        <v>372</v>
+      </c>
+      <c r="C203" s="13"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="16"/>
+      <c r="F203" s="16"/>
+      <c r="G203" s="16"/>
+      <c r="H203" s="16"/>
+      <c r="I203" s="16"/>
+    </row>
+    <row r="204" ht="20.1" customHeight="1">
+      <c r="A204" s="22"/>
+      <c r="B204" t="s" s="13">
+        <v>373</v>
+      </c>
+      <c r="C204" s="13"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="16"/>
+      <c r="F204" s="16"/>
+      <c r="G204" s="16"/>
+      <c r="H204" s="16"/>
+      <c r="I204" s="16"/>
+    </row>
+    <row r="205" ht="20.1" customHeight="1">
+      <c r="A205" s="22"/>
+      <c r="B205" t="s" s="13">
+        <v>374</v>
+      </c>
+      <c r="C205" s="13"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="16"/>
+      <c r="F205" s="16"/>
+      <c r="G205" s="16"/>
+      <c r="H205" s="16"/>
+      <c r="I205" s="16"/>
+    </row>
+    <row r="206" ht="20.1" customHeight="1">
+      <c r="A206" s="22"/>
+      <c r="B206" t="s" s="13">
+        <v>375</v>
+      </c>
+      <c r="C206" s="13"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="16"/>
+      <c r="F206" s="16"/>
+      <c r="G206" s="16"/>
+      <c r="H206" s="16"/>
+      <c r="I206" s="16"/>
+    </row>
+    <row r="207" ht="20.1" customHeight="1">
+      <c r="A207" s="22"/>
+      <c r="B207" t="s" s="13">
+        <v>376</v>
+      </c>
+      <c r="C207" s="13"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="16"/>
+      <c r="F207" s="16"/>
+      <c r="G207" s="16"/>
+      <c r="H207" s="16"/>
+      <c r="I207" s="16"/>
+    </row>
+    <row r="208" ht="20.1" customHeight="1">
+      <c r="A208" s="22"/>
+      <c r="B208" t="s" s="13">
+        <v>377</v>
+      </c>
+      <c r="C208" s="13"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="16"/>
+      <c r="F208" s="16"/>
+      <c r="G208" s="16"/>
+      <c r="H208" s="16"/>
+      <c r="I208" s="16"/>
+    </row>
+    <row r="209" ht="20.1" customHeight="1">
+      <c r="A209" s="22"/>
+      <c r="B209" t="s" s="13">
+        <v>378</v>
+      </c>
+      <c r="C209" s="13"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="16"/>
+      <c r="F209" s="16"/>
+      <c r="G209" s="16"/>
+      <c r="H209" s="16"/>
+      <c r="I209" s="16"/>
+    </row>
+    <row r="210" ht="20.1" customHeight="1">
+      <c r="A210" s="22"/>
+      <c r="B210" t="s" s="13">
+        <v>379</v>
+      </c>
+      <c r="C210" s="13"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="16"/>
+      <c r="F210" s="16"/>
+      <c r="G210" s="16"/>
+      <c r="H210" s="16"/>
+      <c r="I210" s="16"/>
+    </row>
+    <row r="211" ht="20.1" customHeight="1">
+      <c r="A211" s="22"/>
+      <c r="B211" t="s" s="13">
+        <v>380</v>
+      </c>
+      <c r="C211" s="13"/>
+      <c r="D211" s="14"/>
+      <c r="E211" s="16"/>
+      <c r="F211" s="16"/>
+      <c r="G211" s="16"/>
+      <c r="H211" s="16"/>
+      <c r="I211" s="16"/>
+    </row>
+    <row r="212" ht="20.1" customHeight="1">
+      <c r="A212" s="22"/>
+      <c r="B212" t="s" s="13">
+        <v>381</v>
+      </c>
+      <c r="C212" s="13"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="16"/>
+      <c r="F212" s="16"/>
+      <c r="G212" s="16"/>
+      <c r="H212" s="16"/>
+      <c r="I212" s="16"/>
+    </row>
+    <row r="213" ht="20.1" customHeight="1">
+      <c r="A213" s="22"/>
+      <c r="B213" t="s" s="13">
+        <v>382</v>
+      </c>
+      <c r="C213" s="13"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="16"/>
+      <c r="F213" s="16"/>
+      <c r="G213" s="16"/>
+      <c r="H213" s="16"/>
+      <c r="I213" s="16"/>
+    </row>
+    <row r="214" ht="20.1" customHeight="1">
+      <c r="A214" s="22"/>
+      <c r="B214" t="s" s="13">
+        <v>383</v>
+      </c>
+      <c r="C214" s="13"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="16"/>
+      <c r="F214" s="16"/>
+      <c r="G214" s="16"/>
+      <c r="H214" s="16"/>
+      <c r="I214" s="16"/>
+    </row>
+    <row r="215" ht="20.1" customHeight="1">
+      <c r="A215" s="22"/>
+      <c r="B215" t="s" s="13">
+        <v>384</v>
+      </c>
+      <c r="C215" s="13"/>
+      <c r="D215" s="14"/>
+      <c r="E215" s="16"/>
+      <c r="F215" s="16"/>
+      <c r="G215" s="16"/>
+      <c r="H215" s="16"/>
+      <c r="I215" s="16"/>
+    </row>
+    <row r="216" ht="20.1" customHeight="1">
+      <c r="A216" s="22"/>
+      <c r="B216" s="13"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="16"/>
+      <c r="F216" s="16"/>
+      <c r="G216" s="16"/>
+      <c r="H216" s="16"/>
+      <c r="I216" s="16"/>
+    </row>
+    <row r="217" ht="20.1" customHeight="1">
+      <c r="A217" s="22"/>
+      <c r="B217" t="s" s="13">
+        <v>385</v>
+      </c>
+      <c r="C217" s="13"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="16"/>
+      <c r="F217" s="16"/>
+      <c r="G217" s="16"/>
+      <c r="H217" s="16"/>
+      <c r="I217" s="16"/>
+    </row>
+    <row r="218" ht="20.1" customHeight="1">
+      <c r="A218" s="22"/>
+      <c r="B218" t="s" s="13">
+        <v>386</v>
+      </c>
+      <c r="C218" s="13"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="16"/>
+      <c r="F218" s="16"/>
+      <c r="G218" s="16"/>
+      <c r="H218" s="16"/>
+      <c r="I218" s="16"/>
+    </row>
+    <row r="219" ht="20.1" customHeight="1">
+      <c r="A219" s="22"/>
+      <c r="B219" t="s" s="13">
+        <v>387</v>
+      </c>
+      <c r="C219" s="13"/>
+      <c r="D219" s="14"/>
+      <c r="E219" s="16"/>
+      <c r="F219" s="16"/>
+      <c r="G219" s="16"/>
+      <c r="H219" s="16"/>
+      <c r="I219" s="16"/>
+    </row>
+    <row r="220" ht="20.1" customHeight="1">
+      <c r="A220" s="22"/>
+      <c r="B220" t="s" s="13">
+        <v>388</v>
+      </c>
+      <c r="C220" s="13"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="16"/>
+      <c r="F220" s="16"/>
+      <c r="G220" s="16"/>
+      <c r="H220" s="16"/>
+      <c r="I220" s="16"/>
+    </row>
+    <row r="221" ht="20.1" customHeight="1">
+      <c r="A221" s="22"/>
+      <c r="B221" t="s" s="13">
+        <v>389</v>
+      </c>
+      <c r="C221" s="13"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="16"/>
+      <c r="F221" s="16"/>
+      <c r="G221" s="16"/>
+      <c r="H221" s="16"/>
+      <c r="I221" s="16"/>
+    </row>
+    <row r="222" ht="20.1" customHeight="1">
+      <c r="A222" s="22"/>
+      <c r="B222" t="s" s="13">
+        <v>390</v>
+      </c>
+      <c r="C222" s="13"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="16"/>
+      <c r="G222" s="16"/>
+      <c r="H222" s="16"/>
+      <c r="I222" s="16"/>
+    </row>
+    <row r="223" ht="20.1" customHeight="1">
+      <c r="A223" s="22"/>
+      <c r="B223" t="s" s="13">
+        <v>391</v>
+      </c>
+      <c r="C223" s="13"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="16"/>
+      <c r="F223" s="16"/>
+      <c r="G223" s="16"/>
+      <c r="H223" s="16"/>
+      <c r="I223" s="16"/>
+    </row>
+    <row r="224" ht="20.1" customHeight="1">
+      <c r="A224" s="22"/>
+      <c r="B224" t="s" s="13">
+        <v>392</v>
+      </c>
+      <c r="C224" s="13"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="16"/>
+      <c r="F224" s="16"/>
+      <c r="G224" s="16"/>
+      <c r="H224" s="16"/>
+      <c r="I224" s="16"/>
+    </row>
+    <row r="225" ht="20.1" customHeight="1">
+      <c r="A225" s="22"/>
+      <c r="B225" t="s" s="13">
+        <v>393</v>
+      </c>
+      <c r="C225" s="13"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="16"/>
+      <c r="F225" s="16"/>
+      <c r="G225" s="16"/>
+      <c r="H225" s="16"/>
+      <c r="I225" s="16"/>
+    </row>
+    <row r="226" ht="20.1" customHeight="1">
+      <c r="A226" s="22"/>
+      <c r="B226" t="s" s="13">
+        <v>394</v>
+      </c>
+      <c r="C226" s="13"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="16"/>
+      <c r="F226" s="16"/>
+      <c r="G226" s="16"/>
+      <c r="H226" s="16"/>
+      <c r="I226" s="16"/>
+    </row>
+    <row r="227" ht="20.1" customHeight="1">
+      <c r="A227" s="22"/>
+      <c r="B227" t="s" s="13">
+        <v>395</v>
+      </c>
+      <c r="C227" s="13"/>
+      <c r="D227" s="14"/>
+      <c r="E227" s="16"/>
+      <c r="F227" s="16"/>
+      <c r="G227" s="16"/>
+      <c r="H227" s="16"/>
+      <c r="I227" s="16"/>
+    </row>
+    <row r="228" ht="20.1" customHeight="1">
+      <c r="A228" s="22"/>
+      <c r="B228" t="s" s="13">
+        <v>396</v>
+      </c>
+      <c r="C228" s="13"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="16"/>
+      <c r="F228" s="16"/>
+      <c r="G228" s="16"/>
+      <c r="H228" s="16"/>
+      <c r="I228" s="16"/>
+    </row>
+    <row r="229" ht="20.1" customHeight="1">
+      <c r="A229" s="22"/>
+      <c r="B229" t="s" s="13">
+        <v>397</v>
+      </c>
+      <c r="C229" s="13"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="16"/>
+      <c r="F229" s="16"/>
+      <c r="G229" s="16"/>
+      <c r="H229" s="16"/>
+      <c r="I229" s="16"/>
+    </row>
+    <row r="230" ht="20.1" customHeight="1">
+      <c r="A230" s="22"/>
+      <c r="B230" t="s" s="13">
+        <v>398</v>
+      </c>
+      <c r="C230" s="13"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="16"/>
+      <c r="F230" s="16"/>
+      <c r="G230" s="16"/>
+      <c r="H230" s="16"/>
+      <c r="I230" s="16"/>
+    </row>
+    <row r="231" ht="20.1" customHeight="1">
+      <c r="A231" s="22"/>
+      <c r="B231" t="s" s="13">
+        <v>399</v>
+      </c>
+      <c r="C231" s="13"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="16"/>
+      <c r="F231" s="16"/>
+      <c r="G231" s="16"/>
+      <c r="H231" s="16"/>
+      <c r="I231" s="16"/>
+    </row>
+    <row r="232" ht="20.1" customHeight="1">
+      <c r="A232" s="22"/>
+      <c r="B232" t="s" s="13">
+        <v>400</v>
+      </c>
+      <c r="C232" s="13"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="16"/>
+      <c r="F232" s="16"/>
+      <c r="G232" s="16"/>
+      <c r="H232" s="16"/>
+      <c r="I232" s="16"/>
+    </row>
+    <row r="233" ht="20.1" customHeight="1">
+      <c r="A233" s="22"/>
+      <c r="B233" t="s" s="13">
+        <v>401</v>
+      </c>
+      <c r="C233" s="13"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="16"/>
+      <c r="F233" s="16"/>
+      <c r="G233" s="16"/>
+      <c r="H233" s="16"/>
+      <c r="I233" s="16"/>
+    </row>
+    <row r="234" ht="20.1" customHeight="1">
+      <c r="A234" s="22"/>
+      <c r="B234" t="s" s="13">
+        <v>402</v>
+      </c>
+      <c r="C234" s="13"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="16"/>
+      <c r="F234" s="16"/>
+      <c r="G234" s="16"/>
+      <c r="H234" s="16"/>
+      <c r="I234" s="16"/>
+    </row>
+    <row r="235" ht="20.1" customHeight="1">
+      <c r="A235" s="22"/>
+      <c r="B235" t="s" s="13">
+        <v>403</v>
+      </c>
+      <c r="C235" s="13"/>
+      <c r="D235" s="14"/>
+      <c r="E235" s="16"/>
+      <c r="F235" s="16"/>
+      <c r="G235" s="16"/>
+      <c r="H235" s="16"/>
+      <c r="I235" s="16"/>
+    </row>
+    <row r="236" ht="20.1" customHeight="1">
+      <c r="A236" s="22"/>
+      <c r="B236" t="s" s="13">
+        <v>404</v>
+      </c>
+      <c r="C236" s="13"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="16"/>
+      <c r="F236" s="16"/>
+      <c r="G236" s="16"/>
+      <c r="H236" s="16"/>
+      <c r="I236" s="16"/>
+    </row>
+    <row r="237" ht="20.1" customHeight="1">
+      <c r="A237" s="22"/>
+      <c r="B237" t="s" s="13">
+        <v>405</v>
+      </c>
+      <c r="C237" s="13"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="16"/>
+      <c r="F237" s="16"/>
+      <c r="G237" s="16"/>
+      <c r="H237" s="16"/>
+      <c r="I237" s="16"/>
+    </row>
+    <row r="238" ht="20.1" customHeight="1">
+      <c r="A238" s="22"/>
+      <c r="B238" t="s" s="13">
+        <v>406</v>
+      </c>
+      <c r="C238" s="13"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="16"/>
+      <c r="F238" s="16"/>
+      <c r="G238" s="16"/>
+      <c r="H238" s="16"/>
+      <c r="I238" s="16"/>
+    </row>
+    <row r="239" ht="20.1" customHeight="1">
+      <c r="A239" s="22"/>
+      <c r="B239" t="s" s="13">
+        <v>407</v>
+      </c>
+      <c r="C239" s="13"/>
+      <c r="D239" s="14"/>
+      <c r="E239" s="16"/>
+      <c r="F239" s="16"/>
+      <c r="G239" s="16"/>
+      <c r="H239" s="16"/>
+      <c r="I239" s="16"/>
+    </row>
+    <row r="240" ht="20.1" customHeight="1">
+      <c r="A240" s="22"/>
+      <c r="B240" t="s" s="13">
+        <v>408</v>
+      </c>
+      <c r="C240" s="13"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="16"/>
+      <c r="F240" s="16"/>
+      <c r="G240" s="16"/>
+      <c r="H240" s="16"/>
+      <c r="I240" s="16"/>
+    </row>
+    <row r="241" ht="20.1" customHeight="1">
+      <c r="A241" s="22"/>
+      <c r="B241" t="s" s="13">
+        <v>409</v>
+      </c>
+      <c r="C241" s="13"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="16"/>
+      <c r="F241" s="16"/>
+      <c r="G241" s="16"/>
+      <c r="H241" s="16"/>
+      <c r="I241" s="16"/>
+    </row>
+    <row r="242" ht="20.1" customHeight="1">
+      <c r="A242" s="22"/>
+      <c r="B242" s="13"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="16"/>
+      <c r="F242" s="16"/>
+      <c r="G242" s="16"/>
+      <c r="H242" s="16"/>
+      <c r="I242" s="16"/>
+    </row>
+    <row r="243" ht="20.1" customHeight="1">
+      <c r="A243" s="22"/>
+      <c r="B243" t="s" s="13">
+        <v>410</v>
+      </c>
+      <c r="C243" s="13"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="16"/>
+      <c r="F243" s="16"/>
+      <c r="G243" s="16"/>
+      <c r="H243" s="16"/>
+      <c r="I243" s="16"/>
+    </row>
+    <row r="244" ht="20.1" customHeight="1">
+      <c r="A244" s="22"/>
+      <c r="B244" t="s" s="13">
+        <v>411</v>
+      </c>
+      <c r="C244" s="13"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="16"/>
+      <c r="F244" s="16"/>
+      <c r="G244" s="16"/>
+      <c r="H244" s="16"/>
+      <c r="I244" s="16"/>
+    </row>
+    <row r="245" ht="20.1" customHeight="1">
+      <c r="A245" s="22"/>
+      <c r="B245" t="s" s="13">
+        <v>412</v>
+      </c>
+      <c r="C245" s="13"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="16"/>
+      <c r="F245" s="16"/>
+      <c r="G245" s="16"/>
+      <c r="H245" s="16"/>
+      <c r="I245" s="16"/>
+    </row>
+    <row r="246" ht="20.1" customHeight="1">
+      <c r="A246" s="22"/>
+      <c r="B246" t="s" s="13">
+        <v>413</v>
+      </c>
+      <c r="C246" s="13"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="16"/>
+      <c r="F246" s="16"/>
+      <c r="G246" s="16"/>
+      <c r="H246" s="16"/>
+      <c r="I246" s="16"/>
+    </row>
+    <row r="247" ht="20.1" customHeight="1">
+      <c r="A247" s="22"/>
+      <c r="B247" t="s" s="13">
+        <v>414</v>
+      </c>
+      <c r="C247" s="13"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="16"/>
+      <c r="F247" s="16"/>
+      <c r="G247" s="16"/>
+      <c r="H247" s="16"/>
+      <c r="I247" s="16"/>
+    </row>
+    <row r="248" ht="20.1" customHeight="1">
+      <c r="A248" s="22"/>
+      <c r="B248" t="s" s="13">
+        <v>415</v>
+      </c>
+      <c r="C248" s="13"/>
+      <c r="D248" s="14"/>
+      <c r="E248" s="16"/>
+      <c r="F248" s="16"/>
+      <c r="G248" s="16"/>
+      <c r="H248" s="16"/>
+      <c r="I248" s="16"/>
+    </row>
+    <row r="249" ht="20.1" customHeight="1">
+      <c r="A249" s="22"/>
+      <c r="B249" t="s" s="13">
+        <v>416</v>
+      </c>
+      <c r="C249" s="13"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="16"/>
+      <c r="F249" s="16"/>
+      <c r="G249" s="16"/>
+      <c r="H249" s="16"/>
+      <c r="I249" s="16"/>
+    </row>
+    <row r="250" ht="20.1" customHeight="1">
+      <c r="A250" s="22"/>
+      <c r="B250" t="s" s="13">
+        <v>417</v>
+      </c>
+      <c r="C250" s="13"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="16"/>
+      <c r="F250" s="16"/>
+      <c r="G250" s="16"/>
+      <c r="H250" s="16"/>
+      <c r="I250" s="16"/>
+    </row>
+    <row r="251" ht="20.1" customHeight="1">
+      <c r="A251" s="22"/>
+      <c r="B251" s="13"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="16"/>
+      <c r="F251" s="16"/>
+      <c r="G251" s="16"/>
+      <c r="H251" s="16"/>
+      <c r="I251" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/parole.xlsx
+++ b/parole.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\edu\albe\curcuma\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="546">
   <si>
     <t>Tabella 1</t>
   </si>
@@ -1265,16 +1273,397 @@
   </si>
   <si>
     <t>Toccare</t>
+  </si>
+  <si>
+    <t>камень</t>
+  </si>
+  <si>
+    <t>дерево</t>
+  </si>
+  <si>
+    <t>железо</t>
+  </si>
+  <si>
+    <t>сталь</t>
+  </si>
+  <si>
+    <t>золото</t>
+  </si>
+  <si>
+    <t>серебро</t>
+  </si>
+  <si>
+    <t>бумага</t>
+  </si>
+  <si>
+    <t>картон</t>
+  </si>
+  <si>
+    <t>цемент</t>
+  </si>
+  <si>
+    <t>сено</t>
+  </si>
+  <si>
+    <t>Хлòпок</t>
+  </si>
+  <si>
+    <t>шерсть</t>
+  </si>
+  <si>
+    <t>Лен</t>
+  </si>
+  <si>
+    <t>Кирпич</t>
+  </si>
+  <si>
+    <t>Керамика</t>
+  </si>
+  <si>
+    <t>Штаны</t>
+  </si>
+  <si>
+    <t>Туфли / обувь</t>
+  </si>
+  <si>
+    <t>Сапоги</t>
+  </si>
+  <si>
+    <t>Шорты</t>
+  </si>
+  <si>
+    <t>Футболка</t>
+  </si>
+  <si>
+    <t>Рубашка</t>
+  </si>
+  <si>
+    <t>Свитер</t>
+  </si>
+  <si>
+    <t>Пуловер</t>
+  </si>
+  <si>
+    <t>Пальто</t>
+  </si>
+  <si>
+    <t>Шляпа / шапка</t>
+  </si>
+  <si>
+    <t>Кепка</t>
+  </si>
+  <si>
+    <t>Галстук</t>
+  </si>
+  <si>
+    <t>Пуговица</t>
+  </si>
+  <si>
+    <t>Носок (носки)</t>
+  </si>
+  <si>
+    <t>Часы</t>
+  </si>
+  <si>
+    <t>Цепòчка</t>
+  </si>
+  <si>
+    <t>Кольцо</t>
+  </si>
+  <si>
+    <t>Куртка</t>
+  </si>
+  <si>
+    <t>Перчатки</t>
+  </si>
+  <si>
+    <t>Шарф</t>
+  </si>
+  <si>
+    <t>Капюшон</t>
+  </si>
+  <si>
+    <t>Зонт</t>
+  </si>
+  <si>
+    <t>Сандалии / Босоножки</t>
+  </si>
+  <si>
+    <t>Шлёпки</t>
+  </si>
+  <si>
+    <t>Кастрюля</t>
+  </si>
+  <si>
+    <t>Сковородка</t>
+  </si>
+  <si>
+    <t>Стакан</t>
+  </si>
+  <si>
+    <t>Тарелка / блюдо</t>
+  </si>
+  <si>
+    <t>Вилка</t>
+  </si>
+  <si>
+    <t>Нож</t>
+  </si>
+  <si>
+    <t>Ложка</t>
+  </si>
+  <si>
+    <t>Трогать</t>
+  </si>
+  <si>
+    <t>cambiare</t>
+  </si>
+  <si>
+    <t>ispirare</t>
+  </si>
+  <si>
+    <t>trappola</t>
+  </si>
+  <si>
+    <t>ragionare</t>
+  </si>
+  <si>
+    <t>scoprire</t>
+  </si>
+  <si>
+    <t>fischiare</t>
+  </si>
+  <si>
+    <t>pescare</t>
+  </si>
+  <si>
+    <t>caccia</t>
+  </si>
+  <si>
+    <t>attraente</t>
+  </si>
+  <si>
+    <t>менять</t>
+  </si>
+  <si>
+    <t>вдохновлять</t>
+  </si>
+  <si>
+    <t>ловушка</t>
+  </si>
+  <si>
+    <t>рассуждать</t>
+  </si>
+  <si>
+    <t>узнать / узнавать</t>
+  </si>
+  <si>
+    <t>свистеть</t>
+  </si>
+  <si>
+    <t>рыбачить</t>
+  </si>
+  <si>
+    <t>охота</t>
+  </si>
+  <si>
+    <t>привлекательный</t>
+  </si>
+  <si>
+    <t>правительство</t>
+  </si>
+  <si>
+    <t>граница</t>
+  </si>
+  <si>
+    <t>чистить</t>
+  </si>
+  <si>
+    <t>прямой</t>
+  </si>
+  <si>
+    <t>кривой</t>
+  </si>
+  <si>
+    <t>радуга</t>
+  </si>
+  <si>
+    <t>атаковать</t>
+  </si>
+  <si>
+    <t>прикреплять</t>
+  </si>
+  <si>
+    <t>грузить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">груз </t>
+  </si>
+  <si>
+    <t>carico</t>
+  </si>
+  <si>
+    <t>caricare</t>
+  </si>
+  <si>
+    <t>attaccare</t>
+  </si>
+  <si>
+    <t>attaccare, agganciare</t>
+  </si>
+  <si>
+    <t>arcobaleno</t>
+  </si>
+  <si>
+    <t>non dritto</t>
+  </si>
+  <si>
+    <t>dritto</t>
+  </si>
+  <si>
+    <t>pulire</t>
+  </si>
+  <si>
+    <t>confine</t>
+  </si>
+  <si>
+    <t>governo</t>
+  </si>
+  <si>
+    <t>impiegato / lavoratore</t>
+  </si>
+  <si>
+    <t>работник</t>
+  </si>
+  <si>
+    <t>разгрузить / разгружать</t>
+  </si>
+  <si>
+    <t>выпрямить / выпрямлять</t>
+  </si>
+  <si>
+    <t>доброта</t>
+  </si>
+  <si>
+    <t>злость</t>
+  </si>
+  <si>
+    <t>раздражение</t>
+  </si>
+  <si>
+    <t>ярость</t>
+  </si>
+  <si>
+    <t>искренность</t>
+  </si>
+  <si>
+    <t>щедрость</t>
+  </si>
+  <si>
+    <t>целеустремленность</t>
+  </si>
+  <si>
+    <t>закон</t>
+  </si>
+  <si>
+    <t>выбор</t>
+  </si>
+  <si>
+    <t>радость</t>
+  </si>
+  <si>
+    <t>равнодушие</t>
+  </si>
+  <si>
+    <t>честность</t>
+  </si>
+  <si>
+    <t>ненависть</t>
+  </si>
+  <si>
+    <t>ненавидеть</t>
+  </si>
+  <si>
+    <t>радоваться</t>
+  </si>
+  <si>
+    <t>злиться</t>
+  </si>
+  <si>
+    <t>scaricare</t>
+  </si>
+  <si>
+    <t>fare dritto</t>
+  </si>
+  <si>
+    <t>gentilezza</t>
+  </si>
+  <si>
+    <t>fastidio</t>
+  </si>
+  <si>
+    <t>furia</t>
+  </si>
+  <si>
+    <t>ingenuità</t>
+  </si>
+  <si>
+    <t>legge</t>
+  </si>
+  <si>
+    <t>scelta</t>
+  </si>
+  <si>
+    <t>felicità</t>
+  </si>
+  <si>
+    <t>odio</t>
+  </si>
+  <si>
+    <t>odiare</t>
+  </si>
+  <si>
+    <t>essere felice</t>
+  </si>
+  <si>
+    <t>arrabbiarsi</t>
+  </si>
+  <si>
+    <t>sincerità / onestà</t>
+  </si>
+  <si>
+    <t>indifferenza</t>
+  </si>
+  <si>
+    <t>rabbia</t>
+  </si>
+  <si>
+    <t>orientamento agli obbiettivi</t>
+  </si>
+  <si>
+    <t>generosità</t>
+  </si>
+  <si>
+    <t>Кузнец</t>
+  </si>
+  <si>
+    <t>Столяр</t>
+  </si>
+  <si>
+    <t>Механик</t>
+  </si>
+  <si>
+    <t>Повар</t>
+  </si>
+  <si>
+    <t>Чертежник</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1286,12 +1675,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -1542,79 +1926,79 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1624,28 +2008,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1847,7 +2288,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1866,7 +2307,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1896,7 +2337,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1922,7 +2363,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1948,7 +2389,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1974,7 +2415,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2000,7 +2441,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2026,7 +2467,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2052,7 +2493,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2078,7 +2519,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2104,7 +2545,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2117,9 +2558,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2136,7 +2583,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2155,7 +2602,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2181,7 +2628,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2207,7 +2654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2233,7 +2680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2259,7 +2706,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2285,7 +2732,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2311,7 +2758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2337,7 +2784,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2363,7 +2810,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2389,7 +2836,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2402,9 +2849,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2418,7 +2871,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2437,7 +2890,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2467,7 +2920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2493,7 +2946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2519,7 +2972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2545,7 +2998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2571,7 +3024,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2597,7 +3050,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2623,7 +3076,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2649,7 +3102,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2675,7 +3128,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2688,3638 +3141,4052 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I251"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV288"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="30" style="1" customWidth="1"/>
-    <col min="2" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="27.6" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1">
-      <c r="A4" t="s" s="12">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="13">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1">
-      <c r="A5" t="s" s="12">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="13">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1">
-      <c r="A6" t="s" s="12">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s" s="13">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1">
-      <c r="A7" t="s" s="12">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s" s="13">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1">
-      <c r="A8" t="s" s="12">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s" s="13">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1">
-      <c r="A9" t="s" s="12">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s" s="13">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" ht="20.1" customHeight="1">
-      <c r="A10" t="s" s="12">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s" s="13">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="1">
-      <c r="A11" t="s" s="12">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s" s="13">
+      <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1">
-      <c r="A12" t="s" s="12">
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s" s="13">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" ht="20.1" customHeight="1">
-      <c r="A13" t="s" s="12">
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s" s="13">
+      <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" ht="20.1" customHeight="1">
-      <c r="A14" t="s" s="12">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s" s="13">
+      <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" ht="20.1" customHeight="1">
-      <c r="A15" t="s" s="12">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="13">
+      <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" ht="20.1" customHeight="1">
-      <c r="A16" t="s" s="12">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s" s="13">
+      <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" ht="20.1" customHeight="1">
-      <c r="A17" t="s" s="12">
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s" s="13">
+      <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" ht="20.1" customHeight="1">
-      <c r="A18" t="s" s="12">
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s" s="13">
+      <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" ht="20.1" customHeight="1">
-      <c r="A19" t="s" s="12">
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s" s="13">
+      <c r="B19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" ht="20.1" customHeight="1">
-      <c r="A20" t="s" s="12">
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s" s="13">
+      <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" ht="20.1" customHeight="1">
-      <c r="A21" t="s" s="12">
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s" s="13">
+      <c r="B21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" ht="20.1" customHeight="1">
-      <c r="A22" t="s" s="12">
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s" s="13">
+      <c r="B22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" ht="20.1" customHeight="1">
-      <c r="A23" t="s" s="12">
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s" s="13">
+      <c r="B23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" ht="20.1" customHeight="1">
-      <c r="A24" t="s" s="12">
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s" s="13">
+      <c r="B24" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" ht="20.1" customHeight="1">
-      <c r="A25" t="s" s="12">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s" s="13">
+      <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" ht="20.1" customHeight="1">
-      <c r="A26" t="s" s="12">
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="s" s="13">
+      <c r="B26" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" ht="20.1" customHeight="1">
-      <c r="A27" t="s" s="12">
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B27" t="s" s="13">
+      <c r="B27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" ht="20.1" customHeight="1">
-      <c r="A28" t="s" s="12">
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B28" t="s" s="13">
+      <c r="B28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" ht="20.1" customHeight="1">
-      <c r="A29" t="s" s="12">
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B29" t="s" s="13">
+      <c r="B29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" ht="20.1" customHeight="1">
-      <c r="A30" t="s" s="12">
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s" s="13">
+      <c r="B30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" ht="20.1" customHeight="1">
-      <c r="A31" t="s" s="12">
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B31" t="s" s="13">
+      <c r="B31" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-    </row>
-    <row r="32" ht="20.1" customHeight="1">
-      <c r="A32" t="s" s="12">
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B32" t="s" s="13">
+      <c r="B32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" ht="20.1" customHeight="1">
-      <c r="A33" t="s" s="12">
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B33" t="s" s="13">
+      <c r="B33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="34" ht="20.1" customHeight="1">
-      <c r="A34" t="s" s="12">
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B34" t="s" s="13">
+      <c r="B34" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-    </row>
-    <row r="35" ht="20.1" customHeight="1">
-      <c r="A35" t="s" s="12">
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B35" t="s" s="13">
+      <c r="B35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-    </row>
-    <row r="36" ht="20.1" customHeight="1">
-      <c r="A36" t="s" s="12">
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B36" t="s" s="13">
+      <c r="B36" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-    </row>
-    <row r="37" ht="20.1" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-    </row>
-    <row r="38" ht="20.1" customHeight="1">
-      <c r="A38" t="s" s="12">
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B38" t="s" s="13">
+      <c r="B38" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-    </row>
-    <row r="39" ht="20.1" customHeight="1">
-      <c r="A39" t="s" s="12">
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B39" t="s" s="13">
+      <c r="B39" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-    </row>
-    <row r="40" ht="20.1" customHeight="1">
-      <c r="A40" t="s" s="12">
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B40" t="s" s="13">
+      <c r="B40" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-    </row>
-    <row r="41" ht="20.1" customHeight="1">
-      <c r="A41" t="s" s="12">
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B41" t="s" s="13">
+      <c r="B41" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-    </row>
-    <row r="42" ht="20.1" customHeight="1">
-      <c r="A42" t="s" s="12">
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B42" t="s" s="13">
+      <c r="B42" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-    </row>
-    <row r="43" ht="20.1" customHeight="1">
-      <c r="A43" t="s" s="12">
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B43" t="s" s="13">
+      <c r="B43" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" ht="20.1" customHeight="1">
-      <c r="A44" t="s" s="12">
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B44" t="s" s="13">
+      <c r="B44" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-    </row>
-    <row r="45" ht="20.1" customHeight="1">
-      <c r="A45" t="s" s="12">
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B45" t="s" s="13">
+      <c r="B45" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-    </row>
-    <row r="46" ht="20.1" customHeight="1">
-      <c r="A46" t="s" s="12">
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s" s="13">
+      <c r="B46" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-    </row>
-    <row r="47" ht="20.1" customHeight="1">
-      <c r="A47" t="s" s="12">
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B47" t="s" s="13">
+      <c r="B47" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="48" ht="20.1" customHeight="1">
-      <c r="A48" t="s" s="12">
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B48" t="s" s="13">
+      <c r="B48" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-    </row>
-    <row r="49" ht="20.1" customHeight="1">
-      <c r="A49" t="s" s="12">
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B49" t="s" s="13">
+      <c r="B49" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-    </row>
-    <row r="50" ht="20.1" customHeight="1">
-      <c r="A50" t="s" s="12">
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B50" t="s" s="13">
+      <c r="B50" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-    </row>
-    <row r="51" ht="20.1" customHeight="1">
-      <c r="A51" t="s" s="12">
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B51" t="s" s="13">
+      <c r="B51" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-    </row>
-    <row r="52" ht="20.1" customHeight="1">
-      <c r="A52" t="s" s="12">
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B52" t="s" s="13">
+      <c r="B52" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-    </row>
-    <row r="53" ht="20.1" customHeight="1">
-      <c r="A53" t="s" s="12">
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B53" t="s" s="13">
+      <c r="B53" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-    </row>
-    <row r="54" ht="20.1" customHeight="1">
-      <c r="A54" t="s" s="12">
+      <c r="C53" s="9"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B54" t="s" s="13">
+      <c r="B54" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-    </row>
-    <row r="55" ht="20.1" customHeight="1">
-      <c r="A55" t="s" s="12">
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B55" t="s" s="13">
+      <c r="B55" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-    </row>
-    <row r="56" ht="20.1" customHeight="1">
-      <c r="A56" t="s" s="12">
+      <c r="C55" s="9"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B56" t="s" s="13">
+      <c r="B56" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-    </row>
-    <row r="57" ht="20.1" customHeight="1">
-      <c r="A57" t="s" s="12">
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B57" t="s" s="13">
+      <c r="B57" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-    </row>
-    <row r="58" ht="20.1" customHeight="1">
-      <c r="A58" t="s" s="12">
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B58" t="s" s="13">
+      <c r="B58" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-    </row>
-    <row r="59" ht="20.1" customHeight="1">
-      <c r="A59" t="s" s="12">
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+    </row>
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B59" t="s" s="13">
+      <c r="B59" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-    </row>
-    <row r="60" ht="20.1" customHeight="1">
-      <c r="A60" t="s" s="12">
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B60" t="s" s="13">
+      <c r="B60" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-    </row>
-    <row r="61" ht="20.1" customHeight="1">
-      <c r="A61" t="s" s="12">
+      <c r="C60" s="9"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B61" t="s" s="13">
+      <c r="B61" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-    </row>
-    <row r="62" ht="20.1" customHeight="1">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-    </row>
-    <row r="63" ht="20.1" customHeight="1">
-      <c r="A63" t="s" s="12">
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+    </row>
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B63" t="s" s="13">
+      <c r="B63" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-    </row>
-    <row r="64" ht="20.1" customHeight="1">
-      <c r="A64" t="s" s="12">
+      <c r="C63" s="9"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+    </row>
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B64" t="s" s="13">
+      <c r="B64" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-    </row>
-    <row r="65" ht="20.1" customHeight="1">
-      <c r="A65" t="s" s="12">
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+    </row>
+    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B65" t="s" s="13">
+      <c r="B65" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-    </row>
-    <row r="66" ht="20.1" customHeight="1">
-      <c r="A66" t="s" s="12">
+      <c r="C65" s="9"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+    </row>
+    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B66" t="s" s="13">
+      <c r="B66" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-    </row>
-    <row r="67" ht="20.1" customHeight="1">
-      <c r="A67" t="s" s="12">
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+    </row>
+    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B67" t="s" s="13">
+      <c r="B67" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-    </row>
-    <row r="68" ht="20.1" customHeight="1">
-      <c r="A68" t="s" s="12">
+      <c r="C67" s="9"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+    </row>
+    <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B68" t="s" s="13">
+      <c r="B68" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-    </row>
-    <row r="69" ht="20.1" customHeight="1">
-      <c r="A69" t="s" s="12">
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+    </row>
+    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B69" t="s" s="13">
+      <c r="B69" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-    </row>
-    <row r="70" ht="20.1" customHeight="1">
-      <c r="A70" t="s" s="12">
+      <c r="C69" s="9"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+    </row>
+    <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B70" t="s" s="13">
+      <c r="B70" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-    </row>
-    <row r="71" ht="20.1" customHeight="1">
-      <c r="A71" t="s" s="12">
+      <c r="C70" s="9"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+    </row>
+    <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B71" t="s" s="13">
+      <c r="B71" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-    </row>
-    <row r="72" ht="20.1" customHeight="1">
-      <c r="A72" t="s" s="12">
+      <c r="C71" s="9"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B72" t="s" s="13">
+      <c r="B72" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-    </row>
-    <row r="73" ht="20.1" customHeight="1">
-      <c r="A73" t="s" s="12">
+      <c r="C72" s="9"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+    </row>
+    <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B73" t="s" s="13">
+      <c r="B73" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-    </row>
-    <row r="74" ht="20.1" customHeight="1">
-      <c r="A74" t="s" s="12">
+      <c r="C73" s="9"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+    </row>
+    <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B74" t="s" s="13">
+      <c r="B74" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-    </row>
-    <row r="75" ht="20.1" customHeight="1">
-      <c r="A75" t="s" s="12">
+      <c r="C74" s="9"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+    </row>
+    <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B75" t="s" s="13">
+      <c r="B75" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-    </row>
-    <row r="76" ht="20.1" customHeight="1">
-      <c r="A76" t="s" s="12">
+      <c r="C75" s="9"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+    </row>
+    <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B76" t="s" s="13">
+      <c r="B76" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-    </row>
-    <row r="77" ht="20.1" customHeight="1">
-      <c r="A77" t="s" s="12">
+      <c r="C76" s="9"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+    </row>
+    <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B77" t="s" s="13">
+      <c r="B77" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-    </row>
-    <row r="78" ht="20.1" customHeight="1">
-      <c r="A78" t="s" s="12">
+      <c r="C77" s="9"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+    </row>
+    <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B78" t="s" s="13">
+      <c r="B78" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-    </row>
-    <row r="79" ht="20.1" customHeight="1">
-      <c r="A79" t="s" s="12">
+      <c r="C78" s="9"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+    </row>
+    <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B79" t="s" s="13">
+      <c r="B79" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-    </row>
-    <row r="80" ht="20.1" customHeight="1">
-      <c r="A80" t="s" s="12">
+      <c r="C79" s="9"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+    </row>
+    <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B80" t="s" s="13">
+      <c r="B80" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-    </row>
-    <row r="81" ht="20.1" customHeight="1">
-      <c r="A81" t="s" s="12">
+      <c r="C80" s="9"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B81" t="s" s="13">
+      <c r="B81" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-    </row>
-    <row r="82" ht="20.1" customHeight="1">
-      <c r="A82" t="s" s="12">
+      <c r="C81" s="9"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+    </row>
+    <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B82" t="s" s="13">
+      <c r="B82" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-    </row>
-    <row r="83" ht="20.1" customHeight="1">
-      <c r="A83" t="s" s="12">
+      <c r="C82" s="9"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+    </row>
+    <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B83" t="s" s="13">
+      <c r="B83" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-    </row>
-    <row r="84" ht="20.1" customHeight="1">
-      <c r="A84" t="s" s="12">
+      <c r="C83" s="9"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+    </row>
+    <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B84" t="s" s="13">
+      <c r="B84" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-    </row>
-    <row r="85" ht="20.1" customHeight="1">
-      <c r="A85" t="s" s="12">
+      <c r="C84" s="9"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+    </row>
+    <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B85" t="s" s="13">
+      <c r="B85" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-    </row>
-    <row r="86" ht="20.1" customHeight="1">
-      <c r="A86" t="s" s="12">
+      <c r="C85" s="9"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+    </row>
+    <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B86" t="s" s="13">
+      <c r="B86" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-    </row>
-    <row r="87" ht="20.1" customHeight="1">
-      <c r="A87" t="s" s="12">
+      <c r="C86" s="9"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+    </row>
+    <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B87" t="s" s="13">
+      <c r="B87" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-    </row>
-    <row r="88" ht="20.1" customHeight="1">
-      <c r="A88" t="s" s="12">
+      <c r="C87" s="9"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+    </row>
+    <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B88" t="s" s="13">
+      <c r="B88" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-    </row>
-    <row r="89" ht="20.1" customHeight="1">
-      <c r="A89" t="s" s="12">
+      <c r="C88" s="9"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B89" t="s" s="13">
+      <c r="B89" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-    </row>
-    <row r="90" ht="20.1" customHeight="1">
-      <c r="A90" t="s" s="12">
+      <c r="C89" s="9"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A90" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B90" t="s" s="13">
+      <c r="B90" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-    </row>
-    <row r="91" ht="20.1" customHeight="1">
-      <c r="A91" t="s" s="12">
+      <c r="C90" s="9"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+    </row>
+    <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A91" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B91" t="s" s="13">
+      <c r="B91" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-    </row>
-    <row r="92" ht="20.1" customHeight="1">
-      <c r="A92" t="s" s="12">
+      <c r="C91" s="9"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+    </row>
+    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B92" t="s" s="13">
+      <c r="B92" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-    </row>
-    <row r="93" ht="20.1" customHeight="1">
-      <c r="A93" t="s" s="12">
+      <c r="C92" s="9"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+    </row>
+    <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A93" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B93" t="s" s="13">
+      <c r="B93" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-    </row>
-    <row r="94" ht="20.1" customHeight="1">
-      <c r="A94" t="s" s="12">
+      <c r="C93" s="9"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A94" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B94" t="s" s="13">
+      <c r="B94" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-    </row>
-    <row r="95" ht="20.1" customHeight="1">
-      <c r="A95" t="s" s="12">
+      <c r="C94" s="9"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+    </row>
+    <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A95" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B95" t="s" s="13">
+      <c r="B95" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-    </row>
-    <row r="96" ht="20.1" customHeight="1">
-      <c r="A96" t="s" s="12">
+      <c r="C95" s="9"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+    </row>
+    <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A96" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B96" t="s" s="13">
+      <c r="B96" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-    </row>
-    <row r="97" ht="20.1" customHeight="1">
-      <c r="A97" t="s" s="12">
+      <c r="C96" s="9"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A97" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B97" t="s" s="13">
+      <c r="B97" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-    </row>
-    <row r="98" ht="20.1" customHeight="1">
-      <c r="A98" t="s" s="12">
+      <c r="C97" s="9"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A98" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B98" t="s" s="13">
+      <c r="B98" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-    </row>
-    <row r="99" ht="20.1" customHeight="1">
-      <c r="A99" t="s" s="12">
+      <c r="C98" s="9"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A99" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B99" t="s" s="13">
+      <c r="B99" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-    </row>
-    <row r="100" ht="20.1" customHeight="1">
-      <c r="A100" s="17"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-    </row>
-    <row r="101" ht="20.1" customHeight="1">
-      <c r="A101" t="s" s="12">
+      <c r="C99" s="9"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+    </row>
+    <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A101" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B101" t="s" s="13">
+      <c r="B101" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-    </row>
-    <row r="102" ht="20.1" customHeight="1">
-      <c r="A102" t="s" s="12">
+      <c r="C101" s="9"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+    </row>
+    <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A102" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B102" t="s" s="13">
+      <c r="B102" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-    </row>
-    <row r="103" ht="20.1" customHeight="1">
-      <c r="A103" t="s" s="12">
+      <c r="C102" s="9"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A103" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B103" t="s" s="13">
+      <c r="B103" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-    </row>
-    <row r="104" ht="20.1" customHeight="1">
-      <c r="A104" t="s" s="12">
+      <c r="C103" s="9"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A104" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B104" t="s" s="13">
+      <c r="B104" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-    </row>
-    <row r="105" ht="20.1" customHeight="1">
-      <c r="A105" t="s" s="12">
+      <c r="C104" s="9"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+    </row>
+    <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A105" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B105" t="s" s="13">
+      <c r="B105" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
-    </row>
-    <row r="106" ht="20.1" customHeight="1">
-      <c r="A106" t="s" s="12">
+      <c r="C105" s="9"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A106" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B106" t="s" s="13">
+      <c r="B106" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-    </row>
-    <row r="107" ht="20.1" customHeight="1">
-      <c r="A107" t="s" s="12">
+      <c r="C106" s="9"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+    </row>
+    <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A107" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B107" t="s" s="13">
+      <c r="B107" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-    </row>
-    <row r="108" ht="20.1" customHeight="1">
-      <c r="A108" t="s" s="12">
+      <c r="C107" s="9"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+    </row>
+    <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A108" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B108" t="s" s="13">
+      <c r="B108" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-    </row>
-    <row r="109" ht="20.1" customHeight="1">
-      <c r="A109" t="s" s="12">
+      <c r="C108" s="9"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+    </row>
+    <row r="109" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A109" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B109" t="s" s="13">
+      <c r="B109" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-    </row>
-    <row r="110" ht="20.1" customHeight="1">
-      <c r="A110" t="s" s="12">
+      <c r="C109" s="9"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+    </row>
+    <row r="110" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A110" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B110" t="s" s="13">
+      <c r="B110" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-    </row>
-    <row r="111" ht="20.1" customHeight="1">
-      <c r="A111" t="s" s="12">
+      <c r="C110" s="9"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+    </row>
+    <row r="111" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A111" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B111" t="s" s="13">
+      <c r="B111" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-    </row>
-    <row r="112" ht="20.1" customHeight="1">
-      <c r="A112" t="s" s="12">
+      <c r="C111" s="9"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+    </row>
+    <row r="112" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A112" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B112" t="s" s="13">
+      <c r="B112" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C112" s="13"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-    </row>
-    <row r="113" ht="20.1" customHeight="1">
-      <c r="A113" t="s" s="12">
+      <c r="C112" s="9"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+    </row>
+    <row r="113" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A113" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B113" t="s" s="13">
+      <c r="B113" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C113" s="13"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-    </row>
-    <row r="114" ht="20.1" customHeight="1">
-      <c r="A114" t="s" s="12">
+      <c r="C113" s="9"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+    </row>
+    <row r="114" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A114" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B114" t="s" s="13">
+      <c r="B114" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C114" s="13"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-    </row>
-    <row r="115" ht="20.1" customHeight="1">
-      <c r="A115" t="s" s="12">
+      <c r="C114" s="9"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+    </row>
+    <row r="115" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A115" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B115" t="s" s="13">
+      <c r="B115" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
-    </row>
-    <row r="116" ht="20.1" customHeight="1">
-      <c r="A116" t="s" s="12">
+      <c r="C115" s="9"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+    </row>
+    <row r="116" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A116" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B116" t="s" s="13">
+      <c r="B116" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-    </row>
-    <row r="117" ht="20.1" customHeight="1">
-      <c r="A117" t="s" s="12">
+      <c r="C116" s="9"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+    </row>
+    <row r="117" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A117" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B117" t="s" s="13">
+      <c r="B117" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C117" s="13"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-    </row>
-    <row r="118" ht="20.1" customHeight="1">
-      <c r="A118" t="s" s="12">
+      <c r="C117" s="9"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+    </row>
+    <row r="118" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A118" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B118" t="s" s="13">
+      <c r="B118" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C118" s="13"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-    </row>
-    <row r="119" ht="20.1" customHeight="1">
-      <c r="A119" s="17"/>
-      <c r="B119" t="s" s="13">
+      <c r="C118" s="9"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+    </row>
+    <row r="119" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A119" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C119" s="18"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-    </row>
-    <row r="120" ht="20.1" customHeight="1">
-      <c r="A120" s="17"/>
-      <c r="B120" t="s" s="13">
+      <c r="C119" s="14"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+    </row>
+    <row r="120" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A120" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C120" s="18"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-    </row>
-    <row r="121" ht="20.1" customHeight="1">
-      <c r="A121" s="17"/>
-      <c r="B121" t="s" s="13">
+      <c r="C120" s="14"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+    </row>
+    <row r="121" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A121" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="B121" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C121" s="18"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-    </row>
-    <row r="122" ht="20.1" customHeight="1">
-      <c r="A122" s="17"/>
-      <c r="B122" t="s" s="13">
+      <c r="C121" s="14"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+    </row>
+    <row r="122" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A122" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="B122" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C122" s="18"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
-    </row>
-    <row r="123" ht="20.1" customHeight="1">
-      <c r="A123" s="17"/>
-      <c r="B123" t="s" s="13">
+      <c r="C122" s="14"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+    </row>
+    <row r="123" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A123" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C123" s="18"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-    </row>
-    <row r="124" ht="20.1" customHeight="1">
-      <c r="A124" s="17"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-    </row>
-    <row r="125" ht="20.1" customHeight="1">
-      <c r="A125" t="s" s="12">
+      <c r="C123" s="14"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+    </row>
+    <row r="124" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A124" s="13"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+    </row>
+    <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A125" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B125" t="s" s="13">
+      <c r="B125" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C125" s="13"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
-    </row>
-    <row r="126" ht="20.1" customHeight="1">
-      <c r="A126" t="s" s="12">
+      <c r="C125" s="9"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+    </row>
+    <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A126" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B126" t="s" s="13">
+      <c r="B126" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C126" s="13"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
-    </row>
-    <row r="127" ht="20.1" customHeight="1">
-      <c r="A127" t="s" s="12">
+      <c r="C126" s="9"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+    </row>
+    <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A127" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B127" t="s" s="13">
+      <c r="B127" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C127" s="13"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="16"/>
-    </row>
-    <row r="128" ht="20.1" customHeight="1">
-      <c r="A128" t="s" s="12">
+      <c r="C127" s="9"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+    </row>
+    <row r="128" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A128" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B128" t="s" s="13">
+      <c r="B128" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C128" s="13"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
-    </row>
-    <row r="129" ht="20.1" customHeight="1">
-      <c r="A129" t="s" s="12">
+      <c r="C128" s="9"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+    </row>
+    <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A129" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B129" t="s" s="13">
+      <c r="B129" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C129" s="13"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="16"/>
-    </row>
-    <row r="130" ht="20.1" customHeight="1">
-      <c r="A130" s="17"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="16"/>
-    </row>
-    <row r="131" ht="20.1" customHeight="1">
-      <c r="A131" t="s" s="12">
+      <c r="C129" s="9"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+    </row>
+    <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A130" s="13"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+    </row>
+    <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A131" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B131" t="s" s="13">
+      <c r="B131" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C131" s="13"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="16"/>
-    </row>
-    <row r="132" ht="20.1" customHeight="1">
-      <c r="A132" t="s" s="12">
+      <c r="C131" s="9"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+    </row>
+    <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A132" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B132" t="s" s="13">
+      <c r="B132" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
-    </row>
-    <row r="133" ht="20.1" customHeight="1">
-      <c r="A133" t="s" s="12">
+      <c r="C132" s="9"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+    </row>
+    <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A133" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B133" t="s" s="13">
+      <c r="B133" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C133" s="13"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16"/>
-    </row>
-    <row r="134" ht="20.1" customHeight="1">
-      <c r="A134" t="s" s="12">
+      <c r="C133" s="9"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+    </row>
+    <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A134" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B134" t="s" s="13">
+      <c r="B134" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C134" s="13"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
-    </row>
-    <row r="135" ht="20.1" customHeight="1">
-      <c r="A135" t="s" s="12">
+      <c r="C134" s="9"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+    </row>
+    <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A135" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B135" t="s" s="13">
+      <c r="B135" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C135" s="13"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="16"/>
-    </row>
-    <row r="136" ht="20.1" customHeight="1">
-      <c r="A136" t="s" s="21">
+      <c r="C135" s="9"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+    </row>
+    <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A136" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="B136" t="s" s="13">
+      <c r="B136" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C136" s="13"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="16"/>
-    </row>
-    <row r="137" ht="20.1" customHeight="1">
-      <c r="A137" t="s" s="21">
+      <c r="C136" s="9"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+    </row>
+    <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A137" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="B137" t="s" s="13">
+      <c r="B137" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C137" s="13"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16"/>
-      <c r="H137" s="16"/>
-      <c r="I137" s="16"/>
-    </row>
-    <row r="138" ht="20.1" customHeight="1">
-      <c r="A138" t="s" s="21">
+      <c r="C137" s="9"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+    </row>
+    <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A138" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B138" t="s" s="13">
+      <c r="B138" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C138" s="13"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="16"/>
-    </row>
-    <row r="139" ht="20.1" customHeight="1">
-      <c r="A139" t="s" s="21">
+      <c r="C138" s="9"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+    </row>
+    <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A139" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B139" t="s" s="13">
+      <c r="B139" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C139" s="13"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="16"/>
-    </row>
-    <row r="140" ht="20.1" customHeight="1">
-      <c r="A140" t="s" s="21">
+      <c r="C139" s="9"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+    </row>
+    <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A140" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B140" t="s" s="13">
+      <c r="B140" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C140" s="13"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="16"/>
-    </row>
-    <row r="141" ht="20.1" customHeight="1">
-      <c r="A141" t="s" s="21">
+      <c r="C140" s="9"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+    </row>
+    <row r="141" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A141" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B141" t="s" s="13">
+      <c r="B141" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C141" s="13"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="16"/>
-    </row>
-    <row r="142" ht="20.1" customHeight="1">
-      <c r="A142" t="s" s="21">
+      <c r="C141" s="9"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+    </row>
+    <row r="142" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A142" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B142" t="s" s="13">
+      <c r="B142" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C142" s="13"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="16"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="16"/>
-    </row>
-    <row r="143" ht="20.1" customHeight="1">
-      <c r="A143" t="s" s="21">
+      <c r="C142" s="9"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+    </row>
+    <row r="143" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A143" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B143" t="s" s="13">
+      <c r="B143" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C143" s="13"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="16"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="16"/>
-    </row>
-    <row r="144" ht="20.1" customHeight="1">
-      <c r="A144" t="s" s="21">
+      <c r="C143" s="9"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+    </row>
+    <row r="144" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A144" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B144" t="s" s="13">
+      <c r="B144" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C144" s="13"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="16"/>
-      <c r="F144" s="16"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="16"/>
-    </row>
-    <row r="145" ht="20.1" customHeight="1">
-      <c r="A145" t="s" s="21">
+      <c r="C144" s="9"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+    </row>
+    <row r="145" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A145" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B145" t="s" s="13">
+      <c r="B145" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C145" s="13"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="16"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="16"/>
-    </row>
-    <row r="146" ht="20.1" customHeight="1">
-      <c r="A146" t="s" s="21">
+      <c r="C145" s="9"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+    </row>
+    <row r="146" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A146" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B146" t="s" s="13">
+      <c r="B146" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C146" s="13"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="16"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="16"/>
-      <c r="H146" s="16"/>
-      <c r="I146" s="16"/>
-    </row>
-    <row r="147" ht="20.1" customHeight="1">
-      <c r="A147" t="s" s="21">
+      <c r="C146" s="9"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+    </row>
+    <row r="147" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A147" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="B147" t="s" s="13">
+      <c r="B147" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C147" s="13"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="16"/>
-      <c r="G147" s="16"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="16"/>
-    </row>
-    <row r="148" ht="20.1" customHeight="1">
-      <c r="A148" t="s" s="21">
+      <c r="C147" s="9"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+    </row>
+    <row r="148" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A148" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="B148" t="s" s="13">
+      <c r="B148" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C148" s="13"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="16"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="16"/>
-    </row>
-    <row r="149" ht="20.1" customHeight="1">
-      <c r="A149" t="s" s="21">
+      <c r="C148" s="9"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+    </row>
+    <row r="149" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A149" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B149" t="s" s="13">
+      <c r="B149" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C149" s="13"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="16"/>
-    </row>
-    <row r="150" ht="20.1" customHeight="1">
-      <c r="A150" t="s" s="21">
+      <c r="C149" s="9"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+    </row>
+    <row r="150" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A150" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="B150" t="s" s="13">
+      <c r="B150" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C150" s="13"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="16"/>
-      <c r="G150" s="16"/>
-      <c r="H150" s="16"/>
-      <c r="I150" s="16"/>
-    </row>
-    <row r="151" ht="20.1" customHeight="1">
-      <c r="A151" t="s" s="21">
+      <c r="C150" s="9"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+    </row>
+    <row r="151" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A151" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="B151" t="s" s="13">
+      <c r="B151" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C151" s="13"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="16"/>
-      <c r="G151" s="16"/>
-      <c r="H151" s="16"/>
-      <c r="I151" s="16"/>
-    </row>
-    <row r="152" ht="20.1" customHeight="1">
-      <c r="A152" t="s" s="21">
+      <c r="C151" s="9"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+    </row>
+    <row r="152" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A152" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="B152" t="s" s="13">
+      <c r="B152" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C152" s="13"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="16"/>
-      <c r="G152" s="16"/>
-      <c r="H152" s="16"/>
-      <c r="I152" s="16"/>
-    </row>
-    <row r="153" ht="20.1" customHeight="1">
-      <c r="A153" t="s" s="21">
+      <c r="C152" s="9"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+    </row>
+    <row r="153" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A153" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="B153" t="s" s="13">
+      <c r="B153" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C153" s="13"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="16"/>
-      <c r="I153" s="16"/>
-    </row>
-    <row r="154" ht="20.1" customHeight="1">
-      <c r="A154" t="s" s="21">
+      <c r="C153" s="9"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+    </row>
+    <row r="154" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A154" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="B154" t="s" s="13">
+      <c r="B154" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C154" s="13"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="16"/>
-      <c r="G154" s="16"/>
-      <c r="H154" s="16"/>
-      <c r="I154" s="16"/>
-    </row>
-    <row r="155" ht="20.1" customHeight="1">
-      <c r="A155" t="s" s="21">
+      <c r="C154" s="9"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+    </row>
+    <row r="155" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A155" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="B155" t="s" s="13">
+      <c r="B155" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C155" s="13"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16"/>
-      <c r="H155" s="16"/>
-      <c r="I155" s="16"/>
-    </row>
-    <row r="156" ht="20.1" customHeight="1">
-      <c r="A156" t="s" s="21">
+      <c r="C155" s="9"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+    </row>
+    <row r="156" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A156" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="B156" t="s" s="13">
+      <c r="B156" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C156" s="13"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="16"/>
-      <c r="F156" s="16"/>
-      <c r="G156" s="16"/>
-      <c r="H156" s="16"/>
-      <c r="I156" s="16"/>
-    </row>
-    <row r="157" ht="20.1" customHeight="1">
-      <c r="A157" t="s" s="21">
+      <c r="C156" s="9"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+    </row>
+    <row r="157" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A157" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="B157" t="s" s="13">
+      <c r="B157" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C157" s="13"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="16"/>
-      <c r="H157" s="16"/>
-      <c r="I157" s="16"/>
-    </row>
-    <row r="158" ht="20.1" customHeight="1">
-      <c r="A158" t="s" s="21">
+      <c r="C157" s="9"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+    </row>
+    <row r="158" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A158" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="B158" t="s" s="13">
+      <c r="B158" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C158" s="13"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="16"/>
-      <c r="F158" s="16"/>
-      <c r="G158" s="16"/>
-      <c r="H158" s="16"/>
-      <c r="I158" s="16"/>
-    </row>
-    <row r="159" ht="20.1" customHeight="1">
-      <c r="A159" t="s" s="21">
+      <c r="C158" s="9"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+    </row>
+    <row r="159" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A159" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="B159" t="s" s="13">
+      <c r="B159" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C159" s="13"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="16"/>
-      <c r="F159" s="16"/>
-      <c r="G159" s="16"/>
-      <c r="H159" s="16"/>
-      <c r="I159" s="16"/>
-    </row>
-    <row r="160" ht="20.1" customHeight="1">
-      <c r="A160" s="22"/>
-      <c r="B160" t="s" s="13">
+      <c r="C159" s="9"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+    </row>
+    <row r="160" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A160" s="18"/>
+      <c r="B160" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C160" s="13"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="16"/>
-      <c r="F160" s="16"/>
-      <c r="G160" s="16"/>
-      <c r="H160" s="16"/>
-      <c r="I160" s="16"/>
-    </row>
-    <row r="161" ht="20.1" customHeight="1">
-      <c r="A161" s="22"/>
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
-      <c r="H161" s="16"/>
-      <c r="I161" s="16"/>
-    </row>
-    <row r="162" ht="20.1" customHeight="1">
-      <c r="A162" t="s" s="21">
+      <c r="C160" s="9"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+    </row>
+    <row r="161" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A161" s="18"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+    </row>
+    <row r="162" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A162" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B162" t="s" s="13">
+      <c r="B162" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C162" s="13"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="16"/>
-      <c r="H162" s="16"/>
-      <c r="I162" s="16"/>
-    </row>
-    <row r="163" ht="20.1" customHeight="1">
-      <c r="A163" t="s" s="21">
+      <c r="C162" s="9"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+    </row>
+    <row r="163" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A163" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="B163" t="s" s="13">
+      <c r="B163" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C163" s="13"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16"/>
-      <c r="H163" s="16"/>
-      <c r="I163" s="16"/>
-    </row>
-    <row r="164" ht="20.1" customHeight="1">
-      <c r="A164" t="s" s="21">
+      <c r="C163" s="9"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+    </row>
+    <row r="164" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A164" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="B164" t="s" s="13">
+      <c r="B164" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C164" s="13"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="16"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="16"/>
-      <c r="H164" s="16"/>
-      <c r="I164" s="16"/>
-    </row>
-    <row r="165" ht="20.1" customHeight="1">
-      <c r="A165" t="s" s="21">
+      <c r="C164" s="9"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+    </row>
+    <row r="165" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A165" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="B165" t="s" s="13">
+      <c r="B165" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C165" s="13"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="16"/>
-      <c r="G165" s="16"/>
-      <c r="H165" s="16"/>
-      <c r="I165" s="16"/>
-    </row>
-    <row r="166" ht="20.1" customHeight="1">
-      <c r="A166" t="s" s="21">
+      <c r="C165" s="9"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+    </row>
+    <row r="166" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A166" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="B166" t="s" s="13">
+      <c r="B166" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C166" s="13"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="16"/>
-      <c r="F166" s="16"/>
-      <c r="G166" s="16"/>
-      <c r="H166" s="16"/>
-      <c r="I166" s="16"/>
-    </row>
-    <row r="167" ht="20.1" customHeight="1">
-      <c r="A167" t="s" s="21">
+      <c r="C166" s="9"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+    </row>
+    <row r="167" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A167" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="B167" t="s" s="13">
+      <c r="B167" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C167" s="13"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="16"/>
-      <c r="H167" s="16"/>
-      <c r="I167" s="16"/>
-    </row>
-    <row r="168" ht="20.1" customHeight="1">
-      <c r="A168" t="s" s="21">
+      <c r="C167" s="9"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+    </row>
+    <row r="168" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A168" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="B168" t="s" s="13">
+      <c r="B168" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C168" s="13"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="16"/>
-      <c r="F168" s="16"/>
-      <c r="G168" s="16"/>
-      <c r="H168" s="16"/>
-      <c r="I168" s="16"/>
-    </row>
-    <row r="169" ht="20.1" customHeight="1">
-      <c r="A169" t="s" s="21">
+      <c r="C168" s="9"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+    </row>
+    <row r="169" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A169" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="B169" t="s" s="13">
+      <c r="B169" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C169" s="13"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="16"/>
-      <c r="F169" s="16"/>
-      <c r="G169" s="16"/>
-      <c r="H169" s="16"/>
-      <c r="I169" s="16"/>
-    </row>
-    <row r="170" ht="20.1" customHeight="1">
-      <c r="A170" t="s" s="21">
+      <c r="C169" s="9"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+    </row>
+    <row r="170" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A170" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="B170" t="s" s="13">
+      <c r="B170" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C170" s="13"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="16"/>
-      <c r="F170" s="16"/>
-      <c r="G170" s="16"/>
-      <c r="H170" s="16"/>
-      <c r="I170" s="16"/>
-    </row>
-    <row r="171" ht="20.1" customHeight="1">
-      <c r="A171" t="s" s="21">
+      <c r="C170" s="9"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+    </row>
+    <row r="171" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A171" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="B171" t="s" s="13">
+      <c r="B171" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C171" s="13"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="16"/>
-      <c r="F171" s="16"/>
-      <c r="G171" s="16"/>
-      <c r="H171" s="16"/>
-      <c r="I171" s="16"/>
-    </row>
-    <row r="172" ht="20.1" customHeight="1">
-      <c r="A172" t="s" s="21">
+      <c r="C171" s="9"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+    </row>
+    <row r="172" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A172" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="B172" t="s" s="13">
+      <c r="B172" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C172" s="13"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="16"/>
-      <c r="F172" s="16"/>
-      <c r="G172" s="16"/>
-      <c r="H172" s="16"/>
-      <c r="I172" s="16"/>
-    </row>
-    <row r="173" ht="20.1" customHeight="1">
-      <c r="A173" t="s" s="21">
+      <c r="C172" s="9"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+    </row>
+    <row r="173" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A173" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="B173" t="s" s="13">
+      <c r="B173" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C173" s="13"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="16"/>
-      <c r="F173" s="16"/>
-      <c r="G173" s="16"/>
-      <c r="H173" s="16"/>
-      <c r="I173" s="16"/>
-    </row>
-    <row r="174" ht="20.1" customHeight="1">
-      <c r="A174" t="s" s="21">
+      <c r="C173" s="9"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+    </row>
+    <row r="174" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A174" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="B174" t="s" s="13">
+      <c r="B174" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C174" s="13"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="16"/>
-      <c r="F174" s="16"/>
-      <c r="G174" s="16"/>
-      <c r="H174" s="16"/>
-      <c r="I174" s="16"/>
-    </row>
-    <row r="175" ht="20.1" customHeight="1">
-      <c r="A175" t="s" s="21">
+      <c r="C174" s="9"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+    </row>
+    <row r="175" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A175" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B175" t="s" s="13">
+      <c r="B175" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C175" s="13"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="16"/>
-      <c r="F175" s="16"/>
-      <c r="G175" s="16"/>
-      <c r="H175" s="16"/>
-      <c r="I175" s="16"/>
-    </row>
-    <row r="176" ht="20.1" customHeight="1">
-      <c r="A176" t="s" s="21">
+      <c r="C175" s="9"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+    </row>
+    <row r="176" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A176" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="B176" t="s" s="13">
+      <c r="B176" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C176" s="13"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="16"/>
-      <c r="F176" s="16"/>
-      <c r="G176" s="16"/>
-      <c r="H176" s="16"/>
-      <c r="I176" s="16"/>
-    </row>
-    <row r="177" ht="20.1" customHeight="1">
-      <c r="A177" t="s" s="21">
+      <c r="C176" s="9"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+    </row>
+    <row r="177" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A177" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B177" t="s" s="13">
+      <c r="B177" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C177" s="13"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="16"/>
-      <c r="F177" s="16"/>
-      <c r="G177" s="16"/>
-      <c r="H177" s="16"/>
-      <c r="I177" s="16"/>
-    </row>
-    <row r="178" ht="20.1" customHeight="1">
-      <c r="A178" t="s" s="21">
+      <c r="C177" s="9"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+    </row>
+    <row r="178" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="B178" t="s" s="13">
+      <c r="B178" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C178" s="13"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="16"/>
-      <c r="F178" s="16"/>
-      <c r="G178" s="16"/>
-      <c r="H178" s="16"/>
-      <c r="I178" s="16"/>
-    </row>
-    <row r="179" ht="20.1" customHeight="1">
-      <c r="A179" t="s" s="21">
+      <c r="C178" s="9"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+    </row>
+    <row r="179" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A179" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="B179" t="s" s="13">
+      <c r="B179" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C179" s="13"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="16"/>
-      <c r="F179" s="16"/>
-      <c r="G179" s="16"/>
-      <c r="H179" s="16"/>
-      <c r="I179" s="16"/>
-    </row>
-    <row r="180" ht="20.1" customHeight="1">
-      <c r="A180" t="s" s="21">
+      <c r="C179" s="9"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+    </row>
+    <row r="180" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A180" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="B180" t="s" s="13">
+      <c r="B180" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C180" s="13"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="16"/>
-      <c r="F180" s="16"/>
-      <c r="G180" s="16"/>
-      <c r="H180" s="16"/>
-      <c r="I180" s="16"/>
-    </row>
-    <row r="181" ht="20.1" customHeight="1">
-      <c r="A181" t="s" s="21">
+      <c r="C180" s="9"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+    </row>
+    <row r="181" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A181" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="B181" t="s" s="13">
+      <c r="B181" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C181" s="13"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="16"/>
-      <c r="F181" s="16"/>
-      <c r="G181" s="16"/>
-      <c r="H181" s="16"/>
-      <c r="I181" s="16"/>
-    </row>
-    <row r="182" ht="20.1" customHeight="1">
-      <c r="A182" t="s" s="21">
+      <c r="C181" s="9"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+    </row>
+    <row r="182" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A182" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="B182" t="s" s="13">
+      <c r="B182" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C182" s="13"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="16"/>
-      <c r="F182" s="16"/>
-      <c r="G182" s="16"/>
-      <c r="H182" s="16"/>
-      <c r="I182" s="16"/>
-    </row>
-    <row r="183" ht="20.1" customHeight="1">
-      <c r="A183" t="s" s="21">
+      <c r="C182" s="9"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+    </row>
+    <row r="183" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A183" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="B183" t="s" s="13">
+      <c r="B183" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C183" s="13"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="16"/>
-      <c r="F183" s="16"/>
-      <c r="G183" s="16"/>
-      <c r="H183" s="16"/>
-      <c r="I183" s="16"/>
-    </row>
-    <row r="184" ht="20.1" customHeight="1">
-      <c r="A184" t="s" s="21">
+      <c r="C183" s="9"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+    </row>
+    <row r="184" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A184" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="B184" t="s" s="13">
+      <c r="B184" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C184" s="13"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="16"/>
-      <c r="F184" s="16"/>
-      <c r="G184" s="16"/>
-      <c r="H184" s="16"/>
-      <c r="I184" s="16"/>
-    </row>
-    <row r="185" ht="20.1" customHeight="1">
-      <c r="A185" t="s" s="21">
+      <c r="C184" s="9"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+    </row>
+    <row r="185" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A185" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B185" t="s" s="13">
+      <c r="B185" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C185" s="13"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="16"/>
-      <c r="F185" s="16"/>
-      <c r="G185" s="16"/>
-      <c r="H185" s="16"/>
-      <c r="I185" s="16"/>
-    </row>
-    <row r="186" ht="20.1" customHeight="1">
-      <c r="A186" s="22"/>
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="19"/>
-      <c r="E186" s="16"/>
-      <c r="F186" s="16"/>
-      <c r="G186" s="16"/>
-      <c r="H186" s="16"/>
-      <c r="I186" s="16"/>
-    </row>
-    <row r="187" ht="20.1" customHeight="1">
-      <c r="A187" t="s" s="21">
+      <c r="C185" s="9"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+    </row>
+    <row r="186" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A186" s="18"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+    </row>
+    <row r="187" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A187" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="B187" t="s" s="13">
+      <c r="B187" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C187" s="13"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="16"/>
-      <c r="F187" s="16"/>
-      <c r="G187" s="16"/>
-      <c r="H187" s="16"/>
-      <c r="I187" s="16"/>
-    </row>
-    <row r="188" ht="20.1" customHeight="1">
-      <c r="A188" t="s" s="21">
+      <c r="C187" s="9"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+    </row>
+    <row r="188" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A188" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="B188" t="s" s="13">
+      <c r="B188" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C188" s="13"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="16"/>
-      <c r="F188" s="16"/>
-      <c r="G188" s="16"/>
-      <c r="H188" s="16"/>
-      <c r="I188" s="16"/>
-    </row>
-    <row r="189" ht="20.1" customHeight="1">
-      <c r="A189" t="s" s="21">
+      <c r="C188" s="9"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+    </row>
+    <row r="189" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A189" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="B189" t="s" s="13">
+      <c r="B189" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C189" s="13"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="16"/>
-      <c r="F189" s="16"/>
-      <c r="G189" s="16"/>
-      <c r="H189" s="16"/>
-      <c r="I189" s="16"/>
-    </row>
-    <row r="190" ht="20.1" customHeight="1">
-      <c r="A190" t="s" s="21">
+      <c r="C189" s="9"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+    </row>
+    <row r="190" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A190" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="B190" t="s" s="13">
+      <c r="B190" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C190" s="13"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="16"/>
-      <c r="F190" s="16"/>
-      <c r="G190" s="16"/>
-      <c r="H190" s="16"/>
-      <c r="I190" s="16"/>
-    </row>
-    <row r="191" ht="20.1" customHeight="1">
-      <c r="A191" t="s" s="21">
+      <c r="C190" s="9"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+    </row>
+    <row r="191" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A191" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="B191" t="s" s="13">
+      <c r="B191" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C191" s="13"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="16"/>
-      <c r="F191" s="16"/>
-      <c r="G191" s="16"/>
-      <c r="H191" s="16"/>
-      <c r="I191" s="16"/>
-    </row>
-    <row r="192" ht="20.1" customHeight="1">
-      <c r="A192" t="s" s="21">
+      <c r="C191" s="9"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+    </row>
+    <row r="192" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A192" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="B192" t="s" s="13">
+      <c r="B192" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="C192" s="13"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="16"/>
-      <c r="F192" s="16"/>
-      <c r="G192" s="16"/>
-      <c r="H192" s="16"/>
-      <c r="I192" s="16"/>
-    </row>
-    <row r="193" ht="20.1" customHeight="1">
-      <c r="A193" t="s" s="21">
+      <c r="C192" s="9"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+    </row>
+    <row r="193" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A193" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="B193" t="s" s="13">
+      <c r="B193" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C193" s="13"/>
-      <c r="D193" s="14"/>
-      <c r="E193" s="16"/>
-      <c r="F193" s="16"/>
-      <c r="G193" s="16"/>
-      <c r="H193" s="16"/>
-      <c r="I193" s="16"/>
-    </row>
-    <row r="194" ht="20.1" customHeight="1">
-      <c r="A194" t="s" s="21">
+      <c r="C193" s="9"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+    </row>
+    <row r="194" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A194" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="B194" t="s" s="13">
+      <c r="B194" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="C194" s="13"/>
-      <c r="D194" s="14"/>
-      <c r="E194" s="16"/>
-      <c r="F194" s="16"/>
-      <c r="G194" s="16"/>
-      <c r="H194" s="16"/>
-      <c r="I194" s="16"/>
-    </row>
-    <row r="195" ht="20.1" customHeight="1">
-      <c r="A195" t="s" s="21">
+      <c r="C194" s="9"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+    </row>
+    <row r="195" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A195" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="B195" t="s" s="13">
+      <c r="B195" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="C195" s="13"/>
-      <c r="D195" s="14"/>
-      <c r="E195" s="16"/>
-      <c r="F195" s="16"/>
-      <c r="G195" s="16"/>
-      <c r="H195" s="16"/>
-      <c r="I195" s="16"/>
-    </row>
-    <row r="196" ht="20.1" customHeight="1">
-      <c r="A196" s="22"/>
-      <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="19"/>
-      <c r="E196" s="16"/>
-      <c r="F196" s="16"/>
-      <c r="G196" s="16"/>
-      <c r="H196" s="16"/>
-      <c r="I196" s="16"/>
-    </row>
-    <row r="197" ht="20.1" customHeight="1">
-      <c r="A197" t="s" s="21">
+      <c r="C195" s="9"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+    </row>
+    <row r="196" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A196" s="18"/>
+      <c r="B196" s="14"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+    </row>
+    <row r="197" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A197" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="B197" t="s" s="13">
+      <c r="B197" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C197" s="13"/>
-      <c r="D197" s="14"/>
-      <c r="E197" s="16"/>
-      <c r="F197" s="16"/>
-      <c r="G197" s="16"/>
-      <c r="H197" s="16"/>
-      <c r="I197" s="16"/>
-    </row>
-    <row r="198" ht="20.1" customHeight="1">
-      <c r="A198" t="s" s="21">
+      <c r="C197" s="9"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+    </row>
+    <row r="198" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A198" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="B198" t="s" s="13">
+      <c r="B198" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="C198" s="13"/>
-      <c r="D198" s="14"/>
-      <c r="E198" s="16"/>
-      <c r="F198" s="16"/>
-      <c r="G198" s="16"/>
-      <c r="H198" s="16"/>
-      <c r="I198" s="16"/>
-    </row>
-    <row r="199" ht="20.1" customHeight="1">
-      <c r="A199" t="s" s="21">
+      <c r="C198" s="9"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+    </row>
+    <row r="199" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A199" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="B199" t="s" s="13">
+      <c r="B199" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C199" s="13"/>
-      <c r="D199" s="14"/>
-      <c r="E199" s="16"/>
-      <c r="F199" s="16"/>
-      <c r="G199" s="16"/>
-      <c r="H199" s="16"/>
-      <c r="I199" s="16"/>
-    </row>
-    <row r="200" ht="20.1" customHeight="1">
-      <c r="A200" s="22"/>
-      <c r="B200" s="13"/>
-      <c r="C200" s="13"/>
-      <c r="D200" s="14"/>
-      <c r="E200" s="16"/>
-      <c r="F200" s="16"/>
-      <c r="G200" s="16"/>
-      <c r="H200" s="16"/>
-      <c r="I200" s="16"/>
-    </row>
-    <row r="201" ht="20.1" customHeight="1">
-      <c r="A201" s="22"/>
-      <c r="B201" t="s" s="13">
+      <c r="C199" s="9"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12"/>
+    </row>
+    <row r="200" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A200" s="18"/>
+      <c r="B200" s="9"/>
+      <c r="C200" s="9"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+    </row>
+    <row r="201" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A201" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="B201" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C201" s="13"/>
-      <c r="D201" s="14"/>
-      <c r="E201" s="16"/>
-      <c r="F201" s="16"/>
-      <c r="G201" s="16"/>
-      <c r="H201" s="16"/>
-      <c r="I201" s="16"/>
-    </row>
-    <row r="202" ht="20.1" customHeight="1">
-      <c r="A202" s="22"/>
-      <c r="B202" t="s" s="13">
+      <c r="C201" s="9"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+    </row>
+    <row r="202" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A202" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B202" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C202" s="13"/>
-      <c r="D202" s="14"/>
-      <c r="E202" s="16"/>
-      <c r="F202" s="16"/>
-      <c r="G202" s="16"/>
-      <c r="H202" s="16"/>
-      <c r="I202" s="16"/>
-    </row>
-    <row r="203" ht="20.1" customHeight="1">
-      <c r="A203" s="22"/>
-      <c r="B203" t="s" s="13">
+      <c r="C202" s="9"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
+    </row>
+    <row r="203" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A203" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="B203" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C203" s="13"/>
-      <c r="D203" s="14"/>
-      <c r="E203" s="16"/>
-      <c r="F203" s="16"/>
-      <c r="G203" s="16"/>
-      <c r="H203" s="16"/>
-      <c r="I203" s="16"/>
-    </row>
-    <row r="204" ht="20.1" customHeight="1">
-      <c r="A204" s="22"/>
-      <c r="B204" t="s" s="13">
+      <c r="C203" s="9"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+    </row>
+    <row r="204" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A204" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="B204" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="C204" s="13"/>
-      <c r="D204" s="14"/>
-      <c r="E204" s="16"/>
-      <c r="F204" s="16"/>
-      <c r="G204" s="16"/>
-      <c r="H204" s="16"/>
-      <c r="I204" s="16"/>
-    </row>
-    <row r="205" ht="20.1" customHeight="1">
-      <c r="A205" s="22"/>
-      <c r="B205" t="s" s="13">
+      <c r="C204" s="9"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="12"/>
+    </row>
+    <row r="205" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A205" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="B205" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C205" s="13"/>
-      <c r="D205" s="14"/>
-      <c r="E205" s="16"/>
-      <c r="F205" s="16"/>
-      <c r="G205" s="16"/>
-      <c r="H205" s="16"/>
-      <c r="I205" s="16"/>
-    </row>
-    <row r="206" ht="20.1" customHeight="1">
-      <c r="A206" s="22"/>
-      <c r="B206" t="s" s="13">
+      <c r="C205" s="9"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="12"/>
+      <c r="I205" s="12"/>
+    </row>
+    <row r="206" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A206" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B206" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="C206" s="13"/>
-      <c r="D206" s="14"/>
-      <c r="E206" s="16"/>
-      <c r="F206" s="16"/>
-      <c r="G206" s="16"/>
-      <c r="H206" s="16"/>
-      <c r="I206" s="16"/>
-    </row>
-    <row r="207" ht="20.1" customHeight="1">
-      <c r="A207" s="22"/>
-      <c r="B207" t="s" s="13">
+      <c r="C206" s="9"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="12"/>
+      <c r="I206" s="12"/>
+    </row>
+    <row r="207" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A207" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="B207" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C207" s="13"/>
-      <c r="D207" s="14"/>
-      <c r="E207" s="16"/>
-      <c r="F207" s="16"/>
-      <c r="G207" s="16"/>
-      <c r="H207" s="16"/>
-      <c r="I207" s="16"/>
-    </row>
-    <row r="208" ht="20.1" customHeight="1">
-      <c r="A208" s="22"/>
-      <c r="B208" t="s" s="13">
+      <c r="C207" s="9"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="12"/>
+    </row>
+    <row r="208" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A208" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="B208" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C208" s="13"/>
-      <c r="D208" s="14"/>
-      <c r="E208" s="16"/>
-      <c r="F208" s="16"/>
-      <c r="G208" s="16"/>
-      <c r="H208" s="16"/>
-      <c r="I208" s="16"/>
-    </row>
-    <row r="209" ht="20.1" customHeight="1">
-      <c r="A209" s="22"/>
-      <c r="B209" t="s" s="13">
+      <c r="C208" s="9"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="12"/>
+    </row>
+    <row r="209" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A209" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="B209" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C209" s="13"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="16"/>
-      <c r="F209" s="16"/>
-      <c r="G209" s="16"/>
-      <c r="H209" s="16"/>
-      <c r="I209" s="16"/>
-    </row>
-    <row r="210" ht="20.1" customHeight="1">
-      <c r="A210" s="22"/>
-      <c r="B210" t="s" s="13">
+      <c r="C209" s="9"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="12"/>
+    </row>
+    <row r="210" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A210" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="B210" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="C210" s="13"/>
-      <c r="D210" s="14"/>
-      <c r="E210" s="16"/>
-      <c r="F210" s="16"/>
-      <c r="G210" s="16"/>
-      <c r="H210" s="16"/>
-      <c r="I210" s="16"/>
-    </row>
-    <row r="211" ht="20.1" customHeight="1">
-      <c r="A211" s="22"/>
-      <c r="B211" t="s" s="13">
+      <c r="C210" s="9"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+    </row>
+    <row r="211" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A211" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="B211" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C211" s="13"/>
-      <c r="D211" s="14"/>
-      <c r="E211" s="16"/>
-      <c r="F211" s="16"/>
-      <c r="G211" s="16"/>
-      <c r="H211" s="16"/>
-      <c r="I211" s="16"/>
-    </row>
-    <row r="212" ht="20.1" customHeight="1">
-      <c r="A212" s="22"/>
-      <c r="B212" t="s" s="13">
+      <c r="C211" s="9"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="12"/>
+    </row>
+    <row r="212" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A212" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="B212" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="C212" s="13"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="16"/>
-      <c r="F212" s="16"/>
-      <c r="G212" s="16"/>
-      <c r="H212" s="16"/>
-      <c r="I212" s="16"/>
-    </row>
-    <row r="213" ht="20.1" customHeight="1">
-      <c r="A213" s="22"/>
-      <c r="B213" t="s" s="13">
+      <c r="C212" s="9"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
+    </row>
+    <row r="213" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A213" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B213" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C213" s="13"/>
-      <c r="D213" s="14"/>
-      <c r="E213" s="16"/>
-      <c r="F213" s="16"/>
-      <c r="G213" s="16"/>
-      <c r="H213" s="16"/>
-      <c r="I213" s="16"/>
-    </row>
-    <row r="214" ht="20.1" customHeight="1">
-      <c r="A214" s="22"/>
-      <c r="B214" t="s" s="13">
+      <c r="C213" s="9"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+    </row>
+    <row r="214" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A214" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="B214" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C214" s="13"/>
-      <c r="D214" s="14"/>
-      <c r="E214" s="16"/>
-      <c r="F214" s="16"/>
-      <c r="G214" s="16"/>
-      <c r="H214" s="16"/>
-      <c r="I214" s="16"/>
-    </row>
-    <row r="215" ht="20.1" customHeight="1">
-      <c r="A215" s="22"/>
-      <c r="B215" t="s" s="13">
+      <c r="C214" s="9"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="12"/>
+    </row>
+    <row r="215" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A215" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="B215" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C215" s="13"/>
-      <c r="D215" s="14"/>
-      <c r="E215" s="16"/>
-      <c r="F215" s="16"/>
-      <c r="G215" s="16"/>
-      <c r="H215" s="16"/>
-      <c r="I215" s="16"/>
-    </row>
-    <row r="216" ht="20.1" customHeight="1">
-      <c r="A216" s="22"/>
-      <c r="B216" s="13"/>
-      <c r="C216" s="13"/>
-      <c r="D216" s="14"/>
-      <c r="E216" s="16"/>
-      <c r="F216" s="16"/>
-      <c r="G216" s="16"/>
-      <c r="H216" s="16"/>
-      <c r="I216" s="16"/>
-    </row>
-    <row r="217" ht="20.1" customHeight="1">
-      <c r="A217" s="22"/>
-      <c r="B217" t="s" s="13">
+      <c r="C215" s="9"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="12"/>
+      <c r="I215" s="12"/>
+    </row>
+    <row r="216" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A216" s="18"/>
+      <c r="B216" s="9"/>
+      <c r="C216" s="9"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+    </row>
+    <row r="217" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A217" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="B217" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="C217" s="13"/>
-      <c r="D217" s="14"/>
-      <c r="E217" s="16"/>
-      <c r="F217" s="16"/>
-      <c r="G217" s="16"/>
-      <c r="H217" s="16"/>
-      <c r="I217" s="16"/>
-    </row>
-    <row r="218" ht="20.1" customHeight="1">
-      <c r="A218" s="22"/>
-      <c r="B218" t="s" s="13">
+      <c r="C217" s="9"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+    </row>
+    <row r="218" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A218" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="B218" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C218" s="13"/>
-      <c r="D218" s="14"/>
-      <c r="E218" s="16"/>
-      <c r="F218" s="16"/>
-      <c r="G218" s="16"/>
-      <c r="H218" s="16"/>
-      <c r="I218" s="16"/>
-    </row>
-    <row r="219" ht="20.1" customHeight="1">
-      <c r="A219" s="22"/>
-      <c r="B219" t="s" s="13">
+      <c r="C218" s="9"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+    </row>
+    <row r="219" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A219" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="B219" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="C219" s="13"/>
-      <c r="D219" s="14"/>
-      <c r="E219" s="16"/>
-      <c r="F219" s="16"/>
-      <c r="G219" s="16"/>
-      <c r="H219" s="16"/>
-      <c r="I219" s="16"/>
-    </row>
-    <row r="220" ht="20.1" customHeight="1">
-      <c r="A220" s="22"/>
-      <c r="B220" t="s" s="13">
+      <c r="C219" s="9"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="12"/>
+    </row>
+    <row r="220" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A220" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="B220" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C220" s="13"/>
-      <c r="D220" s="14"/>
-      <c r="E220" s="16"/>
-      <c r="F220" s="16"/>
-      <c r="G220" s="16"/>
-      <c r="H220" s="16"/>
-      <c r="I220" s="16"/>
-    </row>
-    <row r="221" ht="20.1" customHeight="1">
-      <c r="A221" s="22"/>
-      <c r="B221" t="s" s="13">
+      <c r="C220" s="9"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="12"/>
+    </row>
+    <row r="221" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A221" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="B221" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C221" s="13"/>
-      <c r="D221" s="14"/>
-      <c r="E221" s="16"/>
-      <c r="F221" s="16"/>
-      <c r="G221" s="16"/>
-      <c r="H221" s="16"/>
-      <c r="I221" s="16"/>
-    </row>
-    <row r="222" ht="20.1" customHeight="1">
-      <c r="A222" s="22"/>
-      <c r="B222" t="s" s="13">
+      <c r="C221" s="9"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="12"/>
+    </row>
+    <row r="222" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A222" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="B222" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C222" s="13"/>
-      <c r="D222" s="14"/>
-      <c r="E222" s="16"/>
-      <c r="F222" s="16"/>
-      <c r="G222" s="16"/>
-      <c r="H222" s="16"/>
-      <c r="I222" s="16"/>
-    </row>
-    <row r="223" ht="20.1" customHeight="1">
-      <c r="A223" s="22"/>
-      <c r="B223" t="s" s="13">
+      <c r="C222" s="9"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="12"/>
+      <c r="I222" s="12"/>
+    </row>
+    <row r="223" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A223" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="B223" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="C223" s="13"/>
-      <c r="D223" s="14"/>
-      <c r="E223" s="16"/>
-      <c r="F223" s="16"/>
-      <c r="G223" s="16"/>
-      <c r="H223" s="16"/>
-      <c r="I223" s="16"/>
-    </row>
-    <row r="224" ht="20.1" customHeight="1">
-      <c r="A224" s="22"/>
-      <c r="B224" t="s" s="13">
+      <c r="C223" s="9"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12"/>
+      <c r="G223" s="12"/>
+      <c r="H223" s="12"/>
+      <c r="I223" s="12"/>
+    </row>
+    <row r="224" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A224" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="B224" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C224" s="13"/>
-      <c r="D224" s="14"/>
-      <c r="E224" s="16"/>
-      <c r="F224" s="16"/>
-      <c r="G224" s="16"/>
-      <c r="H224" s="16"/>
-      <c r="I224" s="16"/>
-    </row>
-    <row r="225" ht="20.1" customHeight="1">
-      <c r="A225" s="22"/>
-      <c r="B225" t="s" s="13">
+      <c r="C224" s="9"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12"/>
+      <c r="G224" s="12"/>
+      <c r="H224" s="12"/>
+      <c r="I224" s="12"/>
+    </row>
+    <row r="225" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A225" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="B225" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="C225" s="13"/>
-      <c r="D225" s="14"/>
-      <c r="E225" s="16"/>
-      <c r="F225" s="16"/>
-      <c r="G225" s="16"/>
-      <c r="H225" s="16"/>
-      <c r="I225" s="16"/>
-    </row>
-    <row r="226" ht="20.1" customHeight="1">
-      <c r="A226" s="22"/>
-      <c r="B226" t="s" s="13">
+      <c r="C225" s="9"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="12"/>
+      <c r="I225" s="12"/>
+    </row>
+    <row r="226" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A226" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="B226" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C226" s="13"/>
-      <c r="D226" s="14"/>
-      <c r="E226" s="16"/>
-      <c r="F226" s="16"/>
-      <c r="G226" s="16"/>
-      <c r="H226" s="16"/>
-      <c r="I226" s="16"/>
-    </row>
-    <row r="227" ht="20.1" customHeight="1">
-      <c r="A227" s="22"/>
-      <c r="B227" t="s" s="13">
+      <c r="C226" s="9"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="12"/>
+      <c r="I226" s="12"/>
+    </row>
+    <row r="227" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A227" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="B227" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="C227" s="13"/>
-      <c r="D227" s="14"/>
-      <c r="E227" s="16"/>
-      <c r="F227" s="16"/>
-      <c r="G227" s="16"/>
-      <c r="H227" s="16"/>
-      <c r="I227" s="16"/>
-    </row>
-    <row r="228" ht="20.1" customHeight="1">
-      <c r="A228" s="22"/>
-      <c r="B228" t="s" s="13">
+      <c r="C227" s="9"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="12"/>
+      <c r="I227" s="12"/>
+    </row>
+    <row r="228" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A228" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B228" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C228" s="13"/>
-      <c r="D228" s="14"/>
-      <c r="E228" s="16"/>
-      <c r="F228" s="16"/>
-      <c r="G228" s="16"/>
-      <c r="H228" s="16"/>
-      <c r="I228" s="16"/>
-    </row>
-    <row r="229" ht="20.1" customHeight="1">
-      <c r="A229" s="22"/>
-      <c r="B229" t="s" s="13">
+      <c r="C228" s="9"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="12"/>
+      <c r="I228" s="12"/>
+    </row>
+    <row r="229" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A229" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="B229" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="C229" s="13"/>
-      <c r="D229" s="14"/>
-      <c r="E229" s="16"/>
-      <c r="F229" s="16"/>
-      <c r="G229" s="16"/>
-      <c r="H229" s="16"/>
-      <c r="I229" s="16"/>
-    </row>
-    <row r="230" ht="20.1" customHeight="1">
-      <c r="A230" s="22"/>
-      <c r="B230" t="s" s="13">
+      <c r="C229" s="9"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="12"/>
+      <c r="I229" s="12"/>
+    </row>
+    <row r="230" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A230" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="B230" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C230" s="13"/>
-      <c r="D230" s="14"/>
-      <c r="E230" s="16"/>
-      <c r="F230" s="16"/>
-      <c r="G230" s="16"/>
-      <c r="H230" s="16"/>
-      <c r="I230" s="16"/>
-    </row>
-    <row r="231" ht="20.1" customHeight="1">
-      <c r="A231" s="22"/>
-      <c r="B231" t="s" s="13">
+      <c r="C230" s="9"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="12"/>
+      <c r="I230" s="12"/>
+    </row>
+    <row r="231" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A231" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="B231" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C231" s="13"/>
-      <c r="D231" s="14"/>
-      <c r="E231" s="16"/>
-      <c r="F231" s="16"/>
-      <c r="G231" s="16"/>
-      <c r="H231" s="16"/>
-      <c r="I231" s="16"/>
-    </row>
-    <row r="232" ht="20.1" customHeight="1">
-      <c r="A232" s="22"/>
-      <c r="B232" t="s" s="13">
+      <c r="C231" s="9"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="12"/>
+      <c r="I231" s="12"/>
+    </row>
+    <row r="232" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A232" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="B232" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C232" s="13"/>
-      <c r="D232" s="14"/>
-      <c r="E232" s="16"/>
-      <c r="F232" s="16"/>
-      <c r="G232" s="16"/>
-      <c r="H232" s="16"/>
-      <c r="I232" s="16"/>
-    </row>
-    <row r="233" ht="20.1" customHeight="1">
-      <c r="A233" s="22"/>
-      <c r="B233" t="s" s="13">
+      <c r="C232" s="9"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="12"/>
+      <c r="I232" s="12"/>
+    </row>
+    <row r="233" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A233" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="B233" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="C233" s="13"/>
-      <c r="D233" s="14"/>
-      <c r="E233" s="16"/>
-      <c r="F233" s="16"/>
-      <c r="G233" s="16"/>
-      <c r="H233" s="16"/>
-      <c r="I233" s="16"/>
-    </row>
-    <row r="234" ht="20.1" customHeight="1">
-      <c r="A234" s="22"/>
-      <c r="B234" t="s" s="13">
+      <c r="C233" s="9"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12"/>
+      <c r="G233" s="12"/>
+      <c r="H233" s="12"/>
+      <c r="I233" s="12"/>
+    </row>
+    <row r="234" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A234" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="B234" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="C234" s="13"/>
-      <c r="D234" s="14"/>
-      <c r="E234" s="16"/>
-      <c r="F234" s="16"/>
-      <c r="G234" s="16"/>
-      <c r="H234" s="16"/>
-      <c r="I234" s="16"/>
-    </row>
-    <row r="235" ht="20.1" customHeight="1">
-      <c r="A235" s="22"/>
-      <c r="B235" t="s" s="13">
+      <c r="C234" s="9"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="12"/>
+      <c r="G234" s="12"/>
+      <c r="H234" s="12"/>
+      <c r="I234" s="12"/>
+    </row>
+    <row r="235" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A235" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="B235" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C235" s="13"/>
-      <c r="D235" s="14"/>
-      <c r="E235" s="16"/>
-      <c r="F235" s="16"/>
-      <c r="G235" s="16"/>
-      <c r="H235" s="16"/>
-      <c r="I235" s="16"/>
-    </row>
-    <row r="236" ht="20.1" customHeight="1">
-      <c r="A236" s="22"/>
-      <c r="B236" t="s" s="13">
+      <c r="C235" s="9"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+      <c r="G235" s="12"/>
+      <c r="H235" s="12"/>
+      <c r="I235" s="12"/>
+    </row>
+    <row r="236" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A236" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="B236" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C236" s="13"/>
-      <c r="D236" s="14"/>
-      <c r="E236" s="16"/>
-      <c r="F236" s="16"/>
-      <c r="G236" s="16"/>
-      <c r="H236" s="16"/>
-      <c r="I236" s="16"/>
-    </row>
-    <row r="237" ht="20.1" customHeight="1">
-      <c r="A237" s="22"/>
-      <c r="B237" t="s" s="13">
+      <c r="C236" s="9"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12"/>
+      <c r="G236" s="12"/>
+      <c r="H236" s="12"/>
+      <c r="I236" s="12"/>
+    </row>
+    <row r="237" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A237" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="B237" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C237" s="13"/>
-      <c r="D237" s="14"/>
-      <c r="E237" s="16"/>
-      <c r="F237" s="16"/>
-      <c r="G237" s="16"/>
-      <c r="H237" s="16"/>
-      <c r="I237" s="16"/>
-    </row>
-    <row r="238" ht="20.1" customHeight="1">
-      <c r="A238" s="22"/>
-      <c r="B238" t="s" s="13">
+      <c r="C237" s="9"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="12"/>
+      <c r="F237" s="12"/>
+      <c r="G237" s="12"/>
+      <c r="H237" s="12"/>
+      <c r="I237" s="12"/>
+    </row>
+    <row r="238" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A238" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="B238" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="C238" s="13"/>
-      <c r="D238" s="14"/>
-      <c r="E238" s="16"/>
-      <c r="F238" s="16"/>
-      <c r="G238" s="16"/>
-      <c r="H238" s="16"/>
-      <c r="I238" s="16"/>
-    </row>
-    <row r="239" ht="20.1" customHeight="1">
-      <c r="A239" s="22"/>
-      <c r="B239" t="s" s="13">
+      <c r="C238" s="9"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12"/>
+      <c r="G238" s="12"/>
+      <c r="H238" s="12"/>
+      <c r="I238" s="12"/>
+    </row>
+    <row r="239" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A239" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="B239" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="C239" s="13"/>
-      <c r="D239" s="14"/>
-      <c r="E239" s="16"/>
-      <c r="F239" s="16"/>
-      <c r="G239" s="16"/>
-      <c r="H239" s="16"/>
-      <c r="I239" s="16"/>
-    </row>
-    <row r="240" ht="20.1" customHeight="1">
-      <c r="A240" s="22"/>
-      <c r="B240" t="s" s="13">
+      <c r="C239" s="9"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12"/>
+      <c r="G239" s="12"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="12"/>
+    </row>
+    <row r="240" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A240" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="B240" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="C240" s="13"/>
-      <c r="D240" s="14"/>
-      <c r="E240" s="16"/>
-      <c r="F240" s="16"/>
-      <c r="G240" s="16"/>
-      <c r="H240" s="16"/>
-      <c r="I240" s="16"/>
-    </row>
-    <row r="241" ht="20.1" customHeight="1">
-      <c r="A241" s="22"/>
-      <c r="B241" t="s" s="13">
+      <c r="C240" s="9"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12"/>
+      <c r="G240" s="12"/>
+      <c r="H240" s="12"/>
+      <c r="I240" s="12"/>
+    </row>
+    <row r="241" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A241" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="B241" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C241" s="13"/>
-      <c r="D241" s="14"/>
-      <c r="E241" s="16"/>
-      <c r="F241" s="16"/>
-      <c r="G241" s="16"/>
-      <c r="H241" s="16"/>
-      <c r="I241" s="16"/>
-    </row>
-    <row r="242" ht="20.1" customHeight="1">
-      <c r="A242" s="22"/>
-      <c r="B242" s="13"/>
-      <c r="C242" s="13"/>
-      <c r="D242" s="14"/>
-      <c r="E242" s="16"/>
-      <c r="F242" s="16"/>
-      <c r="G242" s="16"/>
-      <c r="H242" s="16"/>
-      <c r="I242" s="16"/>
-    </row>
-    <row r="243" ht="20.1" customHeight="1">
-      <c r="A243" s="22"/>
-      <c r="B243" t="s" s="13">
+      <c r="C241" s="9"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+      <c r="G241" s="12"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="12"/>
+    </row>
+    <row r="242" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A242" s="18"/>
+      <c r="B242" s="9"/>
+      <c r="C242" s="9"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="12"/>
+      <c r="F242" s="12"/>
+      <c r="G242" s="12"/>
+      <c r="H242" s="12"/>
+      <c r="I242" s="12"/>
+    </row>
+    <row r="243" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A243" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="B243" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="C243" s="13"/>
-      <c r="D243" s="14"/>
-      <c r="E243" s="16"/>
-      <c r="F243" s="16"/>
-      <c r="G243" s="16"/>
-      <c r="H243" s="16"/>
-      <c r="I243" s="16"/>
-    </row>
-    <row r="244" ht="20.1" customHeight="1">
-      <c r="A244" s="22"/>
-      <c r="B244" t="s" s="13">
+      <c r="C243" s="9"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="12"/>
+      <c r="H243" s="12"/>
+      <c r="I243" s="12"/>
+    </row>
+    <row r="244" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A244" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="B244" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="C244" s="13"/>
-      <c r="D244" s="14"/>
-      <c r="E244" s="16"/>
-      <c r="F244" s="16"/>
-      <c r="G244" s="16"/>
-      <c r="H244" s="16"/>
-      <c r="I244" s="16"/>
-    </row>
-    <row r="245" ht="20.1" customHeight="1">
-      <c r="A245" s="22"/>
-      <c r="B245" t="s" s="13">
+      <c r="C244" s="9"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12"/>
+      <c r="G244" s="12"/>
+      <c r="H244" s="12"/>
+      <c r="I244" s="12"/>
+    </row>
+    <row r="245" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A245" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="B245" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="C245" s="13"/>
-      <c r="D245" s="14"/>
-      <c r="E245" s="16"/>
-      <c r="F245" s="16"/>
-      <c r="G245" s="16"/>
-      <c r="H245" s="16"/>
-      <c r="I245" s="16"/>
-    </row>
-    <row r="246" ht="20.1" customHeight="1">
-      <c r="A246" s="22"/>
-      <c r="B246" t="s" s="13">
+      <c r="C245" s="9"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="12"/>
+      <c r="F245" s="12"/>
+      <c r="G245" s="12"/>
+      <c r="H245" s="12"/>
+      <c r="I245" s="12"/>
+    </row>
+    <row r="246" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A246" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="B246" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="C246" s="13"/>
-      <c r="D246" s="14"/>
-      <c r="E246" s="16"/>
-      <c r="F246" s="16"/>
-      <c r="G246" s="16"/>
-      <c r="H246" s="16"/>
-      <c r="I246" s="16"/>
-    </row>
-    <row r="247" ht="20.1" customHeight="1">
-      <c r="A247" s="22"/>
-      <c r="B247" t="s" s="13">
+      <c r="C246" s="9"/>
+      <c r="D246" s="10"/>
+      <c r="E246" s="12"/>
+      <c r="F246" s="12"/>
+      <c r="G246" s="12"/>
+      <c r="H246" s="12"/>
+      <c r="I246" s="12"/>
+    </row>
+    <row r="247" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A247" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="B247" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="C247" s="13"/>
-      <c r="D247" s="14"/>
-      <c r="E247" s="16"/>
-      <c r="F247" s="16"/>
-      <c r="G247" s="16"/>
-      <c r="H247" s="16"/>
-      <c r="I247" s="16"/>
-    </row>
-    <row r="248" ht="20.1" customHeight="1">
-      <c r="A248" s="22"/>
-      <c r="B248" t="s" s="13">
+      <c r="C247" s="9"/>
+      <c r="D247" s="10"/>
+      <c r="E247" s="12"/>
+      <c r="F247" s="12"/>
+      <c r="G247" s="12"/>
+      <c r="H247" s="12"/>
+      <c r="I247" s="12"/>
+    </row>
+    <row r="248" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A248" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B248" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C248" s="13"/>
-      <c r="D248" s="14"/>
-      <c r="E248" s="16"/>
-      <c r="F248" s="16"/>
-      <c r="G248" s="16"/>
-      <c r="H248" s="16"/>
-      <c r="I248" s="16"/>
-    </row>
-    <row r="249" ht="20.1" customHeight="1">
-      <c r="A249" s="22"/>
-      <c r="B249" t="s" s="13">
+      <c r="C248" s="9"/>
+      <c r="D248" s="10"/>
+      <c r="E248" s="12"/>
+      <c r="F248" s="12"/>
+      <c r="G248" s="12"/>
+      <c r="H248" s="12"/>
+      <c r="I248" s="12"/>
+    </row>
+    <row r="249" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A249" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="B249" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="C249" s="13"/>
-      <c r="D249" s="14"/>
-      <c r="E249" s="16"/>
-      <c r="F249" s="16"/>
-      <c r="G249" s="16"/>
-      <c r="H249" s="16"/>
-      <c r="I249" s="16"/>
-    </row>
-    <row r="250" ht="20.1" customHeight="1">
-      <c r="A250" s="22"/>
-      <c r="B250" t="s" s="13">
+      <c r="C249" s="9"/>
+      <c r="D249" s="10"/>
+      <c r="E249" s="12"/>
+      <c r="F249" s="12"/>
+      <c r="G249" s="12"/>
+      <c r="H249" s="12"/>
+      <c r="I249" s="12"/>
+    </row>
+    <row r="250" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A250" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="B250" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C250" s="13"/>
-      <c r="D250" s="14"/>
-      <c r="E250" s="16"/>
-      <c r="F250" s="16"/>
-      <c r="G250" s="16"/>
-      <c r="H250" s="16"/>
-      <c r="I250" s="16"/>
-    </row>
-    <row r="251" ht="20.1" customHeight="1">
-      <c r="A251" s="22"/>
-      <c r="B251" s="13"/>
-      <c r="C251" s="13"/>
-      <c r="D251" s="14"/>
-      <c r="E251" s="16"/>
-      <c r="F251" s="16"/>
-      <c r="G251" s="16"/>
-      <c r="H251" s="16"/>
-      <c r="I251" s="16"/>
+      <c r="C250" s="9"/>
+      <c r="D250" s="10"/>
+      <c r="E250" s="12"/>
+      <c r="F250" s="12"/>
+      <c r="G250" s="12"/>
+      <c r="H250" s="12"/>
+      <c r="I250" s="12"/>
+    </row>
+    <row r="251" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A251" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C251" s="9"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="12"/>
+      <c r="F251" s="12"/>
+      <c r="G251" s="12"/>
+      <c r="H251" s="12"/>
+      <c r="I251" s="12"/>
+    </row>
+    <row r="252" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A252" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A253" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A254" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A255" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A256" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A257" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A258" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A259" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A260" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A261" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A262" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A263" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A264" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A265" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A266" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A267" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A268" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A269" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A270" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A271" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A272" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A273" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A274" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A275" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A276" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A277" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A278" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A279" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A280" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A281" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A282" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A283" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A284" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A285" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A286" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A287" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A288" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>535</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
